--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>Zeichnung (Querschnitt Aufrisse und Details zu Uffizien 6 A [Fra Giocondo Plan])</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -41,6 +41,46 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>nachgezeichnet [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mitgereist [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>datiert [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881+1882</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carpi+Reggio+Milano+Berlin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florenz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEKUNDÄRQUELLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEKUNDÄRQUELLEN-RAUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INHALT/PRIMÄRQUELLE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMÄRQUELLEN-RAUM</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Grundriss von Rom [vermutlich]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -97,10 +137,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Carpi Reggio Milano Berlin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>VII.C.3.c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -117,150 +153,142 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>MATERIAL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECHNIK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAßE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GATTUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friedrich Adler (1827-1908) (Architekt, Baubeamter, Bauforscher)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V.4.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV.6.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1869; Rom)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Fassadenentwurf nach Motiven von Antonio da Sangallo il Giovane)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio Sangallo il Giovanne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fassadenentwurf nach Motiven</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzen und Notizen</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Karte (B. T. Batsford 1899)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORGANISATION</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. T. Batsford (Pbulisher)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B. T. Batsford (Publisher): seit 1843, heute 'Pavilion Books'</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>London</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (auf Transparentpapier; Grundriss [vermutl. Rom])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rom [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blatt (Liste von Objekten)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Postkarte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">/Zeichnung </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Blatt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV.6.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1879 Carpi; Reggio; Milano; Berlin)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1881/1882 Rom)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV.2.3.b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thema:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BESCHRIFTUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>INHALT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>MATERIAL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TECHNIK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAßE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>GATTUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friedrich Adler (1827-1908) (Architekt, Baubeamter, Bauforscher)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V.4.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV.6.5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1869; Rom)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeichnung (Fassadenentwurf nach Motiven von Antonio da Sangallo il Giovane)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VIII.3.2.k</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antonio Sangallo il Giovanne</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fassadenentwurf nach Motiven</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzen und Notizen</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Karte (B. T. Batsford 1899)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORGANISATION</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B. T. Batsford (Pbulisher)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B. T. Batsford (Publisher): seit 1843, heute 'Pavilion Books'</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>London</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeichnung (auf Transparentpapier; Grundriss [vermutl. Rom])</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeichnung</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rom [?]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blatt (Liste von Objekten)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Postkarte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/Zeichnung </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Blatt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV.6.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1881 1882</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1879 Carpi; Reggio; Milano; Berlin)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1881/1882 Rom)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV.2.3.b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thema:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BESCHRIFTUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INHALT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Ges.anzahl</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -325,10 +353,6 @@
   </si>
   <si>
     <t>publiziert [Publikation]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RAUM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -417,7 +441,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +502,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="60"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -491,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -539,6 +575,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -869,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AR16"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -883,226 +925,232 @@
     <col min="6" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="23" width="11.140625" customWidth="1"/>
     <col min="25" max="26" width="22.7109375" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="29" width="22.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="31" max="33" width="20.7109375" customWidth="1"/>
-    <col min="40" max="40" width="21.42578125" customWidth="1"/>
-    <col min="43" max="43" width="21.42578125" customWidth="1"/>
+    <col min="27" max="29" width="20.7109375" customWidth="1"/>
+    <col min="30" max="31" width="22.7109375" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" customWidth="1"/>
+    <col min="33" max="35" width="20.7109375" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="45" max="45" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="14">
+    <row r="1" spans="1:46" ht="14">
       <c r="A1" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="15" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="AP1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="7" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:46">
       <c r="A5" s="20">
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD5" s="18">
+        <v>95</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF5" s="18">
         <v>1868</v>
       </c>
-      <c r="AN5" t="s">
-        <v>42</v>
+      <c r="AP5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:46">
       <c r="A6" s="20">
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD6">
+        <v>49</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF6">
         <v>1899</v>
       </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:46">
       <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>46</v>
+        <v>95</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:46">
       <c r="A8" s="20">
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1111,24 +1159,24 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:46">
       <c r="A9" s="20">
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -1136,30 +1184,30 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="O9" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD9" s="21" t="s">
-        <v>53</v>
+        <v>95</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF9" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:46">
       <c r="A10" s="20">
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -1167,30 +1215,30 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="O10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10">
+        <v>95</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF10">
         <v>1879</v>
       </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:46">
       <c r="A11" s="20">
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -1198,137 +1246,146 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11">
+        <v>26</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF11">
         <v>1862</v>
       </c>
-      <c r="AG11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>29</v>
+      <c r="AH11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:46">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD12">
+        <v>25</v>
+      </c>
+      <c r="AF12">
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:46">
       <c r="A13" s="20">
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD13">
+        <v>24</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF13">
         <v>1869</v>
       </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:46">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L14" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y14" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI14" s="21" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:46">
       <c r="A15" s="20">
         <v>1</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Y15" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:46">
       <c r="A16" s="20">
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>0</v>
@@ -1339,10 +1396,13 @@
       <c r="Y16" t="s">
         <v>3</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>4</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AC16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD16" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -19,16 +19,757 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="237">
+  <si>
+    <t>Uffizien (UA 37 A; UA 255 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo il Giovane</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Fassadenansicht nach Bramante und Raffael)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fassadenentwurf nach Motiven</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 34)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donato Bramante + Raffaello Santi (Sanzio) da Urbino</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blatt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postkarte</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeichnung </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 30)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Schrägansicht eines Entwurfs nach Bramante [Kombination aus Uffizien 20 A und Medaille Caradossso sowie Kuppel von Serllio] [Beschriftung Metternich])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 26)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 20 A) +  Medaille Caradossso + Kuppel von Sebastiano Serllio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nachgezeichnet [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donato Bramante + Sebastiano Serlio</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Choransicht eines Projekts nach Antonio da Sangallo il Giovanne [nach Uffizien 37 A und 255 A])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choransicht nach Motiv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schrägansicht nach Motiven</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 37)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Schrägansicht eines Entwurfs nach Bramante [Beschriftung Metternich])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schrägansicht</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 25)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Ansicht eines Entwurfs zu St. Peter [nach Uffizien 1 A Pergamentplan])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansicht, St. Peter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 27)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 1 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Skizzen zu St.-Peter-Entwürfen [Turm nach Giuliano da Sangallo])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 29)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Giuliano da Sangallo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Entwurf zu einem St.-Peter-Projekt)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florenz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.g</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Skizzen zu St.-Peter-Entwürfen [nach Uffizien 20 A])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzen, St. Peter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansicht, St. Peter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 28)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 20 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Fassadenansicht nach Uffizien 6 A [Fra Giocondo])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fassadenansicht</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 23)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Frontalansicht und Seitenaufriss nach Uffizien 6 A [Fra Giocondo])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frontalansicht, Seitenaufriss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Längsschnitt, Ansichten, Rekonstruktion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seitenansicht, Choransicht</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Querschnitt, Aufrisse, Details</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 22)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.k</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung (ursprünglicher Titel der Architektur der Renaissance in Toscana 1884)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursprünglicher Titel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Architektur der Renaissance in Toscana (1885-1908)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 57)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung (Vervollständigungsversuch zum Palazzo Pandolfini Raffaels in Florenz)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekonstruktion Palazzo Pandolfini </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 54)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raffaello Santi (Sanzio) da Urbino</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Längsschnitt und Ansicht nach Uffizien 6 A [Fra Giocondo] [Rekonstruktion])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 21)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 6 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Seiten- und Choransicht nach Antonio da Sangallo il Giovane [nach Zeichnungen in Uffizien: 37A, 38A, 39A] [Beschriftung Metternich])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo il Giovanne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Umgänge der Vierung von St. Peter)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umgänge der Vierung, St. Peter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 32)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.7.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung (Tafel für den geplanten zweiten Band über St. Peter [unpubliziert] [Zeichnungen zu Antonio da Sangallo il Govane aus Uffizien 42 A; 77 A; 86 A])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo il Giovanne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo il Giovanne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antonio da Sangallo il Giovanne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baldassare Peruzzi + Antonio[?] da Sangallo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baldassare Peruzzi + Antonio[?] da Sangallo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 46)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 42 A + UA 77 A + UA 86 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 39)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 37 A + UA 38 A + UA 39 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beschriftung: Franz Wolff Metternich</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.2</t>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Turm nach Alberti [Rekonstruktion])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turm, Rekonstruktion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 59) + Ploder 1998 (S. 253-283)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 42) + Ploder 1998 (S. 238)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Leon Battista Alberti </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rekonstruiert [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.2.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung ([Tafel für Bd 1] Bramante Uffizien 7945 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>St. Peter (Bd. 2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>? (Bd. 1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 49)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donato Bramante</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 7945)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.2.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnungen nach Motiven</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung nach Motiv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeichnung </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 2 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 15 A verso + [zusammengefasst:] 40 A + 85 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.1.3.h</t>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Vervollständigung des Grundrisses zu Uffizien 3 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grundriss, Rekonstruktion</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 3 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 43)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Seitenansicht nach Antonio da Sangallo [Beschriftung Metternich])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seitenansicht</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 38)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ([auf Transparentpapier] Hypothetische Ansicht von St. Peter)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transparentpapier</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung (Tafel für den geplanten zweiten Band über St. Peter [Zeichnungen von Peruzzi und Sangallo])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abbildung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 33)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 45)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florenz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.1.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ("Suchbrief" zu Uffizien 2 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uffizien (UA 24 A + UA 78 A)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fassadenentwürfe nach Motiven</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIII.3.2.j</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung ([Grundrissprojektion auf Transparentpapier]: Grundriss und Fassade nach DuCerceau)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grundriss, Grundrissprojektion und Fassade nach Motive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 31)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>du Cerceau</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VII.3.5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizze (Schrägansicht nach Antonio Sangallo il Giovane)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blatt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizze, Schrägansicht</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 40)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (auf Transparentpapier; Grundriss [vermutl. Rom])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rom [?]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blatt (Liste von Objekten)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV.6.3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1879 Carpi; Reggio; Milano; Berlin)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1881/1882 Rom)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IV.2.3.b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thema:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BESCHRIFTUNG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INHALT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ges.anzahl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOMMENTAR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOTO</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Th</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rf </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>HK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mich</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rac</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dmpf</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>publiziert [Publikation]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&gt;P [Objekt zu Person]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZEIT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBJEKT [Typ]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>vorgesehen zur Publikation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&gt;R [Objekt zu Raum]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>O&gt;Z [Objekt zu Zeit]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INV.NR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PERSON</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>I.1.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skizzenbuch (1868|2 Rom)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rom</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeichnung (Fassadenentwürfe nach Peruzzi und Antonio da Sangallo il Giovanne [St. Peter])</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germann/Ploder 2009 (Kat.Nr. 35)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Zeichnung (Querschnitt Aufrisse und Details zu Uffizien 6 A [Fra Giocondo Plan])</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Querschnitt, Aufrisse und Details</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Fra Giovanni Giocondo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -193,10 +934,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Antonio Sangallo il Giovanne</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Fassadenentwurf nach Motiven</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -226,185 +963,6 @@
   </si>
   <si>
     <t>London</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeichnung (auf Transparentpapier; Grundriss [vermutl. Rom])</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeichnung</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rom [?]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blatt (Liste von Objekten)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Postkarte</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">/Zeichnung </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Blatt</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV.6.3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1879 Carpi; Reggio; Milano; Berlin)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1881/1882 Rom)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IV.2.3.b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thema:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BESCHRIFTUNG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INHALT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ges.anzahl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>KOMMENTAR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FOTO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Th</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rf </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mich</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rac</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dmpf</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>publiziert [Publikation]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&gt;P [Objekt zu Person]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZEIT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBJEKT [Typ]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>vorgesehen zur Publikation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&gt;R [Objekt zu Raum]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&gt;Z [Objekt zu Zeit]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>INV.NR</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERSON</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>I.1.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skizzenbuch (1868|2 Rom)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rom</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +999,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +1072,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -527,7 +1091,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -582,6 +1146,7 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -911,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:AT43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -923,7 +1488,8 @@
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="5" width="43.28515625" customWidth="1"/>
     <col min="6" max="10" width="23.28515625" customWidth="1"/>
-    <col min="11" max="23" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" customWidth="1"/>
+    <col min="12" max="24" width="4" customWidth="1"/>
     <col min="25" max="26" width="22.7109375" customWidth="1"/>
     <col min="27" max="29" width="20.7109375" customWidth="1"/>
     <col min="30" max="31" width="22.7109375" customWidth="1"/>
@@ -935,122 +1501,122 @@
   <sheetData>
     <row r="1" spans="1:46" ht="14">
       <c r="A1" s="5" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>34</v>
+        <v>220</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="15" t="s">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>75</v>
+        <v>161</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>80</v>
+        <v>166</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="W1" s="7" t="s">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="Z1" s="11" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="AB1" s="22" t="s">
-        <v>11</v>
+        <v>197</v>
       </c>
       <c r="AC1" s="23" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="AD1" s="16" t="s">
-        <v>91</v>
+        <v>177</v>
       </c>
       <c r="AE1" s="8" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="AI1" s="14" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="2"/>
       <c r="AL1" s="3" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="AN1" s="1"/>
       <c r="AO1" s="1" t="s">
-        <v>67</v>
+        <v>153</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="AS1" s="1"/>
       <c r="AT1" s="1"/>
@@ -1060,31 +1626,31 @@
         <v>1</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
+        <v>230</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>202</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AE5" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="AF5" s="18">
         <v>1868</v>
       </c>
       <c r="AP5" t="s">
-        <v>50</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:46">
@@ -1092,25 +1658,25 @@
         <v>1</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>231</v>
       </c>
       <c r="O6" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AA6" t="s">
-        <v>49</v>
+        <v>234</v>
       </c>
       <c r="AE6" t="s">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="AF6">
         <v>1899</v>
@@ -1121,22 +1687,25 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AE7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:46">
@@ -1144,13 +1713,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -1159,7 +1728,7 @@
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
       <c r="O8" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:46">
@@ -1167,16 +1736,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -1184,13 +1753,13 @@
       <c r="I9" s="19"/>
       <c r="J9" s="19"/>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AE9" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="AF9" s="21" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:46">
@@ -1198,16 +1767,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -1215,10 +1784,10 @@
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="O10" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="AE10" t="s">
-        <v>9</v>
+        <v>195</v>
       </c>
       <c r="AF10">
         <v>1879</v>
@@ -1229,16 +1798,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -1246,28 +1815,28 @@
       <c r="I11" s="19"/>
       <c r="J11" s="19"/>
       <c r="O11" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y11" t="s">
-        <v>26</v>
+        <v>212</v>
       </c>
       <c r="AD11" t="s">
-        <v>32</v>
+        <v>218</v>
       </c>
       <c r="AE11" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="AF11">
         <v>1862</v>
       </c>
       <c r="AH11" s="21" t="s">
-        <v>7</v>
+        <v>193</v>
       </c>
       <c r="AI11" s="21" t="s">
-        <v>6</v>
+        <v>192</v>
       </c>
       <c r="AP11" t="s">
-        <v>37</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:46">
@@ -1275,22 +1844,22 @@
         <v>1</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>21</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="O12" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y12" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="AF12">
         <v>1866</v>
@@ -1301,57 +1870,58 @@
         <v>1</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>230</v>
       </c>
       <c r="O13" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y13" t="s">
-        <v>24</v>
+        <v>210</v>
       </c>
       <c r="AE13" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="AF13">
         <v>1869</v>
       </c>
+      <c r="AI13" s="21"/>
     </row>
     <row r="14" spans="1:46">
       <c r="A14" s="20">
         <v>1</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>229</v>
       </c>
       <c r="L14" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y14" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="AD14" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="AI14" s="21" t="s">
-        <v>5</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:46">
@@ -1359,22 +1929,25 @@
         <v>1</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>206</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="L15" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>27</v>
+        <v>213</v>
+      </c>
+      <c r="AI15" s="21" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:46">
@@ -1382,31 +1955,906 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI16" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42">
+      <c r="A17" s="20">
+        <v>1</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI17" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42">
+      <c r="A18" s="20">
+        <v>1</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI18" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42">
+      <c r="A19" s="20">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI19" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42">
+      <c r="A20" s="20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42">
+      <c r="A21" s="20">
+        <v>1</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z21" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI21" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42">
+      <c r="A22" s="20">
+        <v>1</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI22" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42">
+      <c r="A23" s="20">
+        <v>1</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI23" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42">
+      <c r="A24" s="20">
+        <v>1</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+      <c r="L24" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI24" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42">
+      <c r="A25" s="20">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI25" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42">
+      <c r="A26" s="20">
+        <v>1</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="N26" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z26" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI26" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42">
+      <c r="A27" s="20">
+        <v>1</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI27" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42">
+      <c r="A28" s="20">
+        <v>1</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI28" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42">
+      <c r="A29" s="20">
+        <v>1</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42">
+      <c r="A30" s="20">
+        <v>1</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="X30" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF30">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42">
+      <c r="A31" s="20">
+        <v>1</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="T31" t="s">
+        <v>185</v>
+      </c>
+      <c r="X31" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI31" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42">
+      <c r="A32" s="20">
+        <v>1</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI32" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33" s="20">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="L33" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI33" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="A34" s="20">
+        <v>1</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF34">
+        <v>1882</v>
+      </c>
+      <c r="AI34" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="A35" s="20">
+        <v>1</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="L35" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF35">
+        <v>1882</v>
+      </c>
+      <c r="AI35" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="A36" s="20">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="L36" t="s">
+        <v>185</v>
+      </c>
+      <c r="N36" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI36" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42">
+      <c r="A37" s="20">
+        <v>1</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB37" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI37" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
+      <c r="A38" s="20">
+        <v>1</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L38" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF38">
+        <v>1867</v>
+      </c>
+      <c r="AI38" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="A39" s="20">
+        <v>1</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="A40" s="20">
+        <v>1</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI40" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="A41" s="20">
+        <v>1</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="AB41" t="s">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="AC41" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42">
+      <c r="A42" s="20">
+        <v>1</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
         <v>3</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="L42" t="s">
+        <v>185</v>
+      </c>
+      <c r="N42" t="s">
+        <v>185</v>
+      </c>
+      <c r="T42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y42" t="s">
         <v>4</v>
       </c>
-      <c r="AC16" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>2</v>
-      </c>
+      <c r="AD42" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI42" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:42">
+      <c r="A43" s="20"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="20240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33660" windowHeight="20300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="573">
   <si>
     <t>Vorderseite: (unten) beschriftet und datiert</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2249,13 +2249,46 @@
   <si>
     <t xml:space="preserve">Abbildung Probetafel 3 (Probetafel für den Thesaurus of Architecture: Hugenottenkirche in Charenton [Sammlung Destailleur]) </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENZ Ebene</t>
+  </si>
+  <si>
+    <t>REFERENZ Beziehung</t>
+  </si>
+  <si>
+    <t>REFERENZ Zeit</t>
+  </si>
+  <si>
+    <t>REFERENZ Ort</t>
+  </si>
+  <si>
+    <t>REFERENZ Person</t>
+  </si>
+  <si>
+    <t>REFERENZ Bezeichung</t>
+  </si>
+  <si>
+    <t>{Medial, Gebäude}</t>
+  </si>
+  <si>
+    <t>{Florenz, Rom}</t>
+  </si>
+  <si>
+    <t>{Uffizien 6 A, St. Peter}</t>
+  </si>
+  <si>
+    <t>{NULL, NULL}</t>
+  </si>
+  <si>
+    <t>{abgezeichnet [?], errichtet [?]}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2284,8 +2317,20 @@
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2382,6 +2427,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2392,10 +2443,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2463,12 +2518,19 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -2791,14 +2853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:AT95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" customWidth="1"/>
@@ -2809,20 +2871,20 @@
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
-    <col min="25" max="25" width="22.7109375" style="14" customWidth="1"/>
-    <col min="26" max="27" width="20.7109375" customWidth="1"/>
-    <col min="28" max="28" width="22.7109375" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" customWidth="1"/>
-    <col min="31" max="31" width="20.7109375" style="14" customWidth="1"/>
-    <col min="32" max="32" width="22.7109375" style="14" customWidth="1"/>
-    <col min="33" max="35" width="20.7109375" customWidth="1"/>
-    <col min="36" max="37" width="31.28515625" customWidth="1"/>
-    <col min="42" max="42" width="21.42578125" customWidth="1"/>
-    <col min="45" max="45" width="21.42578125" customWidth="1"/>
+    <col min="25" max="31" width="22.7109375" style="14" customWidth="1"/>
+    <col min="32" max="33" width="20.7109375" customWidth="1"/>
+    <col min="34" max="34" width="22.7109375" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" customWidth="1"/>
+    <col min="37" max="37" width="28.140625" style="14" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" style="14" customWidth="1"/>
+    <col min="39" max="41" width="20.7109375" customWidth="1"/>
+    <col min="42" max="43" width="31.28515625" customWidth="1"/>
+    <col min="48" max="48" width="21.42578125" customWidth="1"/>
+    <col min="51" max="51" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="14">
+    <row r="1" spans="1:52" ht="14">
       <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
@@ -2898,59 +2960,77 @@
       <c r="Y1" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="Z1" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>562</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>564</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF1" s="25" t="s">
         <v>559</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AG1" s="24" t="s">
         <v>560</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AI1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="AJ1" s="21" t="s">
         <v>513</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AK1" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AL1" s="20" t="s">
         <v>515</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AN1" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AO1" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AP1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AQ1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-    </row>
-    <row r="5" spans="1:46">
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+    </row>
+    <row r="5" spans="1:52">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2972,17 +3052,17 @@
       <c r="N5" t="s">
         <v>429</v>
       </c>
-      <c r="AD5" s="11">
+      <c r="AJ5" s="11">
         <v>1868</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AL5" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AV5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:52">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -3001,17 +3081,17 @@
       <c r="N6" t="s">
         <v>429</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AI6" t="s">
         <v>381</v>
       </c>
-      <c r="AD6">
+      <c r="AJ6">
         <v>1899</v>
       </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AL6" s="14" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:52">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -3033,11 +3113,11 @@
       <c r="N7" t="s">
         <v>429</v>
       </c>
-      <c r="AF7" s="14" t="s">
+      <c r="AL7" s="14" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:52">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -3059,7 +3139,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:52">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -3082,14 +3162,14 @@
       <c r="N9" t="s">
         <v>429</v>
       </c>
-      <c r="AD9" s="14" t="s">
+      <c r="AJ9" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="AF9" s="14" t="s">
+      <c r="AL9" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:52">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -3112,14 +3192,14 @@
       <c r="N10" t="s">
         <v>429</v>
       </c>
-      <c r="AD10">
+      <c r="AJ10">
         <v>1879</v>
       </c>
-      <c r="AF10" s="14" t="s">
+      <c r="AL10" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:52">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -3145,26 +3225,26 @@
       <c r="X11" t="s">
         <v>273</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AH11" t="s">
         <v>362</v>
       </c>
-      <c r="AD11">
+      <c r="AJ11">
         <v>1862</v>
       </c>
-      <c r="AF11" s="14" t="s">
+      <c r="AL11" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="AH11" s="14" t="s">
+      <c r="AN11" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="AI11" s="14" t="s">
+      <c r="AO11" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AV11" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:52">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -3186,11 +3266,11 @@
       <c r="X12" t="s">
         <v>272</v>
       </c>
-      <c r="AD12">
+      <c r="AJ12">
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:52">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -3212,18 +3292,18 @@
       <c r="X13" t="s">
         <v>271</v>
       </c>
-      <c r="AD13">
+      <c r="AJ13">
         <v>1869</v>
       </c>
-      <c r="AE13" s="14" t="s">
+      <c r="AK13" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF13" s="14" t="s">
+      <c r="AL13" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AI13" s="14"/>
-    </row>
-    <row r="14" spans="1:46">
+      <c r="AO13" s="14"/>
+    </row>
+    <row r="14" spans="1:52">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -3245,20 +3325,20 @@
       <c r="X14" t="s">
         <v>270</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AH14" t="s">
         <v>337</v>
       </c>
-      <c r="AE14" s="14" t="s">
+      <c r="AK14" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF14" s="14" t="s">
+      <c r="AL14" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ14" s="14" t="s">
+      <c r="AP14" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:52">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -3280,17 +3360,17 @@
       <c r="X15" t="s">
         <v>358</v>
       </c>
-      <c r="AE15" s="14" t="s">
+      <c r="AK15" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF15" s="14" t="s">
+      <c r="AL15" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ15" s="14" t="s">
+      <c r="AP15" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:46">
+    <row r="16" spans="1:52">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -3313,25 +3393,43 @@
         <v>243</v>
       </c>
       <c r="Z16" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA16" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC16" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>569</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="AF16" t="s">
         <v>16</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AG16" t="s">
         <v>249</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AH16" t="s">
         <v>242</v>
       </c>
-      <c r="AE16" s="14" t="s">
+      <c r="AK16" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF16" s="14" t="s">
+      <c r="AL16" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ16" s="14" t="s">
+      <c r="AP16" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:48">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -3353,26 +3451,26 @@
       <c r="X17" t="s">
         <v>240</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AF17" t="s">
         <v>17</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AG17" t="s">
         <v>249</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AH17" t="s">
         <v>338</v>
       </c>
-      <c r="AE17" s="14" t="s">
+      <c r="AK17" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF17" s="14" t="s">
+      <c r="AL17" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ17" s="14" t="s">
+      <c r="AP17" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:48">
       <c r="A18" s="13">
         <v>1</v>
       </c>
@@ -3397,20 +3495,20 @@
       <c r="X18" t="s">
         <v>302</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AH18" t="s">
         <v>303</v>
       </c>
-      <c r="AE18" s="14" t="s">
+      <c r="AK18" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF18" s="14" t="s">
+      <c r="AL18" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ18" s="14" t="s">
+      <c r="AP18" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:48">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -3432,20 +3530,20 @@
       <c r="X19" t="s">
         <v>309</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AH19" t="s">
         <v>336</v>
       </c>
-      <c r="AE19" s="14" t="s">
+      <c r="AK19" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF19" s="14" t="s">
+      <c r="AL19" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ19" s="14" t="s">
+      <c r="AP19" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:48">
       <c r="A20" s="13">
         <v>1</v>
       </c>
@@ -3470,14 +3568,14 @@
       <c r="X20" t="s">
         <v>293</v>
       </c>
-      <c r="AE20" s="14" t="s">
+      <c r="AK20" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF20" s="14" t="s">
+      <c r="AL20" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:48">
       <c r="A21" s="13">
         <v>1</v>
       </c>
@@ -3502,26 +3600,32 @@
       <c r="Y21" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" t="s">
         <v>18</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AG21" t="s">
         <v>295</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AH21" t="s">
         <v>339</v>
       </c>
-      <c r="AE21" s="14" t="s">
+      <c r="AK21" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF21" s="14" t="s">
+      <c r="AL21" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ21" s="14" t="s">
+      <c r="AP21" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:48">
       <c r="A22" s="13">
         <v>1</v>
       </c>
@@ -3543,23 +3647,23 @@
       <c r="X22" t="s">
         <v>347</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AF22" t="s">
         <v>19</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AG22" t="s">
         <v>295</v>
       </c>
-      <c r="AE22" s="14" t="s">
+      <c r="AK22" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF22" s="14" t="s">
+      <c r="AL22" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ22" s="14" t="s">
+      <c r="AP22" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:48">
       <c r="A23" s="13">
         <v>1</v>
       </c>
@@ -3584,23 +3688,23 @@
       <c r="X23" t="s">
         <v>371</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AF23" t="s">
         <v>20</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AG23" t="s">
         <v>295</v>
       </c>
-      <c r="AE23" s="14" t="s">
+      <c r="AK23" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF23" s="14" t="s">
+      <c r="AL23" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ23" s="14" t="s">
+      <c r="AP23" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:48">
       <c r="A24" s="13">
         <v>1</v>
       </c>
@@ -3622,23 +3726,23 @@
       <c r="X24" t="s">
         <v>467</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AH24" t="s">
         <v>435</v>
       </c>
-      <c r="AE24" s="14" t="s">
+      <c r="AK24" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF24" s="14" t="s">
+      <c r="AL24" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ24" s="14" t="s">
+      <c r="AP24" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AV24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:48">
       <c r="A25" s="13">
         <v>1</v>
       </c>
@@ -3663,20 +3767,20 @@
       <c r="X25" t="s">
         <v>346</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AH25" t="s">
         <v>253</v>
       </c>
-      <c r="AE25" s="14" t="s">
+      <c r="AK25" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF25" s="14" t="s">
+      <c r="AL25" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ25" s="14" t="s">
+      <c r="AP25" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:48">
       <c r="A26" s="13">
         <v>1</v>
       </c>
@@ -3704,26 +3808,32 @@
       <c r="Y26" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" t="s">
         <v>21</v>
       </c>
-      <c r="AA26" t="s">
+      <c r="AG26" t="s">
         <v>295</v>
       </c>
-      <c r="AB26" t="s">
+      <c r="AH26" t="s">
         <v>356</v>
       </c>
-      <c r="AE26" s="14" t="s">
+      <c r="AK26" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF26" s="14" t="s">
+      <c r="AL26" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ26" s="14" t="s">
+      <c r="AP26" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:48">
       <c r="A27" s="13">
         <v>1</v>
       </c>
@@ -3745,26 +3855,26 @@
       <c r="X27" t="s">
         <v>340</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AF27" t="s">
         <v>22</v>
       </c>
-      <c r="AA27" t="s">
+      <c r="AG27" t="s">
         <v>295</v>
       </c>
-      <c r="AB27" t="s">
+      <c r="AH27" t="s">
         <v>434</v>
       </c>
-      <c r="AE27" s="14" t="s">
+      <c r="AK27" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF27" s="14" t="s">
+      <c r="AL27" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ27" s="14" t="s">
+      <c r="AP27" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:48">
       <c r="A28" s="13">
         <v>1</v>
       </c>
@@ -3789,26 +3899,26 @@
       <c r="X28" t="s">
         <v>341</v>
       </c>
-      <c r="Z28" s="10" t="s">
+      <c r="AF28" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AG28" t="s">
         <v>295</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AH28" t="s">
         <v>420</v>
       </c>
-      <c r="AE28" s="14" t="s">
+      <c r="AK28" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF28" s="14" t="s">
+      <c r="AL28" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="AJ28" s="14" t="s">
+      <c r="AP28" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:48">
       <c r="A29" s="13">
         <v>1</v>
       </c>
@@ -3833,14 +3943,14 @@
       <c r="X29" t="s">
         <v>431</v>
       </c>
-      <c r="AE29" s="14" t="s">
+      <c r="AK29" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF29" s="14" t="s">
+      <c r="AL29" s="14" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:48">
       <c r="A30" s="13">
         <v>1</v>
       </c>
@@ -3865,11 +3975,11 @@
       <c r="Y30" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="AD30">
+      <c r="AJ30">
         <v>1884</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:48">
       <c r="A31" s="13">
         <v>1</v>
       </c>
@@ -3894,20 +4004,20 @@
       <c r="X31" t="s">
         <v>402</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AH31" t="s">
         <v>403</v>
       </c>
-      <c r="AE31" s="14" t="s">
+      <c r="AK31" s="14" t="s">
         <v>461</v>
       </c>
-      <c r="AF31" s="14" t="s">
+      <c r="AL31" s="14" t="s">
         <v>494</v>
       </c>
-      <c r="AJ31" s="14" t="s">
+      <c r="AP31" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:48">
       <c r="A32" s="13">
         <v>1</v>
       </c>
@@ -3929,26 +4039,26 @@
       <c r="X32" t="s">
         <v>418</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AF32" t="s">
         <v>16</v>
       </c>
-      <c r="AA32" t="s">
+      <c r="AG32" t="s">
         <v>484</v>
       </c>
-      <c r="AB32" t="s">
+      <c r="AH32" t="s">
         <v>242</v>
       </c>
-      <c r="AE32" s="14" t="s">
+      <c r="AK32" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF32" s="14" t="s">
+      <c r="AL32" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ32" s="14" t="s">
+      <c r="AP32" s="14" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:48">
       <c r="A33" s="13">
         <v>1</v>
       </c>
@@ -3970,23 +4080,23 @@
       <c r="X33" t="s">
         <v>385</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AF33" t="s">
         <v>24</v>
       </c>
-      <c r="AA33" t="s">
+      <c r="AG33" t="s">
         <v>295</v>
       </c>
-      <c r="AE33" s="14" t="s">
+      <c r="AK33" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF33" s="14" t="s">
+      <c r="AL33" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ33" s="14" t="s">
+      <c r="AP33" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:48">
       <c r="A34" s="13">
         <v>1</v>
       </c>
@@ -4008,29 +4118,29 @@
       <c r="X34" t="s">
         <v>388</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AF34" t="s">
         <v>25</v>
       </c>
-      <c r="AA34" t="s">
+      <c r="AG34" t="s">
         <v>295</v>
       </c>
-      <c r="AB34" t="s">
+      <c r="AH34" t="s">
         <v>242</v>
       </c>
-      <c r="AD34">
+      <c r="AJ34">
         <v>1882</v>
       </c>
-      <c r="AE34" s="14" t="s">
+      <c r="AK34" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF34" s="14" t="s">
+      <c r="AL34" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ34" s="14" t="s">
+      <c r="AP34" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:48">
       <c r="A35" s="13">
         <v>1</v>
       </c>
@@ -4052,29 +4162,29 @@
       <c r="X35" t="s">
         <v>395</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AF35" t="s">
         <v>25</v>
       </c>
-      <c r="AA35" t="s">
+      <c r="AG35" t="s">
         <v>295</v>
       </c>
-      <c r="AB35" t="s">
+      <c r="AH35" t="s">
         <v>242</v>
       </c>
-      <c r="AD35">
+      <c r="AJ35">
         <v>1882</v>
       </c>
-      <c r="AE35" s="14" t="s">
+      <c r="AK35" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF35" s="14" t="s">
+      <c r="AL35" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ35" s="14" t="s">
+      <c r="AP35" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="36" spans="1:42">
+    <row r="36" spans="1:48">
       <c r="A36" s="13">
         <v>1</v>
       </c>
@@ -4099,23 +4209,23 @@
       <c r="X36" t="s">
         <v>473</v>
       </c>
-      <c r="AB36" t="s">
+      <c r="AH36" t="s">
         <v>356</v>
       </c>
-      <c r="AE36" s="14" t="s">
+      <c r="AK36" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF36" s="14" t="s">
+      <c r="AL36" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ36" s="14" t="s">
+      <c r="AP36" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AV36" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:48">
       <c r="A37" s="13">
         <v>1</v>
       </c>
@@ -4137,23 +4247,23 @@
       <c r="X37" t="s">
         <v>477</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AF37" t="s">
         <v>26</v>
       </c>
-      <c r="AA37" t="s">
+      <c r="AG37" t="s">
         <v>295</v>
       </c>
-      <c r="AE37" s="14" t="s">
+      <c r="AK37" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF37" s="14" t="s">
+      <c r="AL37" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ37" s="14" t="s">
+      <c r="AP37" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:48">
       <c r="A38" s="13">
         <v>1</v>
       </c>
@@ -4178,23 +4288,23 @@
       <c r="X38" t="s">
         <v>479</v>
       </c>
-      <c r="AB38" t="s">
+      <c r="AH38" t="s">
         <v>480</v>
       </c>
-      <c r="AD38">
+      <c r="AJ38">
         <v>1867</v>
       </c>
-      <c r="AE38" s="14" t="s">
+      <c r="AK38" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF38" s="14" t="s">
+      <c r="AL38" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ38" s="14" t="s">
+      <c r="AP38" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:48">
       <c r="A39" s="13">
         <v>1</v>
       </c>
@@ -4216,14 +4326,14 @@
       <c r="X39" t="s">
         <v>443</v>
       </c>
-      <c r="AE39" s="14" t="s">
+      <c r="AK39" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF39" s="14" t="s">
+      <c r="AL39" s="14" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:48">
       <c r="A40" s="13">
         <v>1</v>
       </c>
@@ -4245,26 +4355,26 @@
       <c r="X40" t="s">
         <v>348</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AF40" t="s">
         <v>61</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AG40" t="s">
         <v>295</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AH40" t="s">
         <v>447</v>
       </c>
-      <c r="AE40" s="14" t="s">
+      <c r="AK40" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF40" s="14" t="s">
+      <c r="AL40" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ40" s="14" t="s">
+      <c r="AP40" s="14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:48">
       <c r="A41" s="13">
         <v>1</v>
       </c>
@@ -4286,26 +4396,26 @@
       <c r="X41" t="s">
         <v>452</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AF41" t="s">
         <v>62</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AG41" t="s">
         <v>295</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AH41" t="s">
         <v>436</v>
       </c>
-      <c r="AE41" s="14" t="s">
+      <c r="AK41" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF41" s="14" t="s">
+      <c r="AL41" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ41" s="14" t="s">
+      <c r="AP41" s="14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:48">
       <c r="A42" s="13">
         <v>1</v>
       </c>
@@ -4333,23 +4443,23 @@
       <c r="X42" t="s">
         <v>439</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AH42" t="s">
         <v>440</v>
       </c>
-      <c r="AE42" s="14" t="s">
+      <c r="AK42" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="AF42" s="14" t="s">
+      <c r="AL42" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="AJ42" s="14" t="s">
+      <c r="AP42" s="14" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:48">
       <c r="A43" s="13"/>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:48">
       <c r="A44" s="13">
         <v>1</v>
       </c>
@@ -4380,23 +4490,23 @@
       <c r="X44" t="s">
         <v>236</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AH44" t="s">
         <v>237</v>
       </c>
-      <c r="AD44">
+      <c r="AJ44">
         <v>1905</v>
       </c>
-      <c r="AF44" s="14" t="s">
+      <c r="AL44" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="AJ44" s="14" t="s">
+      <c r="AP44" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="AL44" t="s">
+      <c r="AR44" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:48">
       <c r="A45" s="13">
         <v>1</v>
       </c>
@@ -4424,17 +4534,17 @@
       <c r="X45" t="s">
         <v>220</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AH45" t="s">
         <v>237</v>
       </c>
-      <c r="AJ45" s="14" t="s">
+      <c r="AP45" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="AL45" t="s">
+      <c r="AR45" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:48">
       <c r="A46" s="13">
         <v>1</v>
       </c>
@@ -4453,14 +4563,14 @@
       <c r="N46" t="s">
         <v>235</v>
       </c>
-      <c r="AD46" s="14" t="s">
+      <c r="AJ46" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="AF46" s="14" t="s">
+      <c r="AL46" s="14" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:48">
       <c r="A47" s="13">
         <v>1</v>
       </c>
@@ -4479,23 +4589,23 @@
       <c r="P47" t="s">
         <v>235</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AH47" t="s">
         <v>208</v>
       </c>
-      <c r="AD47">
+      <c r="AJ47">
         <v>1888</v>
       </c>
-      <c r="AE47" s="14" t="s">
+      <c r="AK47" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="AF47" s="14" t="s">
+      <c r="AL47" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="AJ47" s="14" t="s">
+      <c r="AP47" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:48">
       <c r="A48" s="13">
         <v>1</v>
       </c>
@@ -4514,11 +4624,11 @@
       <c r="N48" t="s">
         <v>235</v>
       </c>
-      <c r="AJ48" s="14" t="s">
+      <c r="AP48" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:44">
       <c r="A50" s="13">
         <v>1</v>
       </c>
@@ -4546,20 +4656,20 @@
       <c r="X50" t="s">
         <v>201</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AH50" t="s">
         <v>202</v>
       </c>
-      <c r="AF50" s="14" t="s">
+      <c r="AL50" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="AJ50" s="14" t="s">
+      <c r="AP50" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AL50" t="s">
+      <c r="AR50" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:44">
       <c r="A51" s="13">
         <v>1</v>
       </c>
@@ -4590,20 +4700,20 @@
       <c r="X51" t="s">
         <v>193</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AH51" t="s">
         <v>191</v>
       </c>
-      <c r="AF51" s="14" t="s">
+      <c r="AL51" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="AJ51" s="14" t="s">
+      <c r="AP51" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AL51" t="s">
+      <c r="AR51" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:44">
       <c r="A52" s="13">
         <v>1</v>
       </c>
@@ -4631,23 +4741,23 @@
       <c r="X52" t="s">
         <v>276</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AH52" t="s">
         <v>191</v>
       </c>
-      <c r="AF52" s="14" t="s">
+      <c r="AL52" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="AG52" s="14" t="s">
+      <c r="AM52" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AJ52" s="14" t="s">
+      <c r="AP52" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AL52" t="s">
+      <c r="AR52" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:44">
       <c r="A53" s="13">
         <v>1</v>
       </c>
@@ -4678,23 +4788,23 @@
       <c r="X53" t="s">
         <v>177</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AH53" t="s">
         <v>191</v>
       </c>
-      <c r="AD53" s="17" t="s">
+      <c r="AJ53" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="AF53" s="14" t="s">
+      <c r="AL53" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="AJ53" s="14" t="s">
+      <c r="AP53" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:44">
       <c r="A54" s="13"/>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:44">
       <c r="A55" s="13">
         <v>1</v>
       </c>
@@ -4725,14 +4835,14 @@
       <c r="X55" t="s">
         <v>228</v>
       </c>
-      <c r="AF55" s="14" t="s">
+      <c r="AL55" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="AG55" s="14" t="s">
+      <c r="AM55" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:44">
       <c r="A56" s="13">
         <v>1</v>
       </c>
@@ -4766,20 +4876,20 @@
       <c r="X56" t="s">
         <v>148</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AF56" t="s">
         <v>143</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AG56" t="s">
         <v>144</v>
       </c>
-      <c r="AE56" s="14" t="s">
+      <c r="AK56" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="AF56" s="14" t="s">
+      <c r="AL56" s="14" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:44">
       <c r="A57" s="13">
         <v>1</v>
       </c>
@@ -4813,14 +4923,14 @@
       <c r="X57" t="s">
         <v>149</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AF57" t="s">
         <v>143</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AG57" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:44">
       <c r="A58" s="13">
         <v>1</v>
       </c>
@@ -4854,11 +4964,11 @@
       <c r="X58" t="s">
         <v>150</v>
       </c>
-      <c r="AF58" s="14" t="s">
+      <c r="AL58" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:44">
       <c r="A59" s="13">
         <v>1</v>
       </c>
@@ -4890,7 +5000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:44">
       <c r="A60" s="13">
         <v>1</v>
       </c>
@@ -4938,7 +5048,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:44">
       <c r="A61" s="13">
         <v>1</v>
       </c>
@@ -4976,7 +5086,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:44">
       <c r="A62" s="13">
         <v>1</v>
       </c>
@@ -5007,17 +5117,17 @@
       <c r="X62" t="s">
         <v>95</v>
       </c>
-      <c r="AE62" s="14" t="s">
+      <c r="AK62" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="AF62" s="14" t="s">
+      <c r="AL62" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="AG62" s="14" t="s">
+      <c r="AM62" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:44">
       <c r="A63" s="13">
         <v>1</v>
       </c>
@@ -5048,14 +5158,14 @@
       <c r="X63" t="s">
         <v>107</v>
       </c>
-      <c r="AF63" s="14" t="s">
+      <c r="AL63" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="AG63" s="14" t="s">
+      <c r="AM63" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:44">
       <c r="A64" s="13">
         <v>1</v>
       </c>
@@ -5089,17 +5199,17 @@
       <c r="X64" t="s">
         <v>78</v>
       </c>
-      <c r="AD64">
+      <c r="AJ64">
         <v>1882</v>
       </c>
-      <c r="AF64" s="14" t="s">
+      <c r="AL64" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG64" s="14" t="s">
+      <c r="AM64" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:36">
+    <row r="65" spans="1:42">
       <c r="A65" s="13">
         <v>1</v>
       </c>
@@ -5133,17 +5243,17 @@
       <c r="X65" t="s">
         <v>85</v>
       </c>
-      <c r="AD65">
+      <c r="AJ65">
         <v>1882</v>
       </c>
-      <c r="AF65" s="14" t="s">
+      <c r="AL65" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="AG65" s="14" t="s">
+      <c r="AM65" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:36">
+    <row r="66" spans="1:42">
       <c r="A66" s="13">
         <v>1</v>
       </c>
@@ -5180,30 +5290,30 @@
       <c r="Y66" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AH66" t="s">
         <v>60</v>
       </c>
-      <c r="AD66" s="17" t="s">
+      <c r="AJ66" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="14" t="s">
+      <c r="AK66" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="AF66" s="14" t="s">
+      <c r="AL66" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="AG66" s="14" t="s">
+      <c r="AM66" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="AH66" s="14" t="s">
+      <c r="AN66" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AI66" s="14"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AO66" s="14"/>
+    </row>
+    <row r="67" spans="1:42">
       <c r="A67" s="13"/>
     </row>
-    <row r="68" spans="1:36">
+    <row r="68" spans="1:42">
       <c r="A68" s="13">
         <v>1</v>
       </c>
@@ -5238,7 +5348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:36">
+    <row r="69" spans="1:42">
       <c r="A69" s="13">
         <v>1</v>
       </c>
@@ -5273,7 +5383,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="70" spans="1:36">
+    <row r="70" spans="1:42">
       <c r="A70" s="13">
         <v>1</v>
       </c>
@@ -5308,7 +5418,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:36">
+    <row r="71" spans="1:42">
       <c r="A71" s="13">
         <v>1</v>
       </c>
@@ -5340,7 +5450,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:42">
       <c r="A72" s="13">
         <v>1</v>
       </c>
@@ -5375,7 +5485,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:36">
+    <row r="73" spans="1:42">
       <c r="A73" s="13">
         <v>1</v>
       </c>
@@ -5407,7 +5517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:36">
+    <row r="74" spans="1:42">
       <c r="A74" s="13">
         <v>1</v>
       </c>
@@ -5438,20 +5548,20 @@
       <c r="X74" t="s">
         <v>9</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AH74" t="s">
         <v>11</v>
       </c>
-      <c r="AD74">
+      <c r="AJ74">
         <v>1880</v>
       </c>
-      <c r="AF74" s="14" t="s">
+      <c r="AL74" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AJ74" s="14" t="s">
+      <c r="AP74" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:36">
+    <row r="75" spans="1:42">
       <c r="A75" s="13">
         <v>1</v>
       </c>
@@ -5482,17 +5592,17 @@
       <c r="X75" t="s">
         <v>9</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AH75" t="s">
         <v>15</v>
       </c>
-      <c r="AD75">
+      <c r="AJ75">
         <v>1880</v>
       </c>
-      <c r="AF75" s="17" t="s">
+      <c r="AL75" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:36">
+    <row r="76" spans="1:42">
       <c r="A76" s="13">
         <v>1</v>
       </c>
@@ -5523,11 +5633,11 @@
       <c r="X76" t="s">
         <v>99</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AH76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:36">
+    <row r="77" spans="1:42">
       <c r="A77" s="13">
         <v>1</v>
       </c>
@@ -5558,14 +5668,14 @@
       <c r="X77" t="s">
         <v>71</v>
       </c>
-      <c r="AE77" s="14" t="s">
+      <c r="AK77" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="AF77" s="14" t="s">
+      <c r="AL77" s="14" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:36">
+    <row r="78" spans="1:42">
       <c r="A78" s="13">
         <v>1</v>
       </c>
@@ -5599,20 +5709,20 @@
       <c r="X78" t="s">
         <v>1</v>
       </c>
-      <c r="AD78" s="15" t="s">
+      <c r="AJ78" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="AE78" s="14" t="s">
+      <c r="AK78" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="AF78" s="14" t="s">
+      <c r="AL78" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="AH78" s="14" t="s">
+      <c r="AN78" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:36">
+    <row r="79" spans="1:42">
       <c r="A79" s="13">
         <v>1</v>
       </c>
@@ -5646,11 +5756,11 @@
       <c r="X79" t="s">
         <v>52</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AH79" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="1:36">
+    <row r="80" spans="1:42">
       <c r="A80" s="13">
         <v>1</v>
       </c>
@@ -5687,11 +5797,11 @@
       <c r="X80" t="s">
         <v>52</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AH80" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:32">
+    <row r="81" spans="1:38">
       <c r="A81" s="13">
         <v>1</v>
       </c>
@@ -5722,14 +5832,14 @@
       <c r="X81" t="s">
         <v>52</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AF81" t="s">
         <v>533</v>
       </c>
-      <c r="AA81" t="s">
+      <c r="AG81" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="82" spans="1:32">
+    <row r="82" spans="1:38">
       <c r="A82" s="13">
         <v>1</v>
       </c>
@@ -5762,7 +5872,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="83" spans="1:32">
+    <row r="83" spans="1:38">
       <c r="A83" s="13">
         <v>1</v>
       </c>
@@ -5795,7 +5905,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="84" spans="1:32">
+    <row r="84" spans="1:38">
       <c r="A84" s="13">
         <v>1</v>
       </c>
@@ -5829,11 +5939,11 @@
       <c r="X84" t="s">
         <v>509</v>
       </c>
-      <c r="AD84">
+      <c r="AJ84">
         <v>1894</v>
       </c>
     </row>
-    <row r="85" spans="1:32">
+    <row r="85" spans="1:38">
       <c r="A85" s="13">
         <v>1</v>
       </c>
@@ -5868,7 +5978,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="86" spans="1:32">
+    <row r="86" spans="1:38">
       <c r="A86" s="13">
         <v>1</v>
       </c>
@@ -5901,7 +6011,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="87" spans="1:32">
+    <row r="87" spans="1:38">
       <c r="A87" s="13">
         <v>1</v>
       </c>
@@ -5934,7 +6044,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="88" spans="1:32">
+    <row r="88" spans="1:38">
       <c r="A88" s="13">
         <v>1</v>
       </c>
@@ -5967,7 +6077,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="90" spans="1:32">
+    <row r="90" spans="1:38">
       <c r="B90" t="s">
         <v>520</v>
       </c>
@@ -5983,11 +6093,11 @@
       <c r="L90" t="s">
         <v>500</v>
       </c>
-      <c r="AD90">
+      <c r="AJ90">
         <v>1892</v>
       </c>
     </row>
-    <row r="91" spans="1:32">
+    <row r="91" spans="1:38">
       <c r="B91" t="s">
         <v>520</v>
       </c>
@@ -6003,11 +6113,11 @@
       <c r="J91" t="s">
         <v>529</v>
       </c>
-      <c r="AF91" s="14" t="s">
+      <c r="AL91" s="14" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="92" spans="1:32">
+    <row r="92" spans="1:38">
       <c r="B92" t="s">
         <v>520</v>
       </c>
@@ -6021,17 +6131,17 @@
         <v>531</v>
       </c>
     </row>
-    <row r="93" spans="1:32">
+    <row r="93" spans="1:38">
       <c r="B93" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="94" spans="1:32">
+    <row r="94" spans="1:38">
       <c r="B94" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="95" spans="1:32">
+    <row r="95" spans="1:38">
       <c r="B95" t="s">
         <v>523</v>
       </c>
@@ -6039,8 +6149,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -18,6 +18,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>stefan zedlacher</author>
+  </authors>
+  <commentList>
+    <comment ref="Z1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>stefan zedlacher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+Referenz bezeichnet sowohl die Quellen (Medium, Realisierung (Gebäude), Kommunikation (Bewertung) als auch eine weiter Referenz (Idee (Konzept), Interpreation). Die erste Referenz muss immer eine Quelle sein. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>stefan zedlacher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+Idee (Konzept)
+------------------------------
+Medium
+Realisierung (Gebäude)
+Kommunikation (Bewertung)
+------------------------------
+Interpretation
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t>stefan zedlacher:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Verdana"/>
+          </rPr>
+          <t xml:space="preserve">
+ [Künstler, Analyiker, Beteiligter...]</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="573">
   <si>
@@ -145,10 +229,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>INV.NR (Ort)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>224 x 316 mm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,22 +253,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ad. INHALT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>O&gt;PrQu [Objekt zu Primärquelle]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Metadaten:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&gt;O [Objekt zu Ort]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>O&gt;SeQu [Objekt zu Sekundärquelle]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1627,10 +1695,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ges.anzahl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>KOMMENTAR</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1694,22 +1758,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>O&gt;P [Objekt zu Person]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>OBJEKT [Typ]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vorgesehen zur Publikation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>O&gt;Z [Objekt zu Zeit]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>I.1.8</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1838,10 +1886,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Thema:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>St. Peter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2056,10 +2100,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>OBJEKT-ZEIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>gebaute QUELLE (Gebäude)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2068,22 +2108,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>dargestellter INHALT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AUFSCHRIFT/MERKMALE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>publiziert [Publikation]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PERSON [Künstler, Analyiker, Beteiligter...]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>VII.C.2.EX</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -2251,27 +2275,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>REFERENZ Ebene</t>
-  </si>
-  <si>
-    <t>REFERENZ Beziehung</t>
-  </si>
-  <si>
-    <t>REFERENZ Zeit</t>
-  </si>
-  <si>
-    <t>REFERENZ Ort</t>
-  </si>
-  <si>
-    <t>REFERENZ Person</t>
-  </si>
-  <si>
-    <t>REFERENZ Bezeichung</t>
-  </si>
-  <si>
-    <t>{Medial, Gebäude}</t>
-  </si>
-  <si>
     <t>{Florenz, Rom}</t>
   </si>
   <si>
@@ -2281,14 +2284,256 @@
     <t>{NULL, NULL}</t>
   </si>
   <si>
-    <t>{abgezeichnet [?], errichtet [?]}</t>
+    <t>{Medien, Gebäude}</t>
+  </si>
+  <si>
+    <t>{abgezeichnet [?], errichtet durch Medium [?]}</t>
+  </si>
+  <si>
+    <t>INVNR</t>
+  </si>
+  <si>
+    <t>Metadaten</t>
+  </si>
+  <si>
+    <t>OBJEKT</t>
+  </si>
+  <si>
+    <r>
+      <t>INHALT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_DARGESTELLT</t>
+    </r>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <r>
+      <t>AUFSCHRIFT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>MERKMALE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>publiziert</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_in_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Publikation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>vorgesehen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>zur</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Publikation</t>
+    </r>
+  </si>
+  <si>
+    <t>REFERENZ_Bezeichung</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ebene</t>
+  </si>
+  <si>
+    <t>REFERENZ_Beziehung</t>
+  </si>
+  <si>
+    <t>REFERENZ_Zeit</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ort</t>
+  </si>
+  <si>
+    <t>REFERENZ_Person</t>
+  </si>
+  <si>
+    <t>PERSON</t>
+  </si>
+  <si>
+    <r>
+      <t>OBJEKT</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>ZEIT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Objekt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>u_Ort</t>
+    </r>
+  </si>
+  <si>
+    <t>Objekt_zu_Zeit</t>
+  </si>
+  <si>
+    <r>
+      <t>Objekt</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>zu</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>Person</t>
+    </r>
+  </si>
+  <si>
+    <t>INHALT</t>
+  </si>
+  <si>
+    <r>
+      <t>Ges</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>_A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+      </rPr>
+      <t>nzahl</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2327,6 +2572,28 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Verdana"/>
     </font>
   </fonts>
@@ -2450,25 +2717,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2483,9 +2740,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2493,34 +2747,58 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -2853,17 +3131,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
     <col min="4" max="5" width="43.28515625" customWidth="1"/>
     <col min="6" max="8" width="23.28515625" customWidth="1"/>
@@ -2871,2565 +3149,2568 @@
     <col min="10" max="10" width="23.28515625" customWidth="1"/>
     <col min="11" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
-    <col min="25" max="31" width="22.7109375" style="14" customWidth="1"/>
-    <col min="32" max="33" width="20.7109375" customWidth="1"/>
+    <col min="25" max="27" width="22.7109375" style="10" customWidth="1"/>
+    <col min="28" max="28" width="34.7109375" style="10" customWidth="1"/>
+    <col min="29" max="31" width="22.7109375" style="10" customWidth="1"/>
+    <col min="32" max="33" width="20.7109375" style="21" customWidth="1"/>
     <col min="34" max="34" width="22.7109375" customWidth="1"/>
     <col min="35" max="35" width="20.7109375" customWidth="1"/>
     <col min="36" max="36" width="16.7109375" customWidth="1"/>
-    <col min="37" max="37" width="28.140625" style="14" customWidth="1"/>
-    <col min="38" max="38" width="27.42578125" style="14" customWidth="1"/>
+    <col min="37" max="37" width="28.140625" style="25" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" style="25" customWidth="1"/>
     <col min="39" max="41" width="20.7109375" customWidth="1"/>
-    <col min="42" max="43" width="31.28515625" customWidth="1"/>
+    <col min="42" max="43" width="31.28515625" style="21" customWidth="1"/>
+    <col min="44" max="44" width="36.85546875" customWidth="1"/>
     <col min="48" max="48" width="21.42578125" customWidth="1"/>
     <col min="51" max="51" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="14">
-      <c r="A1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="A1" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="O1" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="Z1" s="29" t="s">
+      <c r="V1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="X1" s="30" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="AA1" s="29" t="s">
-        <v>562</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>564</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>565</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>566</v>
-      </c>
-      <c r="AF1" s="25" t="s">
-        <v>559</v>
-      </c>
-      <c r="AG1" s="24" t="s">
-        <v>560</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>513</v>
-      </c>
-      <c r="AK1" s="27" t="s">
-        <v>514</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="AO1" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="AP1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AK1" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="AL1" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="AM1" s="33" t="s">
+        <v>568</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="AO1" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="AP1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="27" t="s">
         <v>38</v>
       </c>
+      <c r="AR1" s="35" t="s">
+        <v>571</v>
+      </c>
       <c r="AT1" s="1"/>
-      <c r="AU1" s="1" t="s">
-        <v>405</v>
+      <c r="AU1" s="36" t="s">
+        <v>572</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="AW1" s="3" t="s">
-        <v>407</v>
+        <v>401</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="AY1" s="1"/>
       <c r="AZ1" s="1"/>
     </row>
     <row r="5" spans="1:52">
-      <c r="A5" s="13">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>426</v>
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>1868</v>
+      </c>
+      <c r="AL5" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" s="9">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="N6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AI6" t="s">
         <v>377</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="N5" t="s">
-        <v>429</v>
-      </c>
-      <c r="AJ5" s="11">
-        <v>1868</v>
-      </c>
-      <c r="AL5" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="13">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="N6" t="s">
-        <v>429</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>381</v>
       </c>
       <c r="AJ6">
         <v>1899</v>
       </c>
-      <c r="AL6" s="14" t="s">
-        <v>289</v>
+      <c r="AL6" s="25" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:52">
-      <c r="A7" s="13">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>426</v>
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>417</v>
       </c>
       <c r="C7" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D7" t="s">
+        <v>306</v>
+      </c>
+      <c r="E7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" t="s">
+        <v>459</v>
+      </c>
+      <c r="N7" t="s">
+        <v>420</v>
+      </c>
+      <c r="AL7" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C8" t="s">
+        <v>302</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="N8" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" t="s">
-        <v>469</v>
-      </c>
-      <c r="N7" t="s">
-        <v>429</v>
-      </c>
-      <c r="AL7" s="14" t="s">
+      <c r="C9" t="s">
+        <v>311</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="N9" t="s">
+        <v>420</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL9" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" s="9">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="8" spans="1:52">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="N8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52">
-      <c r="A9" s="13">
-        <v>1</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="C9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="N9" t="s">
-        <v>429</v>
-      </c>
-      <c r="AJ9" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="AL9" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52">
-      <c r="A10" s="13">
-        <v>1</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="C10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>316</v>
-      </c>
       <c r="E10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="J10" s="12"/>
+        <v>373</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="J10" s="8"/>
       <c r="N10" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="AJ10">
         <v>1879</v>
       </c>
-      <c r="AL10" s="14" t="s">
-        <v>248</v>
+      <c r="AL10" s="25" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:52">
-      <c r="A11" s="13">
-        <v>1</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>359</v>
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="C11" t="s">
-        <v>315</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>360</v>
+        <v>311</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="J11" s="12"/>
+        <v>373</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="8"/>
       <c r="N11" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="X11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AH11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AJ11">
         <v>1862</v>
       </c>
-      <c r="AL11" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="AN11" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="AO11" s="14" t="s">
-        <v>245</v>
+      <c r="AL11" s="25" t="s">
+        <v>357</v>
+      </c>
+      <c r="AN11" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="AO11" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="AV11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:52">
-      <c r="A12" s="13">
-        <v>1</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>367</v>
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="C12" t="s">
-        <v>315</v>
-      </c>
-      <c r="D12" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" t="s">
+        <v>373</v>
+      </c>
+      <c r="N12" t="s">
+        <v>420</v>
+      </c>
+      <c r="X12" t="s">
         <v>268</v>
-      </c>
-      <c r="E12" t="s">
-        <v>377</v>
-      </c>
-      <c r="N12" t="s">
-        <v>429</v>
-      </c>
-      <c r="X12" t="s">
-        <v>272</v>
       </c>
       <c r="AJ12">
         <v>1866</v>
       </c>
     </row>
     <row r="13" spans="1:52">
-      <c r="A13" s="13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>277</v>
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>273</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" t="s">
         <v>373</v>
       </c>
-      <c r="E13" t="s">
-        <v>377</v>
-      </c>
       <c r="N13" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="X13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AJ13">
         <v>1869</v>
       </c>
-      <c r="AK13" s="14" t="s">
+      <c r="AK13" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL13" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AO13" s="10"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E14" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" t="s">
+        <v>420</v>
+      </c>
+      <c r="X14" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>333</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL14" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP14" s="25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E15" t="s">
+        <v>262</v>
+      </c>
+      <c r="K15" t="s">
+        <v>420</v>
+      </c>
+      <c r="X15" t="s">
+        <v>354</v>
+      </c>
+      <c r="AK15" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL15" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP15" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E16" t="s">
+        <v>390</v>
+      </c>
+      <c r="K16" t="s">
+        <v>331</v>
+      </c>
+      <c r="X16" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>548</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>551</v>
+      </c>
+      <c r="AC16" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD16" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="AE16" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="AF16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG16" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK16" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL16" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP16" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+      <c r="K17" t="s">
+        <v>330</v>
+      </c>
+      <c r="X17" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG17" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>334</v>
+      </c>
+      <c r="AK17" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL17" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP17" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
         <v>459</v>
       </c>
-      <c r="AL13" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AO13" s="14"/>
-    </row>
-    <row r="14" spans="1:52">
-      <c r="A14" s="13">
-        <v>1</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E14" t="s">
-        <v>376</v>
-      </c>
-      <c r="K14" t="s">
-        <v>429</v>
-      </c>
-      <c r="X14" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="K18" t="s">
+        <v>331</v>
+      </c>
+      <c r="X18" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>299</v>
+      </c>
+      <c r="AK18" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL18" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP18" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
+      <c r="A19" s="9">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" t="s">
+        <v>303</v>
+      </c>
+      <c r="K19" t="s">
+        <v>331</v>
+      </c>
+      <c r="X19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK19" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL19" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP19" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48">
+      <c r="A20" s="9">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E20" t="s">
+        <v>478</v>
+      </c>
+      <c r="F20" t="s">
+        <v>459</v>
+      </c>
+      <c r="K20" t="s">
+        <v>331</v>
+      </c>
+      <c r="X20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK20" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL20" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E21" t="s">
+        <v>444</v>
+      </c>
+      <c r="K21" t="s">
+        <v>288</v>
+      </c>
+      <c r="X21" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y21" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK21" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL21" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP21" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
+      <c r="A22" s="9">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" t="s">
+        <v>445</v>
+      </c>
+      <c r="K22" t="s">
+        <v>331</v>
+      </c>
+      <c r="X22" t="s">
+        <v>343</v>
+      </c>
+      <c r="AF22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG22" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK22" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL22" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP22" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48">
+      <c r="A23" s="9">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E23" t="s">
+        <v>366</v>
+      </c>
+      <c r="F23" t="s">
+        <v>459</v>
+      </c>
+      <c r="K23" t="s">
+        <v>331</v>
+      </c>
+      <c r="X23" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG23" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK23" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL23" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP23" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" s="9">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E24" t="s">
+        <v>456</v>
+      </c>
+      <c r="K24" t="s">
+        <v>331</v>
+      </c>
+      <c r="X24" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>426</v>
+      </c>
+      <c r="AK24" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL24" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP24" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48">
+      <c r="A25" s="9">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" t="s">
+        <v>459</v>
+      </c>
+      <c r="K25" t="s">
+        <v>331</v>
+      </c>
+      <c r="X25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK25" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL25" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP25" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48">
+      <c r="A26" s="9">
+        <v>1</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" t="s">
+        <v>331</v>
+      </c>
+      <c r="M26" t="s">
+        <v>351</v>
+      </c>
+      <c r="X26" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG26" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK26" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL26" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP26" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48">
+      <c r="A27" s="9">
+        <v>1</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="K27" t="s">
+        <v>331</v>
+      </c>
+      <c r="X27" t="s">
+        <v>336</v>
+      </c>
+      <c r="AF27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG27" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK27" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL27" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP27" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48">
+      <c r="A28" s="9">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="E28" t="s">
+        <v>389</v>
+      </c>
+      <c r="F28" t="s">
+        <v>459</v>
+      </c>
+      <c r="K28" t="s">
+        <v>331</v>
+      </c>
+      <c r="X28" t="s">
         <v>337</v>
       </c>
-      <c r="AK14" s="14" t="s">
+      <c r="AF28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG28" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>415</v>
+      </c>
+      <c r="AK28" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL28" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="AP28" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48">
+      <c r="A29" s="9">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="E29" t="s">
+        <v>502</v>
+      </c>
+      <c r="F29" t="s">
         <v>459</v>
       </c>
-      <c r="AL14" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP14" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" t="s">
-        <v>267</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E15" t="s">
-        <v>266</v>
-      </c>
-      <c r="K15" t="s">
-        <v>429</v>
-      </c>
-      <c r="X15" t="s">
-        <v>358</v>
-      </c>
-      <c r="AK15" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL15" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP15" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="K29" t="s">
+        <v>331</v>
+      </c>
+      <c r="X29" t="s">
+        <v>422</v>
+      </c>
+      <c r="AK29" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL29" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48">
+      <c r="A30" s="9">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E30" t="s">
         <v>394</v>
       </c>
-      <c r="K16" t="s">
-        <v>335</v>
-      </c>
-      <c r="X16" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA16" s="14" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB16" s="14" t="s">
-        <v>572</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="AD16" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="AE16" s="14" t="s">
-        <v>571</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK16" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL16" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP16" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48">
-      <c r="A17" s="13">
-        <v>1</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E17" t="s">
-        <v>298</v>
-      </c>
-      <c r="K17" t="s">
-        <v>334</v>
-      </c>
-      <c r="X17" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>338</v>
-      </c>
-      <c r="AK17" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL17" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP17" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
-      <c r="A18" s="13">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" t="s">
-        <v>301</v>
-      </c>
-      <c r="F18" t="s">
-        <v>469</v>
-      </c>
-      <c r="K18" t="s">
-        <v>335</v>
-      </c>
-      <c r="X18" t="s">
-        <v>302</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>303</v>
-      </c>
-      <c r="AK18" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL18" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP18" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E19" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" t="s">
-        <v>335</v>
-      </c>
-      <c r="X19" t="s">
-        <v>309</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK19" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL19" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP19" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
-      <c r="A20" s="13">
-        <v>1</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="E20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>469</v>
-      </c>
-      <c r="K20" t="s">
-        <v>335</v>
-      </c>
-      <c r="X20" t="s">
-        <v>293</v>
-      </c>
-      <c r="AK20" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL20" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48">
-      <c r="A21" s="13">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="E21" t="s">
-        <v>453</v>
-      </c>
-      <c r="K21" t="s">
-        <v>292</v>
-      </c>
-      <c r="X21" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK21" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL21" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP21" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:48">
-      <c r="A22" s="13">
-        <v>1</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22" t="s">
-        <v>454</v>
-      </c>
-      <c r="K22" t="s">
-        <v>335</v>
-      </c>
-      <c r="X22" t="s">
-        <v>347</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK22" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL22" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP22" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:48">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" t="s">
-        <v>370</v>
-      </c>
-      <c r="F23" t="s">
-        <v>469</v>
-      </c>
-      <c r="K23" t="s">
-        <v>335</v>
-      </c>
-      <c r="X23" t="s">
-        <v>371</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK23" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL23" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP23" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="1:48">
-      <c r="A24" s="13">
-        <v>1</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="E24" t="s">
-        <v>466</v>
-      </c>
-      <c r="K24" t="s">
-        <v>335</v>
-      </c>
-      <c r="X24" t="s">
-        <v>467</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>435</v>
-      </c>
-      <c r="AK24" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL24" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP24" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="1:48">
-      <c r="A25" s="13">
-        <v>1</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E25" t="s">
-        <v>345</v>
-      </c>
-      <c r="F25" t="s">
-        <v>469</v>
-      </c>
-      <c r="K25" t="s">
-        <v>335</v>
-      </c>
-      <c r="X25" t="s">
-        <v>346</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>253</v>
-      </c>
-      <c r="AK25" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL25" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP25" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:48">
-      <c r="A26" s="13">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="K26" t="s">
-        <v>335</v>
-      </c>
-      <c r="M26" t="s">
-        <v>355</v>
-      </c>
-      <c r="X26" t="s">
-        <v>354</v>
-      </c>
-      <c r="Y26" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK26" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL26" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP26" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="1:48">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>433</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="K27" t="s">
-        <v>335</v>
-      </c>
-      <c r="X27" t="s">
-        <v>340</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>434</v>
-      </c>
-      <c r="AK27" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL27" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP27" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48">
-      <c r="A28" s="13">
-        <v>1</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="E28" t="s">
-        <v>393</v>
-      </c>
-      <c r="F28" t="s">
-        <v>469</v>
-      </c>
-      <c r="K28" t="s">
-        <v>335</v>
-      </c>
-      <c r="X28" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>420</v>
-      </c>
-      <c r="AK28" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL28" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="AP28" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="29" spans="1:48">
-      <c r="A29" s="13">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="E29" t="s">
-        <v>512</v>
-      </c>
-      <c r="F29" t="s">
-        <v>469</v>
-      </c>
-      <c r="K29" t="s">
-        <v>335</v>
-      </c>
-      <c r="X29" t="s">
-        <v>431</v>
-      </c>
-      <c r="AK29" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL29" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:48">
-      <c r="A30" s="13">
-        <v>1</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E30" t="s">
-        <v>398</v>
-      </c>
       <c r="W30" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="X30" t="s">
-        <v>400</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>399</v>
+        <v>396</v>
+      </c>
+      <c r="Y30" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="AJ30">
         <v>1884</v>
       </c>
     </row>
     <row r="31" spans="1:48">
-      <c r="A31" s="13">
-        <v>1</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="A31" s="9">
+        <v>1</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E31" t="s">
+        <v>397</v>
+      </c>
+      <c r="S31" t="s">
+        <v>331</v>
+      </c>
+      <c r="W31" t="s">
+        <v>331</v>
+      </c>
+      <c r="X31" t="s">
+        <v>398</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>399</v>
+      </c>
+      <c r="AK31" s="25" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL31" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="AP31" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48">
+      <c r="A32" s="9">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="E32" t="s">
+        <v>388</v>
+      </c>
+      <c r="K32" t="s">
+        <v>331</v>
+      </c>
+      <c r="X32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AF32" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG32" s="21" t="s">
+        <v>474</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK32" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL32" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP32" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48">
+      <c r="A33" s="9">
+        <v>1</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E33" t="s">
+        <v>477</v>
+      </c>
+      <c r="K33" t="s">
+        <v>479</v>
+      </c>
+      <c r="X33" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF33" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG33" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="E31" t="s">
-        <v>401</v>
-      </c>
-      <c r="S31" t="s">
-        <v>335</v>
-      </c>
-      <c r="W31" t="s">
-        <v>335</v>
-      </c>
-      <c r="X31" t="s">
-        <v>402</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>403</v>
-      </c>
-      <c r="AK31" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="AL31" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="AP31" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:48">
-      <c r="A32" s="13">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="AK33" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL33" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP33" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48">
+      <c r="A34" s="9">
+        <v>1</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="E32" t="s">
-        <v>392</v>
-      </c>
-      <c r="K32" t="s">
-        <v>335</v>
-      </c>
-      <c r="X32" t="s">
-        <v>418</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>242</v>
-      </c>
-      <c r="AK32" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL32" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP32" s="14" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="33" spans="1:48">
-      <c r="A33" s="13">
-        <v>1</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="E33" t="s">
-        <v>487</v>
-      </c>
-      <c r="K33" t="s">
-        <v>489</v>
-      </c>
-      <c r="X33" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF33" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK33" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL33" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP33" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="1:48">
-      <c r="A34" s="13">
-        <v>1</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>386</v>
-      </c>
       <c r="E34" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K34" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF34" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG34" t="s">
-        <v>295</v>
+      <c r="AG34" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="AH34" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AJ34">
         <v>1882</v>
       </c>
-      <c r="AK34" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL34" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP34" s="14" t="s">
-        <v>244</v>
+      <c r="AK34" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL34" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP34" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:48">
-      <c r="A35" s="13">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>390</v>
+      <c r="A35" s="9">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="E35" t="s">
+        <v>387</v>
+      </c>
+      <c r="K35" t="s">
+        <v>331</v>
+      </c>
+      <c r="X35" t="s">
         <v>391</v>
       </c>
-      <c r="K35" t="s">
-        <v>335</v>
-      </c>
-      <c r="X35" t="s">
-        <v>395</v>
-      </c>
-      <c r="AF35" t="s">
+      <c r="AF35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG35" t="s">
-        <v>295</v>
+      <c r="AG35" s="21" t="s">
+        <v>291</v>
       </c>
       <c r="AH35" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AJ35">
         <v>1882</v>
       </c>
-      <c r="AK35" s="14" t="s">
+      <c r="AK35" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL35" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP35" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48">
+      <c r="A36" s="9">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E36" t="s">
+        <v>462</v>
+      </c>
+      <c r="K36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="s">
+        <v>331</v>
+      </c>
+      <c r="X36" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>352</v>
+      </c>
+      <c r="AK36" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL36" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP36" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48">
+      <c r="A37" s="9">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E37" t="s">
+        <v>466</v>
+      </c>
+      <c r="K37" t="s">
+        <v>331</v>
+      </c>
+      <c r="X37" t="s">
+        <v>467</v>
+      </c>
+      <c r="AF37" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG37" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AK37" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL37" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP37" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48">
+      <c r="A38" s="9">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E38" t="s">
+        <v>477</v>
+      </c>
+      <c r="F38" t="s">
         <v>459</v>
       </c>
-      <c r="AL35" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP35" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:48">
-      <c r="A36" s="13">
-        <v>1</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E36" t="s">
-        <v>472</v>
-      </c>
-      <c r="K36" t="s">
-        <v>335</v>
-      </c>
-      <c r="M36" t="s">
-        <v>335</v>
-      </c>
-      <c r="X36" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH36" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK36" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL36" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP36" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV36" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="37" spans="1:48">
-      <c r="A37" s="13">
-        <v>1</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>475</v>
-      </c>
-      <c r="E37" t="s">
-        <v>476</v>
-      </c>
-      <c r="K37" t="s">
-        <v>335</v>
-      </c>
-      <c r="X37" t="s">
-        <v>477</v>
-      </c>
-      <c r="AF37" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG37" t="s">
-        <v>295</v>
-      </c>
-      <c r="AK37" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL37" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP37" s="14" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="1:48">
-      <c r="A38" s="13">
-        <v>1</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="E38" t="s">
-        <v>487</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="K38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
         <v>469</v>
       </c>
-      <c r="K38" t="s">
-        <v>335</v>
-      </c>
-      <c r="X38" t="s">
-        <v>479</v>
-      </c>
       <c r="AH38" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AJ38">
         <v>1867</v>
       </c>
-      <c r="AK38" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL38" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP38" s="14" t="s">
-        <v>244</v>
+      <c r="AK38" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL38" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP38" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:48">
-      <c r="A39" s="13">
-        <v>1</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>352</v>
+      <c r="A39" s="9">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>348</v>
       </c>
       <c r="K39" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="X39" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK39" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL39" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48">
+      <c r="A40" s="9">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="E40" t="s">
+        <v>442</v>
+      </c>
+      <c r="K40" t="s">
+        <v>436</v>
+      </c>
+      <c r="X40" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF40" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG40" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>438</v>
+      </c>
+      <c r="AK40" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL40" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP40" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48">
+      <c r="A41" s="9">
+        <v>1</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="E41" t="s">
+        <v>441</v>
+      </c>
+      <c r="K41" t="s">
+        <v>479</v>
+      </c>
+      <c r="X41" t="s">
         <v>443</v>
       </c>
-      <c r="AK39" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL39" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:48">
-      <c r="A40" s="13">
-        <v>1</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="E40" t="s">
-        <v>451</v>
-      </c>
-      <c r="K40" t="s">
-        <v>445</v>
-      </c>
-      <c r="X40" t="s">
-        <v>348</v>
-      </c>
-      <c r="AF40" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG40" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH40" t="s">
-        <v>447</v>
-      </c>
-      <c r="AK40" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL40" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP40" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="41" spans="1:48">
-      <c r="A41" s="13">
-        <v>1</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D41" s="12" t="s">
+      <c r="AF41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG41" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>427</v>
+      </c>
+      <c r="AK41" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="E41" t="s">
-        <v>450</v>
-      </c>
-      <c r="K41" t="s">
-        <v>489</v>
-      </c>
-      <c r="X41" t="s">
+      <c r="AL41" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AF41" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG41" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH41" t="s">
-        <v>436</v>
-      </c>
-      <c r="AK41" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL41" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP41" s="14" t="s">
-        <v>446</v>
+      <c r="AP41" s="25" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:48">
-      <c r="A42" s="13">
-        <v>1</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="A42" s="9">
+        <v>1</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" t="s">
+        <v>429</v>
+      </c>
+      <c r="K42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="s">
+        <v>331</v>
+      </c>
+      <c r="S42" t="s">
+        <v>351</v>
+      </c>
+      <c r="X42" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>431</v>
+      </c>
+      <c r="AK42" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="AL42" s="25" t="s">
+        <v>452</v>
+      </c>
+      <c r="AP42" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="E42" t="s">
-        <v>438</v>
-      </c>
-      <c r="K42" t="s">
-        <v>335</v>
-      </c>
-      <c r="M42" t="s">
-        <v>335</v>
-      </c>
-      <c r="S42" t="s">
-        <v>355</v>
-      </c>
-      <c r="X42" t="s">
-        <v>439</v>
-      </c>
-      <c r="AH42" t="s">
-        <v>440</v>
-      </c>
-      <c r="AK42" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="AL42" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP42" s="14" t="s">
-        <v>446</v>
-      </c>
     </row>
     <row r="43" spans="1:48">
-      <c r="A43" s="13"/>
+      <c r="A43" s="9"/>
     </row>
     <row r="44" spans="1:48">
-      <c r="A44" s="13">
-        <v>1</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>290</v>
+      <c r="A44" s="9">
+        <v>1</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>286</v>
       </c>
       <c r="C44" t="s">
-        <v>330</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>331</v>
+        <v>326</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>327</v>
       </c>
       <c r="E44" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H44" t="s">
+        <v>229</v>
+      </c>
+      <c r="J44" t="s">
+        <v>230</v>
+      </c>
+      <c r="N44" t="s">
+        <v>231</v>
+      </c>
+      <c r="X44" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH44" t="s">
         <v>233</v>
-      </c>
-      <c r="J44" t="s">
-        <v>234</v>
-      </c>
-      <c r="N44" t="s">
-        <v>235</v>
-      </c>
-      <c r="X44" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH44" t="s">
-        <v>237</v>
       </c>
       <c r="AJ44">
         <v>1905</v>
       </c>
-      <c r="AL44" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="AP44" s="14" t="s">
-        <v>239</v>
+      <c r="AL44" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP44" s="25" t="s">
+        <v>235</v>
       </c>
       <c r="AR44" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:48">
-      <c r="A45" s="13">
-        <v>1</v>
-      </c>
-      <c r="B45" s="10" t="s">
+      <c r="A45" s="9">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E45" t="s">
+        <v>150</v>
+      </c>
+      <c r="F45" t="s">
         <v>328</v>
       </c>
-      <c r="C45" t="s">
-        <v>330</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" t="s">
-        <v>154</v>
-      </c>
-      <c r="F45" t="s">
-        <v>332</v>
-      </c>
       <c r="H45" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s">
+        <v>231</v>
+      </c>
+      <c r="X45" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>233</v>
+      </c>
+      <c r="AP45" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="X45" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH45" t="s">
-        <v>237</v>
-      </c>
-      <c r="AP45" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="AR45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48">
+      <c r="A46" s="9">
+        <v>1</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="46" spans="1:48">
-      <c r="A46" s="13">
-        <v>1</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="C46" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="12" t="s">
+      <c r="E46" t="s">
+        <v>321</v>
+      </c>
+      <c r="N46" t="s">
+        <v>231</v>
+      </c>
+      <c r="AJ46" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="E46" t="s">
-        <v>325</v>
-      </c>
-      <c r="N46" t="s">
-        <v>235</v>
-      </c>
-      <c r="AJ46" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="AL46" s="14" t="s">
-        <v>326</v>
+      <c r="AL46" s="25" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:48">
-      <c r="A47" s="13">
-        <v>1</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>211</v>
+      <c r="A47" s="9">
+        <v>1</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="C47" t="s">
-        <v>324</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>463</v>
+        <v>320</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>453</v>
       </c>
       <c r="E47" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AH47" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AJ47">
         <v>1888</v>
       </c>
-      <c r="AK47" s="14" t="s">
-        <v>464</v>
-      </c>
-      <c r="AL47" s="14" t="s">
+      <c r="AK47" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="AL47" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP47" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48">
+      <c r="A48" s="9">
+        <v>1</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AP47" s="14" t="s">
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" t="s">
+        <v>275</v>
+      </c>
+      <c r="N48" t="s">
+        <v>231</v>
+      </c>
+      <c r="AP48" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:44">
+      <c r="A50" s="9">
+        <v>1</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E50" t="s">
+        <v>151</v>
+      </c>
+      <c r="F50" t="s">
+        <v>281</v>
+      </c>
+      <c r="H50" t="s">
+        <v>282</v>
+      </c>
+      <c r="N50" t="s">
+        <v>283</v>
+      </c>
+      <c r="X50" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL50" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP50" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:44">
+      <c r="A51" s="9">
+        <v>1</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E51" t="s">
+        <v>218</v>
+      </c>
+      <c r="F51" t="s">
+        <v>184</v>
+      </c>
+      <c r="H51" t="s">
+        <v>185</v>
+      </c>
+      <c r="J51" t="s">
+        <v>186</v>
+      </c>
+      <c r="N51" t="s">
+        <v>231</v>
+      </c>
+      <c r="X51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL51" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="AP51" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:44">
+      <c r="A52" s="9">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C52" t="s">
+        <v>326</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="E52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H52" t="s">
+        <v>270</v>
+      </c>
+      <c r="N52" t="s">
+        <v>271</v>
+      </c>
+      <c r="X52" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL52" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM52" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AP52" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:44">
+      <c r="A53" s="9">
+        <v>1</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" t="s">
+        <v>326</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" t="s">
+        <v>328</v>
+      </c>
+      <c r="H53" t="s">
+        <v>171</v>
+      </c>
+      <c r="J53" t="s">
+        <v>172</v>
+      </c>
+      <c r="N53" t="s">
+        <v>231</v>
+      </c>
+      <c r="X53" t="s">
+        <v>173</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ53" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="AL53" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP53" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:44">
+      <c r="A54" s="9"/>
+    </row>
+    <row r="55" spans="1:44">
+      <c r="A55" s="9">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" t="s">
+        <v>260</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E55" t="s">
+        <v>217</v>
+      </c>
+      <c r="F55" t="s">
+        <v>221</v>
+      </c>
+      <c r="G55" t="s">
+        <v>222</v>
+      </c>
+      <c r="H55" t="s">
+        <v>223</v>
+      </c>
+      <c r="N55" t="s">
+        <v>271</v>
+      </c>
+      <c r="X55" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL55" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM55" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:44">
+      <c r="A56" s="9">
+        <v>1</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>226</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" t="s">
+        <v>228</v>
+      </c>
+      <c r="H56" t="s">
+        <v>143</v>
+      </c>
+      <c r="J56" t="s">
+        <v>192</v>
+      </c>
+      <c r="L56" t="s">
+        <v>271</v>
+      </c>
+      <c r="X56" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF56" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG56" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK56" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="AL56" s="25" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="57" spans="1:44">
+      <c r="A57" s="9">
+        <v>1</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C57" t="s">
+        <v>226</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G57" t="s">
+        <v>228</v>
+      </c>
+      <c r="H57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" t="s">
+        <v>193</v>
+      </c>
+      <c r="L57" t="s">
+        <v>231</v>
+      </c>
+      <c r="X57" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF57" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG57" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="1:44">
+      <c r="A58" s="9">
+        <v>1</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" t="s">
+        <v>228</v>
+      </c>
+      <c r="H58" t="s">
+        <v>194</v>
+      </c>
+      <c r="J58" t="s">
+        <v>193</v>
+      </c>
+      <c r="L58" t="s">
+        <v>271</v>
+      </c>
+      <c r="X58" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL58" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:44">
+      <c r="A59" s="9">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" t="s">
+        <v>122</v>
+      </c>
+      <c r="F59" t="s">
+        <v>123</v>
+      </c>
+      <c r="G59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="V59" t="s">
+        <v>126</v>
+      </c>
+      <c r="X59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:44">
+      <c r="A60" s="9">
+        <v>1</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="6"/>
+      <c r="J60" s="16" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="1:48">
-      <c r="A48" s="13">
-        <v>1</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:44">
+      <c r="A61" s="9">
+        <v>1</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C61" t="s">
         <v>210</v>
       </c>
-      <c r="C48" t="s">
-        <v>212</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E48" t="s">
-        <v>279</v>
-      </c>
-      <c r="N48" t="s">
-        <v>235</v>
-      </c>
-      <c r="AP48" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:44">
-      <c r="A50" s="13">
-        <v>1</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="C50" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E50" t="s">
-        <v>155</v>
-      </c>
-      <c r="F50" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" t="s">
-        <v>286</v>
-      </c>
-      <c r="N50" t="s">
-        <v>287</v>
-      </c>
-      <c r="X50" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH50" t="s">
-        <v>202</v>
-      </c>
-      <c r="AL50" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP50" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR50" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:44">
-      <c r="A51" s="13">
-        <v>1</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C51" t="s">
-        <v>330</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" t="s">
-        <v>188</v>
-      </c>
-      <c r="H51" t="s">
-        <v>189</v>
-      </c>
-      <c r="J51" t="s">
-        <v>190</v>
-      </c>
-      <c r="N51" t="s">
-        <v>235</v>
-      </c>
-      <c r="X51" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL51" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP51" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="52" spans="1:44">
-      <c r="A52" s="13">
-        <v>1</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" t="s">
-        <v>330</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E52" t="s">
-        <v>223</v>
-      </c>
-      <c r="F52" t="s">
+      <c r="D61" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L61" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="X61" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y61" s="10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:44">
+      <c r="A62" s="9">
+        <v>1</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C62" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W62" t="s">
+        <v>231</v>
+      </c>
+      <c r="X62" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK62" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="AL62" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM62" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:44">
+      <c r="A63" s="9">
+        <v>1</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="W63" t="s">
+        <v>126</v>
+      </c>
+      <c r="X63" t="s">
         <v>103</v>
       </c>
-      <c r="H52" t="s">
-        <v>274</v>
-      </c>
-      <c r="N52" t="s">
-        <v>275</v>
-      </c>
-      <c r="X52" t="s">
-        <v>276</v>
-      </c>
-      <c r="AH52" t="s">
-        <v>191</v>
-      </c>
-      <c r="AL52" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM52" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AP52" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AR52" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="53" spans="1:44">
-      <c r="A53" s="13">
-        <v>1</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="C53" t="s">
-        <v>330</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>224</v>
-      </c>
-      <c r="F53" t="s">
-        <v>332</v>
-      </c>
-      <c r="H53" t="s">
-        <v>175</v>
-      </c>
-      <c r="J53" t="s">
-        <v>176</v>
-      </c>
-      <c r="N53" t="s">
-        <v>235</v>
-      </c>
-      <c r="X53" t="s">
-        <v>177</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>191</v>
-      </c>
-      <c r="AJ53" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL53" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="AP53" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="54" spans="1:44">
-      <c r="A54" s="13"/>
-    </row>
-    <row r="55" spans="1:44">
-      <c r="A55" s="13">
-        <v>1</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C55" t="s">
-        <v>264</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E55" t="s">
-        <v>221</v>
-      </c>
-      <c r="F55" t="s">
-        <v>225</v>
-      </c>
-      <c r="G55" t="s">
-        <v>226</v>
-      </c>
-      <c r="H55" t="s">
-        <v>227</v>
-      </c>
-      <c r="N55" t="s">
-        <v>275</v>
-      </c>
-      <c r="X55" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL55" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AM55" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:44">
-      <c r="A56" s="13">
-        <v>1</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="E56" t="s">
-        <v>145</v>
-      </c>
-      <c r="F56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G56" t="s">
-        <v>232</v>
-      </c>
-      <c r="H56" t="s">
-        <v>147</v>
-      </c>
-      <c r="J56" t="s">
-        <v>196</v>
-      </c>
-      <c r="L56" t="s">
-        <v>275</v>
-      </c>
-      <c r="X56" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF56" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG56" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK56" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="AL56" s="14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="57" spans="1:44">
-      <c r="A57" s="13">
-        <v>1</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C57" t="s">
-        <v>230</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" t="s">
-        <v>232</v>
-      </c>
-      <c r="H57" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57" t="s">
-        <v>197</v>
-      </c>
-      <c r="L57" t="s">
-        <v>235</v>
-      </c>
-      <c r="X57" t="s">
-        <v>149</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG57" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="58" spans="1:44">
-      <c r="A58" s="13">
-        <v>1</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="C58" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="AL63" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM63" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="F58" t="s">
-        <v>146</v>
-      </c>
-      <c r="G58" t="s">
-        <v>232</v>
-      </c>
-      <c r="H58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" t="s">
-        <v>197</v>
-      </c>
-      <c r="L58" t="s">
-        <v>275</v>
-      </c>
-      <c r="X58" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL58" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44">
-      <c r="A59" s="13">
-        <v>1</v>
-      </c>
-      <c r="B59" s="10" t="s">
+    </row>
+    <row r="64" spans="1:44">
+      <c r="A64" s="9">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="C59" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" t="s">
-        <v>126</v>
-      </c>
-      <c r="F59" t="s">
-        <v>127</v>
-      </c>
-      <c r="G59" t="s">
-        <v>128</v>
-      </c>
-      <c r="H59" t="s">
-        <v>129</v>
-      </c>
-      <c r="V59" t="s">
-        <v>130</v>
-      </c>
-      <c r="X59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:44">
-      <c r="A60" s="13">
-        <v>1</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="C60" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" t="s">
-        <v>133</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H60" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:44">
-      <c r="A61" s="13">
-        <v>1</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C61" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H61" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="J61" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="X61" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y61" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:44">
-      <c r="A62" s="13">
-        <v>1</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="C64" t="s">
         <v>260</v>
       </c>
-      <c r="C62" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="E62" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W62" t="s">
-        <v>235</v>
-      </c>
-      <c r="X62" t="s">
-        <v>95</v>
-      </c>
-      <c r="AK62" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="AL62" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="AM62" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="63" spans="1:44">
-      <c r="A63" s="13">
-        <v>1</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" t="s">
-        <v>264</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="E63" t="s">
-        <v>98</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="W63" t="s">
-        <v>130</v>
-      </c>
-      <c r="X63" t="s">
-        <v>107</v>
-      </c>
-      <c r="AL63" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM63" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="64" spans="1:44">
-      <c r="A64" s="13">
-        <v>1</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C64" t="s">
-        <v>264</v>
-      </c>
-      <c r="D64" s="12" t="s">
+      <c r="D64" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64" t="s">
+        <v>165</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G64" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E64" t="s">
-        <v>169</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>172</v>
+      <c r="H64" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="J64" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="V64" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="X64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ64">
         <v>1882</v>
       </c>
-      <c r="AL64" s="14" t="s">
+      <c r="AL64" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM64" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42">
+      <c r="A65" s="9">
+        <v>1</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>260</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" t="s">
+        <v>164</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J65" t="s">
         <v>79</v>
       </c>
-      <c r="AM64" s="14" t="s">
+      <c r="V65" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="65" spans="1:42">
-      <c r="A65" s="13">
-        <v>1</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" t="s">
-        <v>264</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E65" t="s">
-        <v>168</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="H65" s="10" t="s">
+      <c r="X65" t="s">
         <v>81</v>
-      </c>
-      <c r="J65" t="s">
-        <v>83</v>
-      </c>
-      <c r="V65" t="s">
-        <v>84</v>
-      </c>
-      <c r="X65" t="s">
-        <v>85</v>
       </c>
       <c r="AJ65">
         <v>1882</v>
       </c>
-      <c r="AL65" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM65" s="14" t="s">
-        <v>80</v>
+      <c r="AL65" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM65" s="10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:42">
-      <c r="A66" s="13">
-        <v>1</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>263</v>
+      <c r="A66" s="9">
+        <v>1</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>259</v>
       </c>
       <c r="C66" t="s">
-        <v>264</v>
-      </c>
-      <c r="D66" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="10" t="s">
-        <v>46</v>
+      <c r="H66" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J66" t="s">
+        <v>148</v>
+      </c>
+      <c r="W66" t="s">
+        <v>231</v>
+      </c>
+      <c r="X66" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y66" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ66" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK66" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="AL66" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM66" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="AN66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO66" s="10"/>
+    </row>
+    <row r="67" spans="1:42">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:42">
+      <c r="A68" s="9">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="W66" t="s">
-        <v>235</v>
-      </c>
-      <c r="X66" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y66" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH66" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ66" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK66" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="AL66" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM66" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="AN66" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO66" s="14"/>
-    </row>
-    <row r="67" spans="1:42">
-      <c r="A67" s="13"/>
-    </row>
-    <row r="68" spans="1:42">
-      <c r="A68" s="13">
-        <v>1</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="C68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F68" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G68" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H68" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" t="s">
         <v>32</v>
       </c>
-      <c r="J68" t="s">
+      <c r="Q68" t="s">
         <v>33</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="X68" t="s">
         <v>34</v>
       </c>
-      <c r="X68" t="s">
+    </row>
+    <row r="69" spans="1:42">
+      <c r="A69" s="9">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>226</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
+      </c>
+      <c r="F69" t="s">
+        <v>142</v>
+      </c>
+      <c r="G69" t="s">
+        <v>116</v>
+      </c>
+      <c r="H69" t="s">
+        <v>117</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>231</v>
+      </c>
+      <c r="X69" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="69" spans="1:42">
-      <c r="A69" s="13">
-        <v>1</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C69" t="s">
-        <v>230</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" t="s">
-        <v>119</v>
-      </c>
-      <c r="F69" t="s">
-        <v>146</v>
-      </c>
-      <c r="G69" t="s">
-        <v>120</v>
-      </c>
-      <c r="H69" t="s">
-        <v>121</v>
-      </c>
-      <c r="J69" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>235</v>
-      </c>
-      <c r="X69" t="s">
+    <row r="70" spans="1:42">
+      <c r="A70" s="9">
+        <v>1</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="70" spans="1:42">
-      <c r="A70" s="13">
-        <v>1</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
+        <v>133</v>
+      </c>
+      <c r="F70" t="s">
+        <v>134</v>
+      </c>
+      <c r="G70" t="s">
+        <v>135</v>
+      </c>
+      <c r="H70" t="s">
         <v>136</v>
       </c>
-      <c r="D70" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="J70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" t="s">
+      <c r="V70" t="s">
+        <v>231</v>
+      </c>
+      <c r="X70" t="s">
         <v>138</v>
       </c>
-      <c r="G70" t="s">
-        <v>139</v>
-      </c>
-      <c r="H70" t="s">
-        <v>140</v>
-      </c>
-      <c r="J70" t="s">
-        <v>141</v>
-      </c>
-      <c r="V70" t="s">
-        <v>235</v>
-      </c>
-      <c r="X70" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="71" spans="1:42">
-      <c r="A71" s="13">
-        <v>1</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>158</v>
+      <c r="A71" s="9">
+        <v>1</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C71" t="s">
-        <v>136</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>102</v>
+        <v>132</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="E71" t="s">
         <v>27</v>
@@ -5438,112 +5719,112 @@
         <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="V71" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="X71" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:42">
-      <c r="A72" s="13">
-        <v>1</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>158</v>
+      <c r="A72" s="9">
+        <v>1</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="C72" t="s">
-        <v>136</v>
-      </c>
-      <c r="D72" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E72" t="s">
+        <v>105</v>
+      </c>
+      <c r="F72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+      <c r="V72" t="s">
+        <v>231</v>
+      </c>
+      <c r="X72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:42">
+      <c r="A73" s="9">
+        <v>1</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
         <v>109</v>
       </c>
-      <c r="F72" t="s">
-        <v>134</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="D73" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="H72" t="s">
-        <v>135</v>
-      </c>
-      <c r="J72" t="s">
+      <c r="E73" t="s">
+        <v>105</v>
+      </c>
+      <c r="F73" t="s">
         <v>111</v>
       </c>
-      <c r="V72" t="s">
-        <v>235</v>
-      </c>
-      <c r="X72" t="s">
+      <c r="G73" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="73" spans="1:42">
-      <c r="A73" s="13">
-        <v>1</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="H73" t="s">
         <v>113</v>
       </c>
-      <c r="D73" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" t="s">
-        <v>115</v>
-      </c>
-      <c r="G73" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" t="s">
-        <v>117</v>
-      </c>
       <c r="V73" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="X73" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:42">
-      <c r="A74" s="13">
-        <v>1</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>160</v>
+      <c r="A74" s="9">
+        <v>1</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
         <v>10</v>
       </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="X74" t="s">
         <v>9</v>
@@ -5554,19 +5835,19 @@
       <c r="AJ74">
         <v>1880</v>
       </c>
-      <c r="AL74" s="14" t="s">
+      <c r="AL74" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AP74" s="14" t="s">
+      <c r="AP74" s="25" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:42">
-      <c r="A75" s="13">
-        <v>1</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>160</v>
+      <c r="A75" s="9">
+        <v>1</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -5578,16 +5859,16 @@
         <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
-      </c>
-      <c r="G75" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="K75" t="s">
         <v>231</v>
-      </c>
-      <c r="K75" t="s">
-        <v>235</v>
       </c>
       <c r="X75" t="s">
         <v>9</v>
@@ -5598,500 +5879,500 @@
       <c r="AJ75">
         <v>1880</v>
       </c>
-      <c r="AL75" s="17" t="s">
+      <c r="AL75" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:42">
-      <c r="A76" s="13">
-        <v>1</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>161</v>
+      <c r="A76" s="9">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C76" t="s">
-        <v>101</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>86</v>
+        <v>97</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="E76" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
         <v>28</v>
       </c>
       <c r="G76" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H76" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="S76" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AH76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:42">
-      <c r="A77" s="13">
-        <v>1</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>162</v>
+      <c r="A77" s="9">
+        <v>1</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C77" t="s">
-        <v>264</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>68</v>
+        <v>260</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="E77" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
         <v>28</v>
       </c>
       <c r="G77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H77" t="s">
+        <v>66</v>
+      </c>
+      <c r="S77" t="s">
+        <v>231</v>
+      </c>
+      <c r="X77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK77" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL77" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="S77" t="s">
-        <v>235</v>
-      </c>
-      <c r="X77" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK77" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="AL77" s="14" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="78" spans="1:42">
-      <c r="A78" s="13">
-        <v>1</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>162</v>
+      <c r="A78" s="9">
+        <v>1</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="C78" t="s">
-        <v>264</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>72</v>
+        <v>260</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E78" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
         <v>28</v>
       </c>
       <c r="G78" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J78" t="s">
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="X78" t="s">
         <v>1</v>
       </c>
-      <c r="AJ78" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="AK78" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="AL78" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="AN78" s="14" t="s">
+      <c r="AJ78" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AK78" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="AL78" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN78" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:42">
-      <c r="A79" s="13">
-        <v>1</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>163</v>
+      <c r="A79" s="9">
+        <v>1</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C79" t="s">
-        <v>264</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>491</v>
+        <v>260</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" t="s">
+        <v>61</v>
+      </c>
+      <c r="H79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J79" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>47</v>
+      </c>
+      <c r="X79" t="s">
         <v>48</v>
       </c>
-      <c r="F79" t="s">
+      <c r="AH79" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:42">
+      <c r="A80" s="9">
+        <v>1</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" t="s">
+        <v>482</v>
+      </c>
+      <c r="E80" t="s">
+        <v>517</v>
+      </c>
+      <c r="F80" t="s">
+        <v>45</v>
+      </c>
+      <c r="G80" t="s">
+        <v>61</v>
+      </c>
+      <c r="H80" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>51</v>
+      </c>
+      <c r="W80" t="s">
+        <v>541</v>
+      </c>
+      <c r="X80" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH80" t="s">
         <v>49</v>
       </c>
-      <c r="G79" t="s">
-        <v>65</v>
-      </c>
-      <c r="H79" t="s">
-        <v>66</v>
-      </c>
-      <c r="J79" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>51</v>
-      </c>
-      <c r="X79" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH79" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="80" spans="1:42">
-      <c r="A80" s="13">
-        <v>1</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C80" t="s">
-        <v>264</v>
-      </c>
-      <c r="D80" t="s">
-        <v>492</v>
-      </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="81" spans="1:38">
+      <c r="A81" s="9">
+        <v>1</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="J81" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="W81" t="s">
+        <v>540</v>
+      </c>
+      <c r="X81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF81" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="AG81" s="21" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="82" spans="1:38">
+      <c r="A82" s="9">
+        <v>1</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D82" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G80" t="s">
-        <v>65</v>
-      </c>
-      <c r="H80" t="s">
-        <v>67</v>
-      </c>
-      <c r="J80" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>55</v>
-      </c>
-      <c r="W80" t="s">
-        <v>556</v>
-      </c>
-      <c r="X80" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH80" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:38">
-      <c r="A81" s="13">
-        <v>1</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="W81" t="s">
-        <v>555</v>
-      </c>
-      <c r="X81" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF81" t="s">
+      <c r="E82" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AG81" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="82" spans="1:38">
-      <c r="A82" s="13">
-        <v>1</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E82" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="F82" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="G82" s="10" t="s">
+      <c r="F82" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J82" s="6"/>
+      <c r="V82" t="s">
+        <v>542</v>
+      </c>
+      <c r="X82" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="83" spans="1:38">
+      <c r="A83" s="9">
+        <v>1</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="V83" t="s">
+        <v>542</v>
+      </c>
+      <c r="X83" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="84" spans="1:38">
+      <c r="A84" s="9">
+        <v>1</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="J84" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="V84" t="s">
         <v>540</v>
       </c>
-      <c r="H82" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="J82" s="10"/>
-      <c r="V82" t="s">
-        <v>557</v>
-      </c>
-      <c r="X82" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="83" spans="1:38">
-      <c r="A83" s="13">
-        <v>1</v>
-      </c>
-      <c r="B83" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="J83" s="10"/>
-      <c r="V83" t="s">
-        <v>557</v>
-      </c>
-      <c r="X83" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="84" spans="1:38">
-      <c r="A84" s="13">
-        <v>1</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E84" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="F84" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="V84" t="s">
-        <v>555</v>
-      </c>
       <c r="X84" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AJ84">
         <v>1894</v>
       </c>
     </row>
     <row r="85" spans="1:38">
-      <c r="A85" s="13">
-        <v>1</v>
-      </c>
-      <c r="B85" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="F85" s="10" t="s">
+      <c r="A85" s="9">
+        <v>1</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="V85" t="s">
+        <v>490</v>
+      </c>
+      <c r="X85" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="86" spans="1:38">
+      <c r="A86" s="9">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J86" s="6"/>
+      <c r="V86" t="s">
+        <v>490</v>
+      </c>
+      <c r="X86" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87" spans="1:38">
+      <c r="A87" s="9">
+        <v>1</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="J87" s="6"/>
+      <c r="V87" t="s">
+        <v>490</v>
+      </c>
+      <c r="X87" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="88" spans="1:38">
+      <c r="A88" s="9">
+        <v>1</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="E88" t="s">
+        <v>447</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="G85" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="V85" t="s">
-        <v>500</v>
-      </c>
-      <c r="X85" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="86" spans="1:38">
-      <c r="A86" s="13">
-        <v>1</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D86" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="F86" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H86" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="J86" s="10"/>
-      <c r="V86" t="s">
-        <v>500</v>
-      </c>
-      <c r="X86" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="87" spans="1:38">
-      <c r="A87" s="13">
-        <v>1</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="J87" s="10"/>
-      <c r="V87" t="s">
-        <v>500</v>
-      </c>
-      <c r="X87" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="88" spans="1:38">
-      <c r="A88" s="13">
-        <v>1</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="E88" t="s">
-        <v>456</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="J88" s="10"/>
+      <c r="H88" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J88" s="6"/>
       <c r="V88" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="X88" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="1:38">
       <c r="B90" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C90" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D90" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E90" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="L90" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AJ90">
         <v>1892</v>
@@ -6099,57 +6380,58 @@
     </row>
     <row r="91" spans="1:38">
       <c r="B91" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C91" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E91" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="J91" t="s">
-        <v>529</v>
-      </c>
-      <c r="AL91" s="14" t="s">
-        <v>530</v>
+        <v>514</v>
+      </c>
+      <c r="AL91" s="25" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="92" spans="1:38">
       <c r="B92" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C92" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="D92" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="E92" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
     </row>
     <row r="93" spans="1:38">
       <c r="B93" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="94" spans="1:38">
       <c r="B94" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="95" spans="1:38">
       <c r="B95" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="583">
   <si>
     <t>Vorderseite: (unten) beschriftet und datiert</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -2273,21 +2273,6 @@
   <si>
     <t xml:space="preserve">Abbildung Probetafel 3 (Probetafel für den Thesaurus of Architecture: Hugenottenkirche in Charenton [Sammlung Destailleur]) </t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{Florenz, Rom}</t>
-  </si>
-  <si>
-    <t>{Uffizien 6 A, St. Peter}</t>
-  </si>
-  <si>
-    <t>{NULL, NULL}</t>
-  </si>
-  <si>
-    <t>{Medien, Gebäude}</t>
-  </si>
-  <si>
-    <t>{abgezeichnet [?], errichtet durch Medium [?]}</t>
   </si>
   <si>
     <t>INVNR</t>
@@ -2394,24 +2379,6 @@
     </r>
   </si>
   <si>
-    <t>REFERENZ_Bezeichung</t>
-  </si>
-  <si>
-    <t>REFERENZ_Ebene</t>
-  </si>
-  <si>
-    <t>REFERENZ_Beziehung</t>
-  </si>
-  <si>
-    <t>REFERENZ_Zeit</t>
-  </si>
-  <si>
-    <t>REFERENZ_Ort</t>
-  </si>
-  <si>
-    <t>REFERENZ_Person</t>
-  </si>
-  <si>
     <t>PERSON</t>
   </si>
   <si>
@@ -2527,6 +2494,69 @@
       </rPr>
       <t>nzahl</t>
     </r>
+  </si>
+  <si>
+    <t>REFERENZ_Bezeichung_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ebene_2</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ebene_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Beziehung_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Zeit_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ort_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Person_1</t>
+  </si>
+  <si>
+    <t>REFERENZ_Bezeichung_2</t>
+  </si>
+  <si>
+    <t>REFERENZ_Beziehung_2</t>
+  </si>
+  <si>
+    <t>REFERENZ_Zeit_2</t>
+  </si>
+  <si>
+    <t>REFERENZ_Ort_2</t>
+  </si>
+  <si>
+    <t>REFERENZ_Person_2</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Rom</t>
+  </si>
+  <si>
+    <t>errichtet durch Medium [?]</t>
+  </si>
+  <si>
+    <t>Realisierung</t>
+  </si>
+  <si>
+    <t>St. Peter</t>
+  </si>
+  <si>
+    <t>Florenz</t>
+  </si>
+  <si>
+    <t>abgezeichnet [?]</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Uffizien 6 A</t>
   </si>
 </sst>
 </file>
@@ -2597,7 +2627,7 @@
       <name val="Verdana"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2700,6 +2730,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2710,14 +2752,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2799,12 +2847,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3132,10 +3192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ95"/>
+  <dimension ref="A1:BF95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AL1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -3151,35 +3211,35 @@
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
     <col min="25" max="27" width="22.7109375" style="10" customWidth="1"/>
     <col min="28" max="28" width="34.7109375" style="10" customWidth="1"/>
-    <col min="29" max="31" width="22.7109375" style="10" customWidth="1"/>
-    <col min="32" max="33" width="20.7109375" style="21" customWidth="1"/>
-    <col min="34" max="34" width="22.7109375" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" customWidth="1"/>
-    <col min="37" max="37" width="28.140625" style="25" customWidth="1"/>
-    <col min="38" max="38" width="27.42578125" style="25" customWidth="1"/>
-    <col min="39" max="41" width="20.7109375" customWidth="1"/>
-    <col min="42" max="43" width="31.28515625" style="21" customWidth="1"/>
-    <col min="44" max="44" width="36.85546875" customWidth="1"/>
-    <col min="48" max="48" width="21.42578125" customWidth="1"/>
-    <col min="51" max="51" width="21.42578125" customWidth="1"/>
+    <col min="29" max="37" width="22.7109375" style="10" customWidth="1"/>
+    <col min="38" max="39" width="20.7109375" style="21" customWidth="1"/>
+    <col min="40" max="40" width="22.7109375" customWidth="1"/>
+    <col min="41" max="41" width="20.7109375" customWidth="1"/>
+    <col min="42" max="42" width="16.7109375" customWidth="1"/>
+    <col min="43" max="43" width="28.140625" style="25" customWidth="1"/>
+    <col min="44" max="44" width="27.42578125" style="25" customWidth="1"/>
+    <col min="45" max="47" width="20.7109375" customWidth="1"/>
+    <col min="48" max="49" width="31.28515625" style="21" customWidth="1"/>
+    <col min="50" max="50" width="36.85546875" customWidth="1"/>
+    <col min="54" max="54" width="21.42578125" customWidth="1"/>
+    <col min="57" max="57" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="14">
+    <row r="1" spans="1:58" ht="14">
       <c r="A1" s="15" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>359</v>
@@ -3191,10 +3251,10 @@
         <v>361</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>403</v>
@@ -3236,82 +3296,100 @@
         <v>405</v>
       </c>
       <c r="X1" s="30" t="s">
+        <v>553</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>565</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF1" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="AG1" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="AN1" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP1" s="32" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ1" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="AR1" s="24" t="s">
+        <v>504</v>
+      </c>
+      <c r="AS1" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT1" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="Y1" s="31" t="s">
+      <c r="AU1" s="34" t="s">
         <v>559</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AV1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX1" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="36" t="s">
         <v>561</v>
       </c>
-      <c r="AB1" s="18" t="s">
-        <v>562</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="AD1" s="18" t="s">
-        <v>564</v>
-      </c>
-      <c r="AE1" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH1" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="AI1" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AJ1" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>503</v>
-      </c>
-      <c r="AL1" s="24" t="s">
-        <v>504</v>
-      </c>
-      <c r="AM1" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="AO1" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="AP1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AQ1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AR1" s="35" t="s">
-        <v>571</v>
-      </c>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-    </row>
-    <row r="5" spans="1:52">
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+    </row>
+    <row r="5" spans="1:58">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -3333,17 +3411,17 @@
       <c r="N5" t="s">
         <v>420</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AP5" s="7">
         <v>1868</v>
       </c>
-      <c r="AL5" s="25" t="s">
+      <c r="AR5" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="BB5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:58">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -3362,17 +3440,17 @@
       <c r="N6" t="s">
         <v>420</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AO6" t="s">
         <v>377</v>
       </c>
-      <c r="AJ6">
+      <c r="AP6">
         <v>1899</v>
       </c>
-      <c r="AL6" s="25" t="s">
+      <c r="AR6" s="25" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:52">
+    <row r="7" spans="1:58">
       <c r="A7" s="9">
         <v>1</v>
       </c>
@@ -3394,11 +3472,11 @@
       <c r="N7" t="s">
         <v>420</v>
       </c>
-      <c r="AL7" s="25" t="s">
+      <c r="AR7" s="25" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:52">
+    <row r="8" spans="1:58">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -3420,7 +3498,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="9" spans="1:52">
+    <row r="9" spans="1:58">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -3443,14 +3521,14 @@
       <c r="N9" t="s">
         <v>420</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AP9" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="AL9" s="25" t="s">
+      <c r="AR9" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:52">
+    <row r="10" spans="1:58">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -3473,14 +3551,14 @@
       <c r="N10" t="s">
         <v>420</v>
       </c>
-      <c r="AJ10">
+      <c r="AP10">
         <v>1879</v>
       </c>
-      <c r="AL10" s="25" t="s">
+      <c r="AR10" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:52">
+    <row r="11" spans="1:58">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -3506,26 +3584,26 @@
       <c r="X11" t="s">
         <v>269</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AN11" t="s">
         <v>358</v>
       </c>
-      <c r="AJ11">
+      <c r="AP11">
         <v>1862</v>
       </c>
-      <c r="AL11" s="25" t="s">
+      <c r="AR11" s="25" t="s">
         <v>357</v>
       </c>
-      <c r="AN11" s="10" t="s">
+      <c r="AT11" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="AO11" s="10" t="s">
+      <c r="AU11" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="BB11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:52">
+    <row r="12" spans="1:58">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -3547,11 +3625,11 @@
       <c r="X12" t="s">
         <v>268</v>
       </c>
-      <c r="AJ12">
+      <c r="AP12">
         <v>1866</v>
       </c>
     </row>
-    <row r="13" spans="1:52">
+    <row r="13" spans="1:58">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -3573,18 +3651,18 @@
       <c r="X13" t="s">
         <v>267</v>
       </c>
-      <c r="AJ13">
+      <c r="AP13">
         <v>1869</v>
       </c>
-      <c r="AK13" s="25" t="s">
+      <c r="AQ13" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL13" s="25" t="s">
+      <c r="AR13" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AO13" s="10"/>
-    </row>
-    <row r="14" spans="1:52">
+      <c r="AU13" s="10"/>
+    </row>
+    <row r="14" spans="1:58">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -3606,20 +3684,20 @@
       <c r="X14" t="s">
         <v>266</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AN14" t="s">
         <v>333</v>
       </c>
-      <c r="AK14" s="25" t="s">
+      <c r="AQ14" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL14" s="25" t="s">
+      <c r="AR14" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP14" s="25" t="s">
+      <c r="AV14" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:52">
+    <row r="15" spans="1:58">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -3641,17 +3719,17 @@
       <c r="X15" t="s">
         <v>354</v>
       </c>
-      <c r="AK15" s="25" t="s">
+      <c r="AQ15" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL15" s="25" t="s">
+      <c r="AR15" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP15" s="25" t="s">
+      <c r="AV15" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="16" spans="1:52">
+    <row r="16" spans="1:58">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -3674,43 +3752,61 @@
         <v>239</v>
       </c>
       <c r="Z16" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="AA16" s="10" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="AC16" s="10" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="AF16" s="21" t="s">
+        <v>574</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>578</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AJ16" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK16" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AL16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AG16" s="21" t="s">
+      <c r="AM16" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AN16" t="s">
         <v>238</v>
       </c>
-      <c r="AK16" s="25" t="s">
+      <c r="AQ16" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL16" s="25" t="s">
+      <c r="AR16" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP16" s="25" t="s">
+      <c r="AV16" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:54">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -3732,26 +3828,26 @@
       <c r="X17" t="s">
         <v>236</v>
       </c>
-      <c r="AF17" s="21" t="s">
+      <c r="AL17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AG17" s="21" t="s">
+      <c r="AM17" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AN17" t="s">
         <v>334</v>
       </c>
-      <c r="AK17" s="25" t="s">
+      <c r="AQ17" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL17" s="25" t="s">
+      <c r="AR17" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP17" s="25" t="s">
+      <c r="AV17" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:54">
       <c r="A18" s="9">
         <v>1</v>
       </c>
@@ -3776,20 +3872,20 @@
       <c r="X18" t="s">
         <v>298</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AN18" t="s">
         <v>299</v>
       </c>
-      <c r="AK18" s="25" t="s">
+      <c r="AQ18" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL18" s="25" t="s">
+      <c r="AR18" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP18" s="25" t="s">
+      <c r="AV18" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:54">
       <c r="A19" s="9">
         <v>1</v>
       </c>
@@ -3811,20 +3907,20 @@
       <c r="X19" t="s">
         <v>305</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AN19" t="s">
         <v>332</v>
       </c>
-      <c r="AK19" s="25" t="s">
+      <c r="AQ19" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL19" s="25" t="s">
+      <c r="AR19" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP19" s="25" t="s">
+      <c r="AV19" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:54">
       <c r="A20" s="9">
         <v>1</v>
       </c>
@@ -3849,14 +3945,14 @@
       <c r="X20" t="s">
         <v>289</v>
       </c>
-      <c r="AK20" s="25" t="s">
+      <c r="AQ20" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL20" s="25" t="s">
+      <c r="AR20" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:54">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -3887,26 +3983,32 @@
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
       <c r="AE21" s="12"/>
-      <c r="AF21" s="21" t="s">
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AG21" s="21" t="s">
+      <c r="AM21" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AN21" t="s">
         <v>335</v>
       </c>
-      <c r="AK21" s="25" t="s">
+      <c r="AQ21" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL21" s="25" t="s">
+      <c r="AR21" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP21" s="25" t="s">
+      <c r="AV21" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:54">
       <c r="A22" s="9">
         <v>1</v>
       </c>
@@ -3928,23 +4030,23 @@
       <c r="X22" t="s">
         <v>343</v>
       </c>
-      <c r="AF22" s="21" t="s">
+      <c r="AL22" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AG22" s="21" t="s">
+      <c r="AM22" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AK22" s="25" t="s">
+      <c r="AQ22" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL22" s="25" t="s">
+      <c r="AR22" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP22" s="25" t="s">
+      <c r="AV22" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:54">
       <c r="A23" s="9">
         <v>1</v>
       </c>
@@ -3969,23 +4071,23 @@
       <c r="X23" t="s">
         <v>367</v>
       </c>
-      <c r="AF23" s="21" t="s">
+      <c r="AL23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AG23" s="21" t="s">
+      <c r="AM23" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AK23" s="25" t="s">
+      <c r="AQ23" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL23" s="25" t="s">
+      <c r="AR23" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP23" s="25" t="s">
+      <c r="AV23" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:54">
       <c r="A24" s="9">
         <v>1</v>
       </c>
@@ -4007,23 +4109,23 @@
       <c r="X24" t="s">
         <v>457</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AN24" t="s">
         <v>426</v>
       </c>
-      <c r="AK24" s="25" t="s">
+      <c r="AQ24" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL24" s="25" t="s">
+      <c r="AR24" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP24" s="25" t="s">
+      <c r="AV24" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AV24" t="s">
+      <c r="BB24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:54">
       <c r="A25" s="9">
         <v>1</v>
       </c>
@@ -4048,20 +4150,20 @@
       <c r="X25" t="s">
         <v>342</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AN25" t="s">
         <v>249</v>
       </c>
-      <c r="AK25" s="25" t="s">
+      <c r="AQ25" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL25" s="25" t="s">
+      <c r="AR25" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP25" s="25" t="s">
+      <c r="AV25" s="25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:54">
       <c r="A26" s="9">
         <v>1</v>
       </c>
@@ -4095,26 +4197,32 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
-      <c r="AF26" s="21" t="s">
+      <c r="AF26" s="38"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="38"/>
+      <c r="AJ26" s="38"/>
+      <c r="AK26" s="38"/>
+      <c r="AL26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="AG26" s="21" t="s">
+      <c r="AM26" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH26" t="s">
+      <c r="AN26" t="s">
         <v>352</v>
       </c>
-      <c r="AK26" s="25" t="s">
+      <c r="AQ26" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL26" s="25" t="s">
+      <c r="AR26" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP26" s="25" t="s">
+      <c r="AV26" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:54">
       <c r="A27" s="9">
         <v>1</v>
       </c>
@@ -4136,26 +4244,26 @@
       <c r="X27" t="s">
         <v>336</v>
       </c>
-      <c r="AF27" s="21" t="s">
+      <c r="AL27" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AG27" s="21" t="s">
+      <c r="AM27" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AN27" t="s">
         <v>425</v>
       </c>
-      <c r="AK27" s="25" t="s">
+      <c r="AQ27" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL27" s="25" t="s">
+      <c r="AR27" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP27" s="25" t="s">
+      <c r="AV27" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:48">
+    <row r="28" spans="1:54">
       <c r="A28" s="9">
         <v>1</v>
       </c>
@@ -4180,26 +4288,26 @@
       <c r="X28" t="s">
         <v>337</v>
       </c>
-      <c r="AF28" s="22" t="s">
+      <c r="AL28" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="AG28" s="21" t="s">
+      <c r="AM28" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH28" t="s">
+      <c r="AN28" t="s">
         <v>415</v>
       </c>
-      <c r="AK28" s="25" t="s">
+      <c r="AQ28" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL28" s="25" t="s">
+      <c r="AR28" s="25" t="s">
         <v>421</v>
       </c>
-      <c r="AP28" s="25" t="s">
+      <c r="AV28" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="29" spans="1:48">
+    <row r="29" spans="1:54">
       <c r="A29" s="9">
         <v>1</v>
       </c>
@@ -4224,14 +4332,14 @@
       <c r="X29" t="s">
         <v>422</v>
       </c>
-      <c r="AK29" s="25" t="s">
+      <c r="AQ29" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL29" s="25" t="s">
+      <c r="AR29" s="25" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="30" spans="1:48">
+    <row r="30" spans="1:54">
       <c r="A30" s="9">
         <v>1</v>
       </c>
@@ -4256,11 +4364,11 @@
       <c r="Y30" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="AJ30">
+      <c r="AP30">
         <v>1884</v>
       </c>
     </row>
-    <row r="31" spans="1:48">
+    <row r="31" spans="1:54">
       <c r="A31" s="9">
         <v>1</v>
       </c>
@@ -4285,20 +4393,20 @@
       <c r="X31" t="s">
         <v>398</v>
       </c>
-      <c r="AH31" t="s">
+      <c r="AN31" t="s">
         <v>399</v>
       </c>
-      <c r="AK31" s="25" t="s">
+      <c r="AQ31" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="AL31" s="25" t="s">
+      <c r="AR31" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="AP31" s="25" t="s">
+      <c r="AV31" s="25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="32" spans="1:48">
+    <row r="32" spans="1:54">
       <c r="A32" s="9">
         <v>1</v>
       </c>
@@ -4320,26 +4428,26 @@
       <c r="X32" t="s">
         <v>413</v>
       </c>
-      <c r="AF32" s="21" t="s">
+      <c r="AL32" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AG32" s="21" t="s">
+      <c r="AM32" s="21" t="s">
         <v>474</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AN32" t="s">
         <v>238</v>
       </c>
-      <c r="AK32" s="25" t="s">
+      <c r="AQ32" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL32" s="25" t="s">
+      <c r="AR32" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP32" s="25" t="s">
+      <c r="AV32" s="25" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="1:48">
+    <row r="33" spans="1:54">
       <c r="A33" s="9">
         <v>1</v>
       </c>
@@ -4361,23 +4469,23 @@
       <c r="X33" t="s">
         <v>381</v>
       </c>
-      <c r="AF33" s="21" t="s">
+      <c r="AL33" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AG33" s="21" t="s">
+      <c r="AM33" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AK33" s="25" t="s">
+      <c r="AQ33" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL33" s="25" t="s">
+      <c r="AR33" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP33" s="25" t="s">
+      <c r="AV33" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:48">
+    <row r="34" spans="1:54">
       <c r="A34" s="9">
         <v>1</v>
       </c>
@@ -4399,29 +4507,29 @@
       <c r="X34" t="s">
         <v>384</v>
       </c>
-      <c r="AF34" s="21" t="s">
+      <c r="AL34" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG34" s="21" t="s">
+      <c r="AM34" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH34" t="s">
+      <c r="AN34" t="s">
         <v>238</v>
       </c>
-      <c r="AJ34">
+      <c r="AP34">
         <v>1882</v>
       </c>
-      <c r="AK34" s="25" t="s">
+      <c r="AQ34" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL34" s="25" t="s">
+      <c r="AR34" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP34" s="25" t="s">
+      <c r="AV34" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="35" spans="1:48">
+    <row r="35" spans="1:54">
       <c r="A35" s="9">
         <v>1</v>
       </c>
@@ -4443,29 +4551,29 @@
       <c r="X35" t="s">
         <v>391</v>
       </c>
-      <c r="AF35" s="21" t="s">
+      <c r="AL35" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="AG35" s="21" t="s">
+      <c r="AM35" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AN35" t="s">
         <v>238</v>
       </c>
-      <c r="AJ35">
+      <c r="AP35">
         <v>1882</v>
       </c>
-      <c r="AK35" s="25" t="s">
+      <c r="AQ35" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL35" s="25" t="s">
+      <c r="AR35" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP35" s="25" t="s">
+      <c r="AV35" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:48">
+    <row r="36" spans="1:54">
       <c r="A36" s="9">
         <v>1</v>
       </c>
@@ -4490,23 +4598,23 @@
       <c r="X36" t="s">
         <v>463</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AN36" t="s">
         <v>352</v>
       </c>
-      <c r="AK36" s="25" t="s">
+      <c r="AQ36" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL36" s="25" t="s">
+      <c r="AR36" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP36" s="25" t="s">
+      <c r="AV36" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="AV36" t="s">
+      <c r="BB36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:48">
+    <row r="37" spans="1:54">
       <c r="A37" s="9">
         <v>1</v>
       </c>
@@ -4528,23 +4636,23 @@
       <c r="X37" t="s">
         <v>467</v>
       </c>
-      <c r="AF37" s="21" t="s">
+      <c r="AL37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="AG37" s="21" t="s">
+      <c r="AM37" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AK37" s="25" t="s">
+      <c r="AQ37" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL37" s="25" t="s">
+      <c r="AR37" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP37" s="25" t="s">
+      <c r="AV37" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="1:48">
+    <row r="38" spans="1:54">
       <c r="A38" s="9">
         <v>1</v>
       </c>
@@ -4569,23 +4677,23 @@
       <c r="X38" t="s">
         <v>469</v>
       </c>
-      <c r="AH38" t="s">
+      <c r="AN38" t="s">
         <v>470</v>
       </c>
-      <c r="AJ38">
+      <c r="AP38">
         <v>1867</v>
       </c>
-      <c r="AK38" s="25" t="s">
+      <c r="AQ38" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL38" s="25" t="s">
+      <c r="AR38" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP38" s="25" t="s">
+      <c r="AV38" s="25" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:48">
+    <row r="39" spans="1:54">
       <c r="A39" s="9">
         <v>1</v>
       </c>
@@ -4607,14 +4715,14 @@
       <c r="X39" t="s">
         <v>434</v>
       </c>
-      <c r="AK39" s="25" t="s">
+      <c r="AQ39" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL39" s="25" t="s">
+      <c r="AR39" s="25" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:48">
+    <row r="40" spans="1:54">
       <c r="A40" s="9">
         <v>1</v>
       </c>
@@ -4636,26 +4744,26 @@
       <c r="X40" t="s">
         <v>344</v>
       </c>
-      <c r="AF40" s="21" t="s">
+      <c r="AL40" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AG40" s="21" t="s">
+      <c r="AM40" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH40" t="s">
+      <c r="AN40" t="s">
         <v>438</v>
       </c>
-      <c r="AK40" s="25" t="s">
+      <c r="AQ40" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL40" s="25" t="s">
+      <c r="AR40" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP40" s="25" t="s">
+      <c r="AV40" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="41" spans="1:48">
+    <row r="41" spans="1:54">
       <c r="A41" s="9">
         <v>1</v>
       </c>
@@ -4677,26 +4785,26 @@
       <c r="X41" t="s">
         <v>443</v>
       </c>
-      <c r="AF41" s="21" t="s">
+      <c r="AL41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AG41" s="21" t="s">
+      <c r="AM41" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="AH41" t="s">
+      <c r="AN41" t="s">
         <v>427</v>
       </c>
-      <c r="AK41" s="25" t="s">
+      <c r="AQ41" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL41" s="25" t="s">
+      <c r="AR41" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP41" s="25" t="s">
+      <c r="AV41" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="42" spans="1:48">
+    <row r="42" spans="1:54">
       <c r="A42" s="9">
         <v>1</v>
       </c>
@@ -4724,23 +4832,23 @@
       <c r="X42" t="s">
         <v>430</v>
       </c>
-      <c r="AH42" t="s">
+      <c r="AN42" t="s">
         <v>431</v>
       </c>
-      <c r="AK42" s="25" t="s">
+      <c r="AQ42" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="AL42" s="25" t="s">
+      <c r="AR42" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="AP42" s="25" t="s">
+      <c r="AV42" s="25" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="43" spans="1:48">
+    <row r="43" spans="1:54">
       <c r="A43" s="9"/>
     </row>
-    <row r="44" spans="1:48">
+    <row r="44" spans="1:54">
       <c r="A44" s="9">
         <v>1</v>
       </c>
@@ -4771,23 +4879,23 @@
       <c r="X44" t="s">
         <v>232</v>
       </c>
-      <c r="AH44" t="s">
+      <c r="AN44" t="s">
         <v>233</v>
       </c>
-      <c r="AJ44">
+      <c r="AP44">
         <v>1905</v>
       </c>
-      <c r="AL44" s="25" t="s">
+      <c r="AR44" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="AP44" s="25" t="s">
+      <c r="AV44" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="AR44" t="s">
+      <c r="AX44" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:48">
+    <row r="45" spans="1:54">
       <c r="A45" s="9">
         <v>1</v>
       </c>
@@ -4815,17 +4923,17 @@
       <c r="X45" t="s">
         <v>216</v>
       </c>
-      <c r="AH45" t="s">
+      <c r="AN45" t="s">
         <v>233</v>
       </c>
-      <c r="AP45" s="25" t="s">
+      <c r="AV45" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="AR45" t="s">
+      <c r="AX45" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:48">
+    <row r="46" spans="1:54">
       <c r="A46" s="9">
         <v>1</v>
       </c>
@@ -4844,14 +4952,14 @@
       <c r="N46" t="s">
         <v>231</v>
       </c>
-      <c r="AJ46" s="10" t="s">
+      <c r="AP46" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="AL46" s="25" t="s">
+      <c r="AR46" s="25" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="47" spans="1:48">
+    <row r="47" spans="1:54">
       <c r="A47" s="9">
         <v>1</v>
       </c>
@@ -4870,23 +4978,23 @@
       <c r="P47" t="s">
         <v>231</v>
       </c>
-      <c r="AH47" t="s">
+      <c r="AN47" t="s">
         <v>204</v>
       </c>
-      <c r="AJ47">
+      <c r="AP47">
         <v>1888</v>
       </c>
-      <c r="AK47" s="25" t="s">
+      <c r="AQ47" s="25" t="s">
         <v>454</v>
       </c>
-      <c r="AL47" s="25" t="s">
+      <c r="AR47" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="AP47" s="25" t="s">
+      <c r="AV47" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="48" spans="1:48">
+    <row r="48" spans="1:54">
       <c r="A48" s="9">
         <v>1</v>
       </c>
@@ -4905,11 +5013,11 @@
       <c r="N48" t="s">
         <v>231</v>
       </c>
-      <c r="AP48" s="25" t="s">
+      <c r="AV48" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:44">
+    <row r="50" spans="1:50">
       <c r="A50" s="9">
         <v>1</v>
       </c>
@@ -4937,20 +5045,20 @@
       <c r="X50" t="s">
         <v>197</v>
       </c>
-      <c r="AH50" t="s">
+      <c r="AN50" t="s">
         <v>198</v>
       </c>
-      <c r="AL50" s="25" t="s">
+      <c r="AR50" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="AP50" s="25" t="s">
+      <c r="AV50" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AR50" t="s">
+      <c r="AX50" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:44">
+    <row r="51" spans="1:50">
       <c r="A51" s="9">
         <v>1</v>
       </c>
@@ -4981,20 +5089,20 @@
       <c r="X51" t="s">
         <v>189</v>
       </c>
-      <c r="AH51" t="s">
+      <c r="AN51" t="s">
         <v>187</v>
       </c>
-      <c r="AL51" s="25" t="s">
+      <c r="AR51" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="AP51" s="25" t="s">
+      <c r="AV51" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AR51" t="s">
+      <c r="AX51" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:44">
+    <row r="52" spans="1:50">
       <c r="A52" s="9">
         <v>1</v>
       </c>
@@ -5022,23 +5130,23 @@
       <c r="X52" t="s">
         <v>272</v>
       </c>
-      <c r="AH52" t="s">
+      <c r="AN52" t="s">
         <v>187</v>
       </c>
-      <c r="AL52" s="25" t="s">
+      <c r="AR52" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="AM52" s="10" t="s">
+      <c r="AS52" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AP52" s="25" t="s">
+      <c r="AV52" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AR52" t="s">
+      <c r="AX52" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:44">
+    <row r="53" spans="1:50">
       <c r="A53" s="9">
         <v>1</v>
       </c>
@@ -5069,23 +5177,23 @@
       <c r="X53" t="s">
         <v>173</v>
       </c>
-      <c r="AH53" t="s">
+      <c r="AN53" t="s">
         <v>187</v>
       </c>
-      <c r="AJ53" s="12" t="s">
+      <c r="AP53" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="AL53" s="25" t="s">
+      <c r="AR53" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="AP53" s="25" t="s">
+      <c r="AV53" s="25" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:44">
+    <row r="54" spans="1:50">
       <c r="A54" s="9"/>
     </row>
-    <row r="55" spans="1:44">
+    <row r="55" spans="1:50">
       <c r="A55" s="9">
         <v>1</v>
       </c>
@@ -5116,14 +5224,14 @@
       <c r="X55" t="s">
         <v>224</v>
       </c>
-      <c r="AL55" s="25" t="s">
+      <c r="AR55" s="25" t="s">
         <v>225</v>
       </c>
-      <c r="AM55" s="10" t="s">
+      <c r="AS55" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:44">
+    <row r="56" spans="1:50">
       <c r="A56" s="9">
         <v>1</v>
       </c>
@@ -5157,20 +5265,20 @@
       <c r="X56" t="s">
         <v>144</v>
       </c>
-      <c r="AF56" s="21" t="s">
+      <c r="AL56" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AG56" s="21" t="s">
+      <c r="AM56" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="AK56" s="25" t="s">
+      <c r="AQ56" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="AL56" s="25" t="s">
+      <c r="AR56" s="25" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="57" spans="1:44">
+    <row r="57" spans="1:50">
       <c r="A57" s="9">
         <v>1</v>
       </c>
@@ -5204,14 +5312,14 @@
       <c r="X57" t="s">
         <v>145</v>
       </c>
-      <c r="AF57" s="21" t="s">
+      <c r="AL57" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="AG57" s="21" t="s">
+      <c r="AM57" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:44">
+    <row r="58" spans="1:50">
       <c r="A58" s="9">
         <v>1</v>
       </c>
@@ -5245,11 +5353,11 @@
       <c r="X58" t="s">
         <v>146</v>
       </c>
-      <c r="AL58" s="25" t="s">
+      <c r="AR58" s="25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="1:44">
+    <row r="59" spans="1:50">
       <c r="A59" s="9">
         <v>1</v>
       </c>
@@ -5281,7 +5389,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:44">
+    <row r="60" spans="1:50">
       <c r="A60" s="9">
         <v>1</v>
       </c>
@@ -5329,7 +5437,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="61" spans="1:44">
+    <row r="61" spans="1:50">
       <c r="A61" s="9">
         <v>1</v>
       </c>
@@ -5367,7 +5475,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="62" spans="1:44">
+    <row r="62" spans="1:50">
       <c r="A62" s="9">
         <v>1</v>
       </c>
@@ -5398,17 +5506,17 @@
       <c r="X62" t="s">
         <v>91</v>
       </c>
-      <c r="AK62" s="25" t="s">
+      <c r="AQ62" s="25" t="s">
         <v>537</v>
       </c>
-      <c r="AL62" s="25" t="s">
+      <c r="AR62" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AM62" s="10" t="s">
+      <c r="AS62" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:44">
+    <row r="63" spans="1:50">
       <c r="A63" s="9">
         <v>1</v>
       </c>
@@ -5439,14 +5547,14 @@
       <c r="X63" t="s">
         <v>103</v>
       </c>
-      <c r="AL63" s="25" t="s">
+      <c r="AR63" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="AM63" s="10" t="s">
+      <c r="AS63" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:44">
+    <row r="64" spans="1:50">
       <c r="A64" s="9">
         <v>1</v>
       </c>
@@ -5480,17 +5588,17 @@
       <c r="X64" t="s">
         <v>74</v>
       </c>
-      <c r="AJ64">
+      <c r="AP64">
         <v>1882</v>
       </c>
-      <c r="AL64" s="25" t="s">
+      <c r="AR64" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AM64" s="10" t="s">
+      <c r="AS64" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:48">
       <c r="A65" s="9">
         <v>1</v>
       </c>
@@ -5524,17 +5632,17 @@
       <c r="X65" t="s">
         <v>81</v>
       </c>
-      <c r="AJ65">
+      <c r="AP65">
         <v>1882</v>
       </c>
-      <c r="AL65" s="25" t="s">
+      <c r="AR65" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AM65" s="10" t="s">
+      <c r="AS65" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:48">
       <c r="A66" s="9">
         <v>1</v>
       </c>
@@ -5571,30 +5679,30 @@
       <c r="Y66" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AH66" t="s">
+      <c r="AN66" t="s">
         <v>56</v>
       </c>
-      <c r="AJ66" s="12" t="s">
+      <c r="AP66" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AK66" s="25" t="s">
+      <c r="AQ66" s="25" t="s">
         <v>538</v>
       </c>
-      <c r="AL66" s="25" t="s">
+      <c r="AR66" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="AM66" s="10" t="s">
+      <c r="AS66" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="AN66" s="10" t="s">
+      <c r="AT66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AO66" s="10"/>
-    </row>
-    <row r="67" spans="1:42">
+      <c r="AU66" s="10"/>
+    </row>
+    <row r="67" spans="1:48">
       <c r="A67" s="9"/>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:48">
       <c r="A68" s="9">
         <v>1</v>
       </c>
@@ -5629,7 +5737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:42">
+    <row r="69" spans="1:48">
       <c r="A69" s="9">
         <v>1</v>
       </c>
@@ -5664,7 +5772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:48">
       <c r="A70" s="9">
         <v>1</v>
       </c>
@@ -5699,7 +5807,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:48">
       <c r="A71" s="9">
         <v>1</v>
       </c>
@@ -5731,7 +5839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:48">
       <c r="A72" s="9">
         <v>1</v>
       </c>
@@ -5766,7 +5874,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:48">
       <c r="A73" s="9">
         <v>1</v>
       </c>
@@ -5798,7 +5906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:48">
       <c r="A74" s="9">
         <v>1</v>
       </c>
@@ -5829,20 +5937,20 @@
       <c r="X74" t="s">
         <v>9</v>
       </c>
-      <c r="AH74" t="s">
+      <c r="AN74" t="s">
         <v>11</v>
       </c>
-      <c r="AJ74">
+      <c r="AP74">
         <v>1880</v>
       </c>
-      <c r="AL74" s="25" t="s">
+      <c r="AR74" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="AP74" s="25" t="s">
+      <c r="AV74" s="25" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:48">
       <c r="A75" s="9">
         <v>1</v>
       </c>
@@ -5873,17 +5981,17 @@
       <c r="X75" t="s">
         <v>9</v>
       </c>
-      <c r="AH75" t="s">
+      <c r="AN75" t="s">
         <v>15</v>
       </c>
-      <c r="AJ75">
+      <c r="AP75">
         <v>1880</v>
       </c>
-      <c r="AL75" s="26" t="s">
+      <c r="AR75" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:48">
       <c r="A76" s="9">
         <v>1</v>
       </c>
@@ -5914,11 +6022,11 @@
       <c r="X76" t="s">
         <v>95</v>
       </c>
-      <c r="AH76" t="s">
+      <c r="AN76" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:48">
       <c r="A77" s="9">
         <v>1</v>
       </c>
@@ -5949,14 +6057,14 @@
       <c r="X77" t="s">
         <v>67</v>
       </c>
-      <c r="AK77" s="25" t="s">
+      <c r="AQ77" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="AL77" s="25" t="s">
+      <c r="AR77" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:48">
       <c r="A78" s="9">
         <v>1</v>
       </c>
@@ -5990,20 +6098,20 @@
       <c r="X78" t="s">
         <v>1</v>
       </c>
-      <c r="AJ78" s="11" t="s">
+      <c r="AP78" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AK78" s="25" t="s">
+      <c r="AQ78" s="25" t="s">
         <v>539</v>
       </c>
-      <c r="AL78" s="25" t="s">
+      <c r="AR78" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="AN78" s="10" t="s">
+      <c r="AT78" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:48">
       <c r="A79" s="9">
         <v>1</v>
       </c>
@@ -6037,11 +6145,11 @@
       <c r="X79" t="s">
         <v>48</v>
       </c>
-      <c r="AH79" t="s">
+      <c r="AN79" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:48">
       <c r="A80" s="9">
         <v>1</v>
       </c>
@@ -6078,11 +6186,11 @@
       <c r="X80" t="s">
         <v>48</v>
       </c>
-      <c r="AH80" t="s">
+      <c r="AN80" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="81" spans="1:38">
+    <row r="81" spans="1:44">
       <c r="A81" s="9">
         <v>1</v>
       </c>
@@ -6113,14 +6221,14 @@
       <c r="X81" t="s">
         <v>48</v>
       </c>
-      <c r="AF81" s="21" t="s">
+      <c r="AL81" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="AG81" s="21" t="s">
+      <c r="AM81" s="21" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="82" spans="1:38">
+    <row r="82" spans="1:44">
       <c r="A82" s="9">
         <v>1</v>
       </c>
@@ -6153,7 +6261,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:38">
+    <row r="83" spans="1:44">
       <c r="A83" s="9">
         <v>1</v>
       </c>
@@ -6186,7 +6294,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="84" spans="1:38">
+    <row r="84" spans="1:44">
       <c r="A84" s="9">
         <v>1</v>
       </c>
@@ -6220,11 +6328,11 @@
       <c r="X84" t="s">
         <v>499</v>
       </c>
-      <c r="AJ84">
+      <c r="AP84">
         <v>1894</v>
       </c>
     </row>
-    <row r="85" spans="1:38">
+    <row r="85" spans="1:44">
       <c r="A85" s="9">
         <v>1</v>
       </c>
@@ -6259,7 +6367,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="86" spans="1:38">
+    <row r="86" spans="1:44">
       <c r="A86" s="9">
         <v>1</v>
       </c>
@@ -6292,7 +6400,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:38">
+    <row r="87" spans="1:44">
       <c r="A87" s="9">
         <v>1</v>
       </c>
@@ -6325,7 +6433,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="88" spans="1:38">
+    <row r="88" spans="1:44">
       <c r="A88" s="9">
         <v>1</v>
       </c>
@@ -6358,7 +6466,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:38">
+    <row r="90" spans="1:44">
       <c r="B90" t="s">
         <v>505</v>
       </c>
@@ -6374,11 +6482,11 @@
       <c r="L90" t="s">
         <v>490</v>
       </c>
-      <c r="AJ90">
+      <c r="AP90">
         <v>1892</v>
       </c>
     </row>
-    <row r="91" spans="1:38">
+    <row r="91" spans="1:44">
       <c r="B91" t="s">
         <v>505</v>
       </c>
@@ -6394,11 +6502,11 @@
       <c r="J91" t="s">
         <v>514</v>
       </c>
-      <c r="AL91" s="25" t="s">
+      <c r="AR91" s="25" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="92" spans="1:38">
+    <row r="92" spans="1:44">
       <c r="B92" t="s">
         <v>505</v>
       </c>
@@ -6412,17 +6520,17 @@
         <v>516</v>
       </c>
     </row>
-    <row r="93" spans="1:38">
+    <row r="93" spans="1:44">
       <c r="B93" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="94" spans="1:38">
+    <row r="94" spans="1:44">
       <c r="B94" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="95" spans="1:38">
+    <row r="95" spans="1:44">
       <c r="B95" t="s">
         <v>508</v>
       </c>

--- a/data/christoph/datenmodell_test.xlsx
+++ b/data/christoph/datenmodell_test.xlsx
@@ -76,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF1" authorId="0">
+    <comment ref="BD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="640">
   <si>
     <t>unbekannter Zeichner</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -121,6 +121,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>Marginalien und Skizzen</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">realisiert </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -223,10 +227,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Marginalien, Skizzen</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Baden-Baden</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -675,14 +675,6 @@
   </si>
   <si>
     <t>Zeitungsausschnitt</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediale QUELLE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>mediale QUELLE-ORT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2791,7 +2783,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2850,12 +2842,6 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Verdana"/>
     </font>
     <font>
@@ -2994,7 +2980,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3035,13 +3021,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3070,7 +3049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3405,10 +3384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:BS95"/>
+  <dimension ref="A1:BQ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL92" sqref="BL92"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3423,146 +3402,145 @@
     <col min="11" max="23" width="4" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
     <col min="25" max="25" width="22.7109375" style="13" customWidth="1"/>
-    <col min="26" max="26" width="22.7109375" style="31" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" style="28" customWidth="1"/>
     <col min="27" max="27" width="22.7109375" style="13" customWidth="1"/>
     <col min="28" max="28" width="34.7109375" style="13" customWidth="1"/>
     <col min="29" max="55" width="22.7109375" style="13" customWidth="1"/>
-    <col min="56" max="57" width="20.7109375" style="22" customWidth="1"/>
-    <col min="58" max="58" width="22.7109375" customWidth="1"/>
-    <col min="59" max="59" width="16.7109375" customWidth="1"/>
-    <col min="60" max="61" width="20.7109375" customWidth="1"/>
-    <col min="62" max="62" width="20.7109375" style="13" customWidth="1"/>
-    <col min="63" max="63" width="36.85546875" customWidth="1"/>
-    <col min="67" max="67" width="21.42578125" customWidth="1"/>
-    <col min="70" max="70" width="21.42578125" customWidth="1"/>
+    <col min="56" max="56" width="22.7109375" customWidth="1"/>
+    <col min="57" max="57" width="16.7109375" customWidth="1"/>
+    <col min="58" max="59" width="20.7109375" customWidth="1"/>
+    <col min="60" max="60" width="20.7109375" style="13" customWidth="1"/>
+    <col min="61" max="61" width="36.85546875" customWidth="1"/>
+    <col min="65" max="65" width="21.42578125" customWidth="1"/>
+    <col min="68" max="68" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="14">
+    <row r="1" spans="1:69" ht="14">
       <c r="A1" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="F1" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>605</v>
-      </c>
-      <c r="E1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="X1" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="Y1" s="23" t="s">
         <v>154</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="X1" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y1" s="26" t="s">
-        <v>156</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AA1" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AF1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AJ1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="AL1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="AQ1" s="2" t="s">
         <v>101</v>
@@ -3603,156 +3581,150 @@
       <c r="BC1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="BE1" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="BE1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="BF1" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="27" t="s">
+      <c r="BG1" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="28" t="s">
+      <c r="BH1" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="8" t="s">
+      <c r="BI1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="38" t="s">
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="BO1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="BP1" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="BR1" s="4"/>
-      <c r="BS1" s="4"/>
-    </row>
-    <row r="4" spans="1:71">
-      <c r="BF4" t="s">
+      <c r="BM1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="BN1" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="BD4" t="s">
         <v>84</v>
       </c>
-      <c r="BJ4" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:71">
+      <c r="BH4" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
         <v>284</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="N5" t="s">
         <v>285</v>
       </c>
-      <c r="D5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="N5" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF5" t="s">
+      <c r="BD5" t="s">
         <v>84</v>
       </c>
-      <c r="BG5" s="10">
+      <c r="BE5" s="10">
         <v>1868</v>
       </c>
-      <c r="BJ5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:71">
+      <c r="BH5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
       <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E6" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="N6" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD6" t="s">
         <v>329</v>
       </c>
-      <c r="N6" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>331</v>
-      </c>
-      <c r="BG6">
+      <c r="BE6">
         <v>1899</v>
       </c>
-      <c r="BJ6" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:71">
+      <c r="BH6" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
       <c r="A7" s="12">
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N7" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF7" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD7" t="s">
         <v>84</v>
       </c>
-      <c r="BJ7" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:71">
+      <c r="BH7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69">
       <c r="A8" s="12">
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -3760,215 +3732,215 @@
       <c r="H8" s="11"/>
       <c r="J8" s="11"/>
       <c r="N8" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF8" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD8" t="s">
         <v>84</v>
       </c>
-      <c r="BJ8" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:71">
+      <c r="BH8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69">
       <c r="A9" s="12">
         <v>1</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
+        <v>353</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>357</v>
-      </c>
       <c r="E9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="J9" s="11"/>
       <c r="N9" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF9" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD9" t="s">
         <v>84</v>
       </c>
-      <c r="BG9" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="BJ9" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:71">
+      <c r="BE9" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="BH9" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69">
       <c r="A10" s="12">
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="J10" s="11"/>
       <c r="N10" t="s">
-        <v>287</v>
-      </c>
-      <c r="BF10" t="s">
+        <v>285</v>
+      </c>
+      <c r="BD10" t="s">
         <v>84</v>
       </c>
-      <c r="BG10">
+      <c r="BE10">
         <v>1879</v>
       </c>
-      <c r="BJ10" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:71">
+      <c r="BH10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69">
       <c r="A11" s="12">
         <v>1</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="J11" s="11"/>
       <c r="N11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X11" t="s">
-        <v>401</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG11">
+        <v>399</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>28</v>
+      </c>
+      <c r="BE11">
         <v>1862</v>
       </c>
-      <c r="BI11" s="13"/>
-      <c r="BJ11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:71">
+      <c r="BG11" s="13"/>
+      <c r="BH11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69">
       <c r="A12" s="12">
         <v>1</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X12" t="s">
-        <v>400</v>
-      </c>
-      <c r="BF12" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG12">
+        <v>398</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE12">
         <v>1866</v>
       </c>
-      <c r="BJ12" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:71">
+      <c r="BH12" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69">
       <c r="A13" s="12">
         <v>1</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X13" t="s">
-        <v>399</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG13">
+        <v>397</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE13">
         <v>1869</v>
       </c>
-      <c r="BJ13" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:71">
+      <c r="BH13" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69">
       <c r="A14" s="12">
         <v>1</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D14" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" t="s">
         <v>325</v>
       </c>
-      <c r="E14" t="s">
-        <v>327</v>
-      </c>
       <c r="K14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X14" t="s">
-        <v>398</v>
-      </c>
-      <c r="Z14" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z14" s="28" t="s">
         <v>86</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC14" s="13" t="s">
         <v>116</v>
@@ -3977,104 +3949,104 @@
         <v>116</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="BF14" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ14" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:71">
+        <v>16</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH14" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69">
       <c r="A15" s="12">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="K15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X15" t="s">
-        <v>311</v>
-      </c>
-      <c r="Z15" s="31" t="s">
-        <v>177</v>
+        <v>309</v>
+      </c>
+      <c r="Z15" s="28" t="s">
+        <v>175</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AD15" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ15" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:71">
+        <v>173</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH15" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69">
       <c r="A16" s="12">
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E16" t="s">
+        <v>342</v>
+      </c>
+      <c r="K16" t="s">
+        <v>371</v>
+      </c>
+      <c r="X16" t="s">
         <v>457</v>
       </c>
-      <c r="E16" t="s">
-        <v>344</v>
-      </c>
-      <c r="K16" t="s">
-        <v>373</v>
-      </c>
-      <c r="X16" t="s">
-        <v>459</v>
-      </c>
-      <c r="Z16" s="31" t="s">
-        <v>181</v>
+      <c r="Z16" s="28" t="s">
+        <v>179</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC16" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="AD16" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AE16" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF16" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE16" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>177</v>
       </c>
       <c r="AG16" s="13" t="s">
         <v>91</v>
@@ -4083,51 +4055,51 @@
         <v>115</v>
       </c>
       <c r="AI16" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AJ16" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AK16" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ16" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:67">
+        <v>173</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH16" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
       <c r="A17" s="12">
         <v>1</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K17" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="X17" t="s">
-        <v>456</v>
-      </c>
-      <c r="Z17" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z17" s="31" t="s">
         <v>120</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>119</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC17" s="13" t="s">
         <v>116</v>
@@ -4136,10 +4108,10 @@
         <v>118</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF17" s="32" t="s">
-        <v>177</v>
+        <v>372</v>
+      </c>
+      <c r="AF17" s="29" t="s">
+        <v>175</v>
       </c>
       <c r="AG17" s="13" t="s">
         <v>91</v>
@@ -4156,39 +4128,39 @@
       <c r="AK17" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF17" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ17" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:67">
+      <c r="BD17" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH17" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65">
       <c r="A18" s="12">
         <v>1</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="E18" t="s">
         <v>425</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="F18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K18" t="s">
+        <v>371</v>
+      </c>
+      <c r="X18" t="s">
         <v>426</v>
       </c>
-      <c r="E18" t="s">
-        <v>427</v>
-      </c>
-      <c r="F18" t="s">
-        <v>244</v>
-      </c>
-      <c r="K18" t="s">
-        <v>373</v>
-      </c>
-      <c r="X18" t="s">
-        <v>428</v>
-      </c>
-      <c r="Z18" s="31" t="s">
+      <c r="Z18" s="28" t="s">
         <v>116</v>
       </c>
       <c r="AA18" s="13" t="s">
@@ -4200,7 +4172,7 @@
       <c r="AC18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AF18" s="32" t="s">
+      <c r="AF18" s="29" t="s">
         <v>122</v>
       </c>
       <c r="AG18" s="13" t="s">
@@ -4218,43 +4190,43 @@
       <c r="AK18" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF18" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ18" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:67">
+      <c r="BD18" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH18" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65">
       <c r="A19" s="12">
         <v>1</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="D19" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" t="s">
         <v>430</v>
       </c>
-      <c r="E19" t="s">
+      <c r="K19" t="s">
+        <v>371</v>
+      </c>
+      <c r="X19" t="s">
         <v>432</v>
       </c>
-      <c r="K19" t="s">
-        <v>373</v>
-      </c>
-      <c r="X19" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z19" s="35" t="s">
+      <c r="Z19" s="32" t="s">
         <v>132</v>
       </c>
       <c r="AA19" s="10" t="s">
         <v>136</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AC19" s="10" t="s">
         <v>116</v>
@@ -4263,9 +4235,9 @@
         <v>116</v>
       </c>
       <c r="AE19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF19" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF19" s="30" t="s">
         <v>122</v>
       </c>
       <c r="AG19" s="13" t="s">
@@ -4301,39 +4273,39 @@
       <c r="BA19" s="10"/>
       <c r="BB19" s="10"/>
       <c r="BC19" s="10"/>
-      <c r="BF19" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ19" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:67">
+      <c r="BD19" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH19" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
       <c r="A20" s="12">
         <v>1</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X20" t="s">
-        <v>420</v>
-      </c>
-      <c r="Z20" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z20" s="32" t="s">
         <v>135</v>
       </c>
       <c r="AA20" s="10" t="s">
@@ -4369,39 +4341,39 @@
       <c r="BA20" s="10"/>
       <c r="BB20" s="10"/>
       <c r="BC20" s="10"/>
-      <c r="BF20" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ20" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:67">
+      <c r="BD20" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH20" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65">
       <c r="A21" s="12">
         <v>1</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K21" t="s">
+        <v>417</v>
+      </c>
+      <c r="X21" t="s">
         <v>419</v>
       </c>
-      <c r="X21" t="s">
-        <v>421</v>
-      </c>
       <c r="Y21" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z21" s="36" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z21" s="33" t="s">
         <v>128</v>
       </c>
       <c r="AA21" s="10" t="s">
@@ -4417,7 +4389,7 @@
         <v>118</v>
       </c>
       <c r="AE21" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AF21" s="10" t="s">
         <v>124</v>
@@ -4455,36 +4427,36 @@
       <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
-      <c r="BF21" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ21" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:67">
+      <c r="BD21" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH21" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65">
       <c r="A22" s="12">
         <v>1</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X22" t="s">
-        <v>383</v>
-      </c>
-      <c r="Z22" s="36" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z22" s="33" t="s">
         <v>129</v>
       </c>
       <c r="AA22" s="10" t="s">
@@ -4536,39 +4508,39 @@
       <c r="BA22" s="10"/>
       <c r="BB22" s="10"/>
       <c r="BC22" s="10"/>
-      <c r="BF22" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ22" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:67">
+      <c r="BD22" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH22" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65">
       <c r="A23" s="12">
         <v>1</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" t="s">
         <v>319</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="F23" t="s">
+        <v>242</v>
+      </c>
+      <c r="K23" t="s">
+        <v>371</v>
+      </c>
+      <c r="X23" t="s">
         <v>320</v>
       </c>
-      <c r="E23" t="s">
-        <v>321</v>
-      </c>
-      <c r="F23" t="s">
-        <v>244</v>
-      </c>
-      <c r="K23" t="s">
-        <v>373</v>
-      </c>
-      <c r="X23" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z23" s="36" t="s">
+      <c r="Z23" s="33" t="s">
         <v>130</v>
       </c>
       <c r="AA23" s="10" t="s">
@@ -4620,36 +4592,36 @@
       <c r="BA23" s="10"/>
       <c r="BB23" s="10"/>
       <c r="BC23" s="10"/>
-      <c r="BF23" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ23" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:67">
+      <c r="BD23" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH23" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65">
       <c r="A24" s="12">
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D24" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>371</v>
+      </c>
+      <c r="X24" t="s">
         <v>240</v>
       </c>
-      <c r="E24" t="s">
-        <v>241</v>
-      </c>
-      <c r="K24" t="s">
-        <v>373</v>
-      </c>
-      <c r="X24" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z24" s="35" t="s">
+      <c r="Z24" s="32" t="s">
         <v>116</v>
       </c>
       <c r="AA24" s="10" t="s">
@@ -4665,7 +4637,7 @@
         <v>116</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="AF24" s="10" t="s">
         <v>135</v>
@@ -4703,42 +4675,42 @@
       <c r="BA24" s="10"/>
       <c r="BB24" s="10"/>
       <c r="BC24" s="10"/>
-      <c r="BF24" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ24" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:67">
+      <c r="BD24" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65">
       <c r="A25" s="12">
         <v>1</v>
       </c>
       <c r="B25" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
         <v>379</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="F25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
+        <v>371</v>
+      </c>
+      <c r="X25" t="s">
         <v>380</v>
       </c>
-      <c r="E25" t="s">
-        <v>381</v>
-      </c>
-      <c r="F25" t="s">
-        <v>244</v>
-      </c>
-      <c r="K25" t="s">
-        <v>373</v>
-      </c>
-      <c r="X25" t="s">
-        <v>382</v>
-      </c>
-      <c r="Z25" s="35" t="s">
+      <c r="Z25" s="32" t="s">
         <v>116</v>
       </c>
       <c r="AA25" s="10" t="s">
@@ -4754,7 +4726,7 @@
         <v>116</v>
       </c>
       <c r="AE25" s="13" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF25" s="10" t="s">
         <v>135</v>
@@ -4792,42 +4764,42 @@
       <c r="BA25" s="10"/>
       <c r="BB25" s="10"/>
       <c r="BC25" s="10"/>
-      <c r="BF25" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ25" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:67">
+      <c r="BD25" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH25" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65">
       <c r="A26" s="12">
         <v>1</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>387</v>
-      </c>
       <c r="K26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M26" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X26" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y26" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="Z26" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z26" s="31" t="s">
         <v>137</v>
       </c>
       <c r="AA26" s="10" t="s">
@@ -4843,7 +4815,7 @@
         <v>118</v>
       </c>
       <c r="AE26" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF26" s="10" t="s">
         <v>135</v>
@@ -4881,36 +4853,36 @@
       <c r="BA26" s="10"/>
       <c r="BB26" s="10"/>
       <c r="BC26" s="10"/>
-      <c r="BF26" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ26" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:67">
+      <c r="BD26" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH26" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
       <c r="A27" s="12">
         <v>1</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X27" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z27" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z27" s="31" t="s">
         <v>71</v>
       </c>
       <c r="AA27" s="10" t="s">
@@ -4926,7 +4898,7 @@
         <v>118</v>
       </c>
       <c r="AE27" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF27" s="10" t="s">
         <v>135</v>
@@ -4964,39 +4936,39 @@
       <c r="BA27" s="10"/>
       <c r="BB27" s="10"/>
       <c r="BC27" s="10"/>
-      <c r="BF27" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ27" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:67">
+      <c r="BD27" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH27" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
       <c r="A28" s="12">
         <v>1</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F28" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X28" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z28" s="36" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z28" s="33" t="s">
         <v>72</v>
       </c>
       <c r="AA28" s="10" t="s">
@@ -5012,7 +4984,7 @@
         <v>118</v>
       </c>
       <c r="AE28" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF28" s="10" t="s">
         <v>135</v>
@@ -5032,39 +5004,39 @@
       <c r="AK28" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF28" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ28" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:67">
+      <c r="BD28" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH28" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
       <c r="A29" s="12">
         <v>1</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D29" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" t="s">
         <v>203</v>
       </c>
-      <c r="E29" t="s">
-        <v>205</v>
-      </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X29" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z29" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="Z29" s="32" t="s">
         <v>135</v>
       </c>
       <c r="AA29" s="10" t="s">
@@ -5082,141 +5054,141 @@
       <c r="AE29" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF29" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ29" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:67">
+      <c r="BD29" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH29" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
       <c r="A30" s="12">
         <v>1</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D30" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>346</v>
+      </c>
+      <c r="W30" t="s">
+        <v>371</v>
+      </c>
+      <c r="X30" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y30" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="E30" t="s">
-        <v>348</v>
-      </c>
-      <c r="W30" t="s">
-        <v>373</v>
-      </c>
-      <c r="X30" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y30" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="BF30" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG30">
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="BD30" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE30">
         <v>1884</v>
       </c>
-      <c r="BJ30" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:67">
+      <c r="BH30" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
       <c r="A31" s="12">
         <v>1</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="S31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="W31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X31" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z31" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA31" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="Z31" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA31" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AB31" s="32" t="s">
+      <c r="AB31" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="AC31" s="32" t="s">
+      <c r="AC31" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD31" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE31" t="s">
-        <v>8</v>
-      </c>
-      <c r="BF31" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ31" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:67">
+        <v>9</v>
+      </c>
+      <c r="BD31" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH31" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
       <c r="A32" s="12">
         <v>1</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
-      </c>
-      <c r="Z32" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AA32" s="32" t="s">
+      <c r="AA32" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB32" s="32" t="s">
+      <c r="AB32" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC32" s="32" t="s">
+      <c r="AC32" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD32" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE32" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF32" s="10" t="s">
         <v>135</v>
@@ -5236,45 +5208,45 @@
       <c r="AK32" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF32" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ32" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:67">
+      <c r="BD32" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH32" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65">
       <c r="A33" s="12">
         <v>1</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" t="s">
         <v>258</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="K33" t="s">
         <v>260</v>
       </c>
-      <c r="K33" t="s">
-        <v>262</v>
-      </c>
       <c r="X33" t="s">
-        <v>335</v>
-      </c>
-      <c r="Z33" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z33" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="AA33" s="32" t="s">
+      <c r="AA33" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB33" s="32" t="s">
+      <c r="AB33" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC33" s="32" t="s">
+      <c r="AC33" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD33" s="13" t="s">
@@ -5301,52 +5273,52 @@
       <c r="AK33" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF33" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ33" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:67">
+      <c r="BD33" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH33" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65">
       <c r="A34" s="12">
         <v>1</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D34" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="E34" t="s">
+        <v>335</v>
+      </c>
+      <c r="K34" t="s">
+        <v>371</v>
+      </c>
+      <c r="X34" t="s">
         <v>336</v>
       </c>
-      <c r="E34" t="s">
-        <v>337</v>
-      </c>
-      <c r="K34" t="s">
-        <v>373</v>
-      </c>
-      <c r="X34" t="s">
-        <v>338</v>
-      </c>
-      <c r="Z34" s="34" t="s">
+      <c r="Z34" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AA34" s="32" t="s">
+      <c r="AA34" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB34" s="32" t="s">
+      <c r="AB34" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC34" s="32" t="s">
+      <c r="AC34" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD34" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE34" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AF34" s="10" t="s">
         <v>135</v>
@@ -5366,48 +5338,48 @@
       <c r="AK34" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF34" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG34">
+      <c r="BD34" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE34">
         <v>1882</v>
       </c>
-      <c r="BJ34" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:67">
+      <c r="BH34" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65">
       <c r="A35" s="12">
         <v>1</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="E35" t="s">
         <v>339</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E35" t="s">
-        <v>341</v>
-      </c>
       <c r="K35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X35" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z35" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z35" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="AA35" s="32" t="s">
+      <c r="AA35" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB35" s="32" t="s">
+      <c r="AB35" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC35" s="32" t="s">
+      <c r="AC35" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD35" s="13" t="s">
@@ -5434,58 +5406,58 @@
       <c r="AK35" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF35" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG35">
+      <c r="BD35" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE35">
         <v>1882</v>
       </c>
-      <c r="BJ35" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:67">
+      <c r="BH35" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65">
       <c r="A36" s="12">
         <v>1</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D36" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" t="s">
+        <v>244</v>
+      </c>
+      <c r="K36" t="s">
+        <v>371</v>
+      </c>
+      <c r="M36" t="s">
+        <v>371</v>
+      </c>
+      <c r="X36" t="s">
         <v>245</v>
       </c>
-      <c r="E36" t="s">
-        <v>246</v>
-      </c>
-      <c r="K36" t="s">
-        <v>373</v>
-      </c>
-      <c r="M36" t="s">
-        <v>373</v>
-      </c>
-      <c r="X36" t="s">
-        <v>247</v>
-      </c>
-      <c r="Z36" s="34" t="s">
+      <c r="Z36" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AA36" s="32" t="s">
+      <c r="AA36" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB36" s="32" t="s">
+      <c r="AB36" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC36" s="32" t="s">
+      <c r="AC36" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD36" s="13" t="s">
         <v>75</v>
       </c>
       <c r="AE36" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AF36" s="10" t="s">
         <v>135</v>
@@ -5505,48 +5477,48 @@
       <c r="AK36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF36" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ36" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="BO36" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="37" spans="1:67">
+      <c r="BD36" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH36" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="BM36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65">
       <c r="A37" s="12">
         <v>1</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E37" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="K37" t="s">
+        <v>371</v>
+      </c>
+      <c r="X37" t="s">
         <v>249</v>
       </c>
-      <c r="E37" t="s">
-        <v>250</v>
-      </c>
-      <c r="K37" t="s">
-        <v>373</v>
-      </c>
-      <c r="X37" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z37" s="34" t="s">
+      <c r="Z37" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="AA37" s="32" t="s">
+      <c r="AA37" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB37" s="32" t="s">
+      <c r="AB37" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC37" s="32" t="s">
+      <c r="AC37" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD37" s="13" t="s">
@@ -5573,55 +5545,55 @@
       <c r="AK37" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF37" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ37" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:67">
+      <c r="BD37" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH37" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65">
       <c r="A38" s="12">
         <v>1</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="X38" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z38" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z38" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AA38" s="32" t="s">
+      <c r="AA38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB38" s="32" t="s">
+      <c r="AB38" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC38" s="32" t="s">
+      <c r="AC38" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD38" s="13" t="s">
         <v>75</v>
       </c>
       <c r="AE38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="AF38" s="10" t="s">
         <v>135</v>
@@ -5641,48 +5613,48 @@
       <c r="AK38" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF38" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG38">
+      <c r="BD38" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE38">
         <v>1867</v>
       </c>
-      <c r="BJ38" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:67">
+      <c r="BH38" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:65">
       <c r="A39" s="12">
         <v>1</v>
       </c>
       <c r="B39" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="K39" t="s">
         <v>255</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="K39" t="s">
-        <v>257</v>
-      </c>
       <c r="X39" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z39" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="Z39" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AA39" s="32" t="s">
+      <c r="AA39" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB39" s="32" t="s">
+      <c r="AB39" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC39" s="32" t="s">
+      <c r="AC39" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD39" s="13" t="s">
@@ -5709,52 +5681,52 @@
       <c r="AK39" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF39" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ39" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:67">
+      <c r="BD39" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH39" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65">
       <c r="A40" s="12">
         <v>1</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K40" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="X40" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z40" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="Z40" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="AA40" s="32" t="s">
+      <c r="AA40" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB40" s="32" t="s">
+      <c r="AB40" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC40" s="32" t="s">
+      <c r="AC40" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD40" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF40" s="10" t="s">
         <v>135</v>
@@ -5774,52 +5746,52 @@
       <c r="AK40" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF40" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ40" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:67">
+      <c r="BD40" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH40" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65">
       <c r="A41" s="12">
         <v>1</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" t="s">
+        <v>302</v>
+      </c>
+      <c r="K41" t="s">
+        <v>260</v>
+      </c>
+      <c r="X41" t="s">
         <v>304</v>
       </c>
-      <c r="K41" t="s">
-        <v>262</v>
-      </c>
-      <c r="X41" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z41" s="34" t="s">
+      <c r="Z41" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="AA41" s="32" t="s">
+      <c r="AA41" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AB41" s="32" t="s">
+      <c r="AB41" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="AC41" s="32" t="s">
+      <c r="AC41" s="29" t="s">
         <v>76</v>
       </c>
       <c r="AD41" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE41" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AF41" s="10" t="s">
         <v>135</v>
@@ -5839,58 +5811,58 @@
       <c r="AK41" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF41" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ41" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:67">
+      <c r="BD41" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH41" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:65">
       <c r="A42" s="12">
         <v>1</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D42" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+      <c r="K42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="s">
+        <v>371</v>
+      </c>
+      <c r="S42" t="s">
+        <v>306</v>
+      </c>
+      <c r="X42" t="s">
         <v>293</v>
       </c>
-      <c r="E42" t="s">
+      <c r="Z42" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA42" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB42" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC42" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD42" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE42" t="s">
         <v>294</v>
-      </c>
-      <c r="K42" t="s">
-        <v>373</v>
-      </c>
-      <c r="M42" t="s">
-        <v>373</v>
-      </c>
-      <c r="S42" t="s">
-        <v>308</v>
-      </c>
-      <c r="X42" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z42" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA42" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB42" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC42" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>296</v>
       </c>
       <c r="AF42" s="10" t="s">
         <v>135</v>
@@ -5910,58 +5882,58 @@
       <c r="AK42" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF42" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ42" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:67">
+      <c r="BD42" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH42" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:65">
       <c r="A43" s="12"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-    </row>
-    <row r="44" spans="1:67">
+      <c r="Z43" s="31"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+    </row>
+    <row r="44" spans="1:65">
       <c r="A44" s="12">
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C44" t="s">
+        <v>367</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E44" t="s">
+        <v>500</v>
+      </c>
+      <c r="F44" t="s">
         <v>369</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="E44" t="s">
-        <v>502</v>
-      </c>
-      <c r="F44" t="s">
-        <v>371</v>
-      </c>
       <c r="H44" t="s">
+        <v>449</v>
+      </c>
+      <c r="J44" t="s">
+        <v>450</v>
+      </c>
+      <c r="N44" t="s">
         <v>451</v>
       </c>
-      <c r="J44" t="s">
+      <c r="X44" t="s">
         <v>452</v>
       </c>
-      <c r="N44" t="s">
-        <v>453</v>
-      </c>
-      <c r="X44" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z44" s="34" t="s">
+      <c r="Z44" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AA44" s="32" t="s">
+      <c r="AA44" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="AB44" s="32" t="s">
+      <c r="AB44" s="29" t="s">
         <v>89</v>
       </c>
       <c r="AC44">
@@ -5973,57 +5945,57 @@
       <c r="AE44" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF44" s="14" t="s">
+      <c r="BD44" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BG44">
+      <c r="BE44">
         <v>1905</v>
       </c>
-      <c r="BJ44" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK44" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:67">
+      <c r="BH44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI44" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:65">
       <c r="A45" s="12">
         <v>1</v>
       </c>
       <c r="B45" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C45" t="s">
         <v>367</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45" t="s">
+        <v>501</v>
+      </c>
+      <c r="F45" t="s">
         <v>369</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="H45" t="s">
+        <v>436</v>
+      </c>
+      <c r="N45" t="s">
+        <v>451</v>
+      </c>
+      <c r="X45" t="s">
         <v>437</v>
       </c>
-      <c r="E45" t="s">
-        <v>503</v>
-      </c>
-      <c r="F45" t="s">
-        <v>371</v>
-      </c>
-      <c r="H45" t="s">
-        <v>438</v>
-      </c>
-      <c r="N45" t="s">
-        <v>453</v>
-      </c>
-      <c r="X45" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z45" s="34" t="s">
+      <c r="Z45" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="AA45" s="32" t="s">
+      <c r="AA45" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="AB45" s="32" t="s">
+      <c r="AB45" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="AC45" s="32" t="s">
+      <c r="AC45" s="29" t="s">
         <v>116</v>
       </c>
       <c r="AD45" s="13" t="s">
@@ -6032,67 +6004,67 @@
       <c r="AE45" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF45" s="14" t="s">
+      <c r="BD45" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BJ45" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="BK45" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="46" spans="1:67">
+      <c r="BH45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="BI45" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:65">
       <c r="A46" s="12">
         <v>1</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C46" t="s">
+        <v>362</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E46" t="s">
+        <v>363</v>
+      </c>
+      <c r="N46" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z46" s="34"/>
+      <c r="BD46" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE46" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="E46" t="s">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z46" s="37"/>
-      <c r="BF46" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG46" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="BJ46" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:67">
+      <c r="BH46" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:65">
       <c r="A47" s="12">
         <v>1</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C47" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E47" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="P47" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z47" s="34" t="s">
-        <v>239</v>
+        <v>451</v>
+      </c>
+      <c r="Z47" s="31" t="s">
+        <v>237</v>
       </c>
       <c r="AA47" s="13" t="s">
         <v>92</v>
@@ -6110,7 +6082,7 @@
         <v>98</v>
       </c>
       <c r="AF47" s="13" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="AG47" s="13" t="s">
         <v>99</v>
@@ -6127,78 +6099,78 @@
       <c r="AK47" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="BF47" t="s">
-        <v>488</v>
-      </c>
-      <c r="BG47">
+      <c r="BD47" t="s">
+        <v>486</v>
+      </c>
+      <c r="BE47">
         <v>1888</v>
       </c>
-      <c r="BJ47" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:67">
+      <c r="BH47" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:65">
       <c r="A48" s="12">
         <v>1</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C48" t="s">
         <v>489</v>
       </c>
-      <c r="C48" t="s">
-        <v>491</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E48" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N48" t="s">
-        <v>453</v>
-      </c>
-      <c r="Z48" s="37"/>
-      <c r="BJ48" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:63">
-      <c r="Z49" s="37"/>
-      <c r="BF49" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z48" s="34"/>
+      <c r="BH48" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:61">
+      <c r="Z49" s="34"/>
+      <c r="BD49" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BJ49" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:63">
+      <c r="BH49" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:61">
       <c r="A50" s="12">
         <v>1</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C50" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D50" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="E50" t="s">
+        <v>502</v>
+      </c>
+      <c r="F50" t="s">
+        <v>411</v>
+      </c>
+      <c r="H50" t="s">
         <v>412</v>
       </c>
-      <c r="E50" t="s">
-        <v>504</v>
-      </c>
-      <c r="F50" t="s">
+      <c r="N50" t="s">
         <v>413</v>
       </c>
-      <c r="H50" t="s">
-        <v>414</v>
-      </c>
-      <c r="N50" t="s">
-        <v>415</v>
-      </c>
       <c r="X50" t="s">
-        <v>485</v>
-      </c>
-      <c r="Z50" s="34" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z50" s="31" t="s">
         <v>34</v>
       </c>
       <c r="AA50" s="13" t="s">
@@ -6210,54 +6182,54 @@
       <c r="AC50" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AD50" s="32" t="s">
+      <c r="AD50" s="29" t="s">
         <v>32</v>
       </c>
       <c r="AE50" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF50" s="14" t="s">
+      <c r="BD50" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BJ50" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK50" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:63">
+      <c r="BH50" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI50" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="51" spans="1:61">
       <c r="A51" s="12">
         <v>1</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C51" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D51" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E51" t="s">
+        <v>439</v>
+      </c>
+      <c r="F51" t="s">
+        <v>473</v>
+      </c>
+      <c r="H51" t="s">
         <v>474</v>
       </c>
-      <c r="E51" t="s">
-        <v>441</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="J51" t="s">
         <v>475</v>
       </c>
-      <c r="H51" t="s">
+      <c r="N51" t="s">
+        <v>451</v>
+      </c>
+      <c r="X51" t="s">
         <v>476</v>
       </c>
-      <c r="J51" t="s">
-        <v>477</v>
-      </c>
-      <c r="N51" t="s">
-        <v>453</v>
-      </c>
-      <c r="X51" t="s">
-        <v>478</v>
-      </c>
-      <c r="Z51" s="34" t="s">
+      <c r="Z51" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AA51" s="13" t="s">
@@ -6275,45 +6247,45 @@
       <c r="AE51" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF51" s="14" t="s">
+      <c r="BD51" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BJ51" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK51" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="52" spans="1:63">
+      <c r="BH51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI51" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:61">
       <c r="A52" s="12">
         <v>1</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C52" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F52" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H52" t="s">
+        <v>400</v>
+      </c>
+      <c r="N52" t="s">
+        <v>401</v>
+      </c>
+      <c r="X52" t="s">
         <v>402</v>
       </c>
-      <c r="N52" t="s">
-        <v>403</v>
-      </c>
-      <c r="X52" t="s">
-        <v>404</v>
-      </c>
-      <c r="Z52" s="34" t="s">
+      <c r="Z52" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AA52" s="13" t="s">
@@ -6325,55 +6297,55 @@
       <c r="AC52" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AD52" s="32" t="s">
+      <c r="AD52" s="29" t="s">
         <v>38</v>
       </c>
       <c r="AE52" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF52" s="14" t="s">
+      <c r="BD52" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BH52" s="13"/>
-      <c r="BJ52" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="BK52" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="53" spans="1:63">
+      <c r="BF52" s="13"/>
+      <c r="BH52" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI52" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="53" spans="1:61">
       <c r="A53" s="12">
         <v>1</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="E53" t="s">
+        <v>441</v>
+      </c>
+      <c r="F53" t="s">
         <v>369</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="H53" t="s">
+        <v>521</v>
+      </c>
+      <c r="J53" t="s">
         <v>522</v>
       </c>
-      <c r="E53" t="s">
-        <v>443</v>
-      </c>
-      <c r="F53" t="s">
-        <v>371</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="N53" t="s">
+        <v>451</v>
+      </c>
+      <c r="X53" t="s">
         <v>523</v>
       </c>
-      <c r="J53" t="s">
-        <v>524</v>
-      </c>
-      <c r="N53" t="s">
-        <v>453</v>
-      </c>
-      <c r="X53" t="s">
-        <v>525</v>
-      </c>
-      <c r="Z53" s="34" t="s">
+      <c r="Z53" s="31" t="s">
         <v>85</v>
       </c>
       <c r="AA53" s="13" t="s">
@@ -6391,52 +6363,52 @@
       <c r="AE53" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="BF53" s="14" t="s">
+      <c r="BD53" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="BG53" s="15" t="s">
-        <v>465</v>
-      </c>
-      <c r="BJ53" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:63">
+      <c r="BE53" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="BH53" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:61">
       <c r="A54" s="12"/>
-      <c r="Z54" s="37"/>
-    </row>
-    <row r="55" spans="1:63">
+      <c r="Z54" s="34"/>
+    </row>
+    <row r="55" spans="1:61">
       <c r="A55" s="12">
         <v>1</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C55" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E55" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="F55" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" t="s">
+        <v>443</v>
+      </c>
+      <c r="H55" t="s">
         <v>444</v>
       </c>
-      <c r="G55" t="s">
+      <c r="N55" t="s">
+        <v>401</v>
+      </c>
+      <c r="X55" t="s">
         <v>445</v>
       </c>
-      <c r="H55" t="s">
-        <v>446</v>
-      </c>
-      <c r="N55" t="s">
-        <v>403</v>
-      </c>
-      <c r="X55" t="s">
-        <v>447</v>
-      </c>
-      <c r="Z55" s="34" t="s">
+      <c r="Z55" s="31" t="s">
         <v>42</v>
       </c>
       <c r="AA55" s="13" t="s">
@@ -6448,55 +6420,55 @@
       <c r="AC55" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AD55" s="32" t="s">
+      <c r="AD55" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="BF55" t="s">
-        <v>455</v>
-      </c>
-      <c r="BH55" s="13"/>
-      <c r="BJ55" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="56" spans="1:63">
+      <c r="BD55" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF55" s="13"/>
+      <c r="BH55" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:61">
       <c r="A56" s="12">
         <v>1</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C56" t="s">
+        <v>446</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E56" t="s">
+        <v>492</v>
+      </c>
+      <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G56" t="s">
         <v>448</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="H56" t="s">
         <v>494</v>
       </c>
-      <c r="F56" t="s">
+      <c r="J56" t="s">
+        <v>478</v>
+      </c>
+      <c r="L56" t="s">
+        <v>401</v>
+      </c>
+      <c r="X56" t="s">
         <v>495</v>
       </c>
-      <c r="G56" t="s">
-        <v>450</v>
-      </c>
-      <c r="H56" t="s">
-        <v>496</v>
-      </c>
-      <c r="J56" t="s">
-        <v>480</v>
-      </c>
-      <c r="L56" t="s">
-        <v>403</v>
-      </c>
-      <c r="X56" t="s">
-        <v>497</v>
-      </c>
-      <c r="Z56" s="34" t="s">
+      <c r="Z56" s="31" t="s">
         <v>47</v>
       </c>
       <c r="AA56" s="13" t="s">
@@ -6508,7 +6480,7 @@
       <c r="AC56" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AD56" s="32" t="s">
+      <c r="AD56" s="29" t="s">
         <v>46</v>
       </c>
       <c r="AE56" s="13" t="s">
@@ -6532,48 +6504,48 @@
       <c r="AK56" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BF56" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ56" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="57" spans="1:63">
+      <c r="BD56" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH56" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:61">
       <c r="A57" s="12">
         <v>1</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C57" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F57" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H57" t="s">
+        <v>494</v>
+      </c>
+      <c r="J57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="X57" t="s">
         <v>496</v>
       </c>
-      <c r="J57" t="s">
-        <v>481</v>
-      </c>
-      <c r="L57" t="s">
-        <v>453</v>
-      </c>
-      <c r="X57" t="s">
-        <v>498</v>
-      </c>
-      <c r="Z57" s="34" t="s">
+      <c r="Z57" s="31" t="s">
         <v>43</v>
       </c>
       <c r="AA57" s="13" t="s">
@@ -6609,48 +6581,48 @@
       <c r="AK57" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BF57" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ57" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:63">
+      <c r="BD57" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH57" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:61">
       <c r="A58" s="12">
         <v>1</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C58" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E58" t="s">
+        <v>482</v>
+      </c>
+      <c r="F58" t="s">
+        <v>493</v>
+      </c>
+      <c r="G58" t="s">
         <v>448</v>
       </c>
-      <c r="D58" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="E58" t="s">
-        <v>484</v>
-      </c>
-      <c r="F58" t="s">
-        <v>495</v>
-      </c>
-      <c r="G58" t="s">
-        <v>450</v>
-      </c>
       <c r="H58" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J58" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="L58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="X58" t="s">
-        <v>499</v>
-      </c>
-      <c r="Z58" s="31" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z58" s="28" t="s">
         <v>116</v>
       </c>
       <c r="AA58" s="13" t="s">
@@ -6680,86 +6652,86 @@
       <c r="AI58" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AJ58" s="32" t="s">
+      <c r="AJ58" s="29" t="s">
         <v>57</v>
       </c>
       <c r="AK58" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF58" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ58" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="1:63">
+      <c r="BD58" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH58" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:61">
       <c r="A59" s="12">
         <v>1</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C59" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E59" t="s">
         <v>557</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>558</v>
+      </c>
+      <c r="G59" t="s">
         <v>559</v>
       </c>
-      <c r="F59" t="s">
+      <c r="H59" t="s">
         <v>560</v>
       </c>
-      <c r="G59" t="s">
+      <c r="V59" t="s">
         <v>561</v>
       </c>
-      <c r="H59" t="s">
+      <c r="X59" t="s">
         <v>562</v>
       </c>
-      <c r="V59" t="s">
-        <v>563</v>
-      </c>
-      <c r="X59" t="s">
-        <v>564</v>
-      </c>
-      <c r="AC59" s="32"/>
-      <c r="BF59" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ59" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="60" spans="1:63">
+      <c r="AC59" s="29"/>
+      <c r="BD59" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH59" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:61">
       <c r="A60" s="12">
         <v>1</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C60" t="s">
+        <v>554</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="D60" s="11" t="s">
-        <v>558</v>
-      </c>
       <c r="E60" t="s">
+        <v>564</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H60" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>568</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="18" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
@@ -6773,95 +6745,95 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="W60" s="9"/>
       <c r="X60" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="BF60" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ60" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:63">
+        <v>563</v>
+      </c>
+      <c r="BD60" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH60" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:61">
       <c r="A61" s="12">
         <v>1</v>
       </c>
       <c r="B61" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C61" t="s">
+        <v>491</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>528</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>529</v>
+      </c>
+      <c r="X61" t="s">
         <v>469</v>
       </c>
-      <c r="C61" t="s">
-        <v>493</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>530</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="X61" t="s">
-        <v>471</v>
-      </c>
       <c r="Y61" s="13" t="s">
-        <v>472</v>
-      </c>
-      <c r="BF61" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ61" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:63">
+        <v>470</v>
+      </c>
+      <c r="BD61" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH61" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:61">
       <c r="A62" s="12">
         <v>1</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>141</v>
       </c>
       <c r="E62" t="s">
+        <v>604</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="G62" s="9" t="s">
+      <c r="W62" t="s">
+        <v>451</v>
+      </c>
+      <c r="X62" t="s">
         <v>607</v>
       </c>
-      <c r="H62" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="W62" t="s">
-        <v>453</v>
-      </c>
-      <c r="X62" t="s">
-        <v>609</v>
-      </c>
-      <c r="Z62" s="34" t="s">
+      <c r="Z62" s="31" t="s">
         <v>61</v>
       </c>
       <c r="AA62" s="13" t="s">
@@ -6879,46 +6851,46 @@
       <c r="AE62" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF62" t="s">
-        <v>455</v>
-      </c>
-      <c r="BH62" s="13"/>
-      <c r="BJ62" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:63">
+      <c r="BD62" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF62" s="13"/>
+      <c r="BH62" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:61">
       <c r="A63" s="12">
         <v>1</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C63" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E63" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="G63" s="9" t="s">
+      <c r="W63" t="s">
+        <v>561</v>
+      </c>
+      <c r="X63" t="s">
         <v>540</v>
       </c>
-      <c r="H63" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="W63" t="s">
-        <v>563</v>
-      </c>
-      <c r="X63" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z63" s="34" t="s">
+      <c r="Z63" s="31" t="s">
         <v>64</v>
       </c>
       <c r="AA63" s="13" t="s">
@@ -6930,148 +6902,148 @@
       <c r="AC63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="AD63" s="32" t="s">
+      <c r="AD63" s="29" t="s">
         <v>63</v>
       </c>
       <c r="AE63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF63" t="s">
-        <v>455</v>
-      </c>
-      <c r="BH63" s="13"/>
-      <c r="BJ63" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:63">
+      <c r="BD63" t="s">
+        <v>453</v>
+      </c>
+      <c r="BF63" s="13"/>
+      <c r="BH63" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:61">
       <c r="A64" s="12">
         <v>1</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" t="s">
         <v>390</v>
       </c>
-      <c r="C64" t="s">
-        <v>392</v>
-      </c>
       <c r="D64" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
+        <v>515</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="G64" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="G64" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>520</v>
-      </c>
       <c r="J64" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="V64" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="X64" t="s">
-        <v>594</v>
-      </c>
-      <c r="BF64" t="s">
+        <v>592</v>
+      </c>
+      <c r="BD64" t="s">
         <v>0</v>
       </c>
-      <c r="BG64">
+      <c r="BE64">
         <v>1882</v>
       </c>
-      <c r="BH64" s="13"/>
-      <c r="BJ64" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="65" spans="1:62">
+      <c r="BF64" s="13"/>
+      <c r="BH64" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60">
       <c r="A65" s="12">
         <v>1</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C65" t="s">
         <v>390</v>
       </c>
-      <c r="C65" t="s">
-        <v>392</v>
-      </c>
       <c r="D65" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E65" t="s">
+        <v>514</v>
+      </c>
+      <c r="F65" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>518</v>
-      </c>
       <c r="G65" s="9" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H65" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="J65" t="s">
         <v>595</v>
       </c>
-      <c r="J65" t="s">
+      <c r="V65" t="s">
+        <v>596</v>
+      </c>
+      <c r="X65" t="s">
         <v>597</v>
       </c>
-      <c r="V65" t="s">
-        <v>598</v>
-      </c>
-      <c r="X65" t="s">
-        <v>599</v>
-      </c>
-      <c r="BF65" t="s">
+      <c r="BD65" t="s">
         <v>0</v>
       </c>
-      <c r="BG65">
+      <c r="BE65">
         <v>1882</v>
       </c>
-      <c r="BH65" s="13"/>
-      <c r="BJ65" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="66" spans="1:62">
+      <c r="BF65" s="13"/>
+      <c r="BH65" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:60">
       <c r="A66" s="12">
         <v>1</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>631</v>
+      </c>
+      <c r="E66" t="s">
+        <v>632</v>
+      </c>
+      <c r="F66" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="E66" t="s">
+      <c r="G66" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>636</v>
-      </c>
       <c r="J66" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="W66" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="X66" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Y66" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="Z66" s="34" t="s">
+        <v>577</v>
+      </c>
+      <c r="Z66" s="31" t="s">
         <v>65</v>
       </c>
       <c r="AA66" s="13" t="s">
@@ -7089,293 +7061,293 @@
       <c r="AE66" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="BF66" t="s">
-        <v>581</v>
-      </c>
-      <c r="BG66" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="BH66" s="13"/>
-      <c r="BI66" s="13"/>
-      <c r="BJ66" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:62">
+      <c r="BD66" t="s">
+        <v>579</v>
+      </c>
+      <c r="BE66" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="BF66" s="13"/>
+      <c r="BG66" s="13"/>
+      <c r="BH66" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60">
       <c r="A67" s="12"/>
     </row>
-    <row r="68" spans="1:62">
+    <row r="68" spans="1:60">
       <c r="A68" s="12">
         <v>1</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C68" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D68" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E68" t="s">
+        <v>551</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
         <v>552</v>
       </c>
-      <c r="E68" t="s">
-        <v>553</v>
-      </c>
-      <c r="F68" t="s">
-        <v>495</v>
-      </c>
-      <c r="G68" t="s">
-        <v>554</v>
-      </c>
       <c r="H68" t="s">
+        <v>625</v>
+      </c>
+      <c r="J68" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q68" t="s">
         <v>627</v>
       </c>
-      <c r="J68" t="s">
+      <c r="X68" t="s">
         <v>628</v>
       </c>
-      <c r="Q68" t="s">
-        <v>629</v>
-      </c>
-      <c r="X68" t="s">
-        <v>630</v>
-      </c>
-      <c r="BF68" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ68" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="1:62">
+      <c r="BD68" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH68" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60">
       <c r="A69" s="12">
         <v>1</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C69" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D69" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E69" t="s">
+        <v>551</v>
+      </c>
+      <c r="F69" t="s">
+        <v>493</v>
+      </c>
+      <c r="G69" t="s">
         <v>552</v>
       </c>
-      <c r="E69" t="s">
+      <c r="H69" t="s">
         <v>553</v>
       </c>
-      <c r="F69" t="s">
-        <v>495</v>
-      </c>
-      <c r="G69" t="s">
-        <v>554</v>
-      </c>
-      <c r="H69" t="s">
-        <v>555</v>
-      </c>
       <c r="J69" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q69" t="s">
+        <v>451</v>
+      </c>
+      <c r="X69" t="s">
+        <v>629</v>
+      </c>
+      <c r="BD69" t="s">
         <v>453</v>
       </c>
-      <c r="X69" t="s">
-        <v>631</v>
-      </c>
-      <c r="BF69" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ69" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="1:62">
+      <c r="BH69" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:60">
       <c r="A70" s="12">
         <v>1</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C70" t="s">
+        <v>567</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="E70" t="s">
+        <v>568</v>
+      </c>
+      <c r="F70" t="s">
         <v>569</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>632</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="G70" t="s">
         <v>570</v>
       </c>
-      <c r="F70" t="s">
+      <c r="H70" t="s">
         <v>571</v>
       </c>
-      <c r="G70" t="s">
+      <c r="J70" t="s">
         <v>572</v>
       </c>
-      <c r="H70" t="s">
+      <c r="V70" t="s">
+        <v>451</v>
+      </c>
+      <c r="X70" t="s">
         <v>573</v>
       </c>
-      <c r="J70" t="s">
-        <v>574</v>
-      </c>
-      <c r="V70" t="s">
+      <c r="BD70" t="s">
         <v>453</v>
       </c>
-      <c r="X70" t="s">
-        <v>575</v>
-      </c>
-      <c r="BF70" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ70" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:62">
+      <c r="BH70" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60">
       <c r="A71" s="12">
         <v>1</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C71" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E71" t="s">
+        <v>621</v>
+      </c>
+      <c r="F71" t="s">
+        <v>622</v>
+      </c>
+      <c r="G71" t="s">
+        <v>559</v>
+      </c>
+      <c r="H71" t="s">
+        <v>560</v>
+      </c>
+      <c r="V71" t="s">
+        <v>451</v>
+      </c>
+      <c r="X71" t="s">
         <v>623</v>
       </c>
-      <c r="F71" t="s">
-        <v>624</v>
-      </c>
-      <c r="G71" t="s">
-        <v>561</v>
-      </c>
-      <c r="H71" t="s">
-        <v>562</v>
-      </c>
-      <c r="V71" t="s">
+      <c r="BD71" t="s">
         <v>453</v>
       </c>
-      <c r="X71" t="s">
-        <v>625</v>
-      </c>
-      <c r="BF71" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ71" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="1:62">
+      <c r="BH71" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:60">
       <c r="A72" s="12">
         <v>1</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C72" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E72" t="s">
+        <v>541</v>
+      </c>
+      <c r="F72" t="s">
+        <v>565</v>
+      </c>
+      <c r="G72" t="s">
+        <v>542</v>
+      </c>
+      <c r="H72" t="s">
+        <v>566</v>
+      </c>
+      <c r="J72" t="s">
         <v>543</v>
       </c>
-      <c r="F72" t="s">
-        <v>567</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="V72" t="s">
+        <v>451</v>
+      </c>
+      <c r="X72" t="s">
         <v>544</v>
       </c>
-      <c r="H72" t="s">
-        <v>568</v>
-      </c>
-      <c r="J72" t="s">
-        <v>545</v>
-      </c>
-      <c r="V72" t="s">
+      <c r="BD72" t="s">
         <v>453</v>
       </c>
-      <c r="X72" t="s">
-        <v>546</v>
-      </c>
-      <c r="BF72" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ72" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="1:62">
+      <c r="BH72" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60">
       <c r="A73" s="12">
         <v>1</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C73" t="s">
+        <v>545</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="E73" t="s">
+        <v>541</v>
+      </c>
+      <c r="F73" t="s">
         <v>547</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="G73" t="s">
         <v>548</v>
       </c>
-      <c r="E73" t="s">
-        <v>543</v>
-      </c>
-      <c r="F73" t="s">
+      <c r="H73" t="s">
         <v>549</v>
       </c>
-      <c r="G73" t="s">
-        <v>550</v>
-      </c>
-      <c r="H73" t="s">
-        <v>551</v>
-      </c>
       <c r="V73" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="X73" t="s">
-        <v>617</v>
-      </c>
-      <c r="BF73" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ73" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="1:62">
+        <v>615</v>
+      </c>
+      <c r="BD73" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH73" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:60">
       <c r="A74" s="12">
         <v>1</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C74" t="s">
+        <v>614</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="E74" t="s">
+        <v>613</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>635</v>
+      </c>
+      <c r="H74" t="s">
+        <v>617</v>
+      </c>
+      <c r="K74" t="s">
+        <v>561</v>
+      </c>
+      <c r="X74" t="s">
         <v>616</v>
       </c>
-      <c r="D74" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="E74" t="s">
-        <v>615</v>
-      </c>
-      <c r="F74" t="s">
-        <v>495</v>
-      </c>
-      <c r="G74" t="s">
-        <v>637</v>
-      </c>
-      <c r="H74" t="s">
-        <v>619</v>
-      </c>
-      <c r="K74" t="s">
-        <v>563</v>
-      </c>
-      <c r="X74" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z74" s="31" t="s">
+      <c r="Z74" s="28" t="s">
         <v>70</v>
       </c>
       <c r="AA74" s="13" t="s">
@@ -7400,7 +7372,7 @@
         <v>91</v>
       </c>
       <c r="AH74" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI74" s="10" t="s">
         <v>116</v>
@@ -7411,48 +7383,48 @@
       <c r="AK74" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF74" t="s">
-        <v>620</v>
-      </c>
-      <c r="BG74">
+      <c r="BD74" t="s">
+        <v>618</v>
+      </c>
+      <c r="BE74">
         <v>1880</v>
       </c>
-      <c r="BJ74" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="75" spans="1:62">
+      <c r="BH74" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60">
       <c r="A75" s="12">
         <v>1</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C75" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D75" t="s">
+        <v>611</v>
+      </c>
+      <c r="E75" t="s">
         <v>613</v>
       </c>
-      <c r="E75" t="s">
-        <v>615</v>
-      </c>
       <c r="F75" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="G75" s="14" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H75" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="K75" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="X75" t="s">
-        <v>618</v>
-      </c>
-      <c r="Z75" s="31" t="s">
+        <v>616</v>
+      </c>
+      <c r="Z75" s="28" t="s">
         <v>70</v>
       </c>
       <c r="AA75" s="13" t="s">
@@ -7477,7 +7449,7 @@
         <v>91</v>
       </c>
       <c r="AH75" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI75" s="10" t="s">
         <v>116</v>
@@ -7488,55 +7460,55 @@
       <c r="AK75" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF75" t="s">
-        <v>622</v>
-      </c>
-      <c r="BG75">
+      <c r="BD75" t="s">
+        <v>620</v>
+      </c>
+      <c r="BE75">
         <v>1880</v>
       </c>
-      <c r="BJ75" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="76" spans="1:62">
+      <c r="BH75" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:60">
       <c r="A76" s="12">
         <v>1</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C76" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D76" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="E76" t="s">
+        <v>599</v>
+      </c>
+      <c r="F76" t="s">
+        <v>622</v>
+      </c>
+      <c r="G76" t="s">
         <v>600</v>
       </c>
-      <c r="E76" t="s">
+      <c r="H76" t="s">
         <v>601</v>
       </c>
-      <c r="F76" t="s">
-        <v>624</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="S76" t="s">
         <v>602</v>
       </c>
-      <c r="H76" t="s">
-        <v>603</v>
-      </c>
-      <c r="S76" t="s">
-        <v>604</v>
-      </c>
       <c r="X76" t="s">
-        <v>534</v>
-      </c>
-      <c r="Z76" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="Z76" s="32" t="s">
         <v>135</v>
       </c>
       <c r="AA76" s="13" t="s">
         <v>91</v>
       </c>
       <c r="AB76" s="10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC76" s="10" t="s">
         <v>116</v>
@@ -7547,52 +7519,52 @@
       <c r="AE76" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="BF76" t="s">
-        <v>535</v>
-      </c>
-      <c r="BJ76" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:62">
+      <c r="BD76" t="s">
+        <v>533</v>
+      </c>
+      <c r="BH76" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:60">
       <c r="A77" s="12">
         <v>1</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C77" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>584</v>
+      </c>
+      <c r="E77" t="s">
+        <v>585</v>
+      </c>
+      <c r="F77" t="s">
+        <v>622</v>
+      </c>
+      <c r="G77" t="s">
+        <v>605</v>
+      </c>
+      <c r="H77" t="s">
         <v>586</v>
       </c>
-      <c r="E77" t="s">
+      <c r="S77" t="s">
+        <v>451</v>
+      </c>
+      <c r="X77" t="s">
         <v>587</v>
       </c>
-      <c r="F77" t="s">
-        <v>624</v>
-      </c>
-      <c r="G77" t="s">
-        <v>607</v>
-      </c>
-      <c r="H77" t="s">
-        <v>588</v>
-      </c>
-      <c r="S77" t="s">
-        <v>453</v>
-      </c>
-      <c r="X77" t="s">
-        <v>589</v>
-      </c>
-      <c r="Z77" s="34" t="s">
-        <v>5</v>
+      <c r="Z77" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="AA77" s="13" t="s">
         <v>91</v>
       </c>
       <c r="AB77" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC77" s="13" t="s">
         <v>116</v>
@@ -7601,51 +7573,51 @@
         <v>117</v>
       </c>
       <c r="AE77" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:60">
       <c r="A78" s="12">
         <v>1</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C78" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>588</v>
+      </c>
+      <c r="E78" t="s">
+        <v>589</v>
+      </c>
+      <c r="F78" t="s">
+        <v>622</v>
+      </c>
+      <c r="G78" t="s">
         <v>590</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>591</v>
       </c>
-      <c r="F78" t="s">
-        <v>624</v>
-      </c>
-      <c r="G78" t="s">
-        <v>592</v>
-      </c>
-      <c r="H78" t="s">
-        <v>593</v>
-      </c>
       <c r="J78" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="S78" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="X78" t="s">
-        <v>611</v>
-      </c>
-      <c r="Z78" s="34" t="s">
-        <v>5</v>
+        <v>609</v>
+      </c>
+      <c r="Z78" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="AA78" s="13" t="s">
         <v>91</v>
       </c>
       <c r="AB78" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC78" s="13" t="s">
         <v>116</v>
@@ -7654,167 +7626,167 @@
         <v>117</v>
       </c>
       <c r="AE78" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="BF78" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG78" s="9"/>
-      <c r="BI78" s="13"/>
-      <c r="BJ78" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" spans="1:62">
+        <v>8</v>
+      </c>
+      <c r="BD78" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE78" s="9"/>
+      <c r="BG78" s="13"/>
+      <c r="BH78" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:60">
       <c r="A79" s="12">
         <v>1</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C79" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E79" t="s">
+        <v>636</v>
+      </c>
+      <c r="F79" t="s">
+        <v>637</v>
+      </c>
+      <c r="G79" t="s">
+        <v>581</v>
+      </c>
+      <c r="H79" t="s">
+        <v>582</v>
+      </c>
+      <c r="J79" t="s">
         <v>638</v>
       </c>
-      <c r="F79" t="s">
+      <c r="Q79" t="s">
         <v>639</v>
       </c>
-      <c r="G79" t="s">
-        <v>583</v>
-      </c>
-      <c r="H79" t="s">
-        <v>584</v>
-      </c>
-      <c r="J79" t="s">
-        <v>640</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>641</v>
-      </c>
       <c r="X79" t="s">
-        <v>576</v>
-      </c>
-      <c r="BF79" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD79" t="s">
         <v>2</v>
       </c>
-      <c r="BJ79" s="13" t="s">
+      <c r="BH79" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:60">
       <c r="A80" s="12">
         <v>1</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C80" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D80" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F80" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="G80" t="s">
+        <v>581</v>
+      </c>
+      <c r="H80" t="s">
         <v>583</v>
       </c>
-      <c r="H80" t="s">
-        <v>585</v>
-      </c>
       <c r="J80" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Q80" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="W80" t="s">
         <v>143</v>
       </c>
       <c r="X80" t="s">
-        <v>576</v>
-      </c>
-      <c r="BF80" t="s">
+        <v>574</v>
+      </c>
+      <c r="BD80" t="s">
         <v>1</v>
       </c>
-      <c r="BJ80" s="13" t="s">
+      <c r="BH80" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:62">
+    <row r="81" spans="1:60">
       <c r="A81" s="12">
         <v>1</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J81" s="9" t="s">
         <v>218</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="W81" t="s">
         <v>142</v>
       </c>
       <c r="X81" t="s">
-        <v>576</v>
-      </c>
-      <c r="Z81" s="34" t="s">
-        <v>9</v>
+        <v>574</v>
+      </c>
+      <c r="Z81" s="31" t="s">
+        <v>10</v>
       </c>
       <c r="AA81" s="13" t="s">
         <v>119</v>
       </c>
       <c r="AB81" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC81" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD81" s="13" t="s">
         <v>118</v>
       </c>
       <c r="AE81" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF81" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ81" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:62">
+        <v>12</v>
+      </c>
+      <c r="BD81" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH81" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:60">
       <c r="A82" s="12">
         <v>1</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>138</v>
@@ -7823,37 +7795,37 @@
         <v>139</v>
       </c>
       <c r="F82" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G82" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G82" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="H82" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J82" s="9"/>
       <c r="V82" t="s">
         <v>144</v>
       </c>
       <c r="X82" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF82" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ82" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD82" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH82" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:60">
       <c r="A83" s="12">
         <v>1</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>138</v>
@@ -7862,34 +7834,34 @@
         <v>139</v>
       </c>
       <c r="F83" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="G83" s="9" t="s">
-        <v>224</v>
-      </c>
       <c r="H83" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J83" s="9"/>
       <c r="V83" t="s">
         <v>144</v>
       </c>
       <c r="X83" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF83" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ83" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD83" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH83" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:60">
       <c r="A84" s="12">
         <v>1</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C84" s="9" t="s">
         <v>145</v>
@@ -7898,45 +7870,45 @@
         <v>138</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F84" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H84" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="J84" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="V84" t="s">
         <v>142</v>
       </c>
       <c r="X84" t="s">
-        <v>202</v>
-      </c>
-      <c r="BF84" t="s">
-        <v>455</v>
-      </c>
-      <c r="BG84">
+        <v>200</v>
+      </c>
+      <c r="BD84" t="s">
+        <v>453</v>
+      </c>
+      <c r="BE84">
         <v>1894</v>
       </c>
-      <c r="BJ84" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="85" spans="1:62">
+      <c r="BH84" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:60">
       <c r="A85" s="12">
         <v>1</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>138</v>
@@ -7945,39 +7917,39 @@
         <v>140</v>
       </c>
       <c r="F85" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H85" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="J85" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="H85" s="9" t="s">
+      <c r="V85" t="s">
         <v>191</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="V85" t="s">
-        <v>193</v>
-      </c>
       <c r="X85" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF85" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ85" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD85" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH85" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:60">
       <c r="A86" s="12">
         <v>1</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>138</v>
@@ -7986,37 +7958,37 @@
         <v>140</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G86" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H86" s="9" t="s">
         <v>194</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="J86" s="9"/>
       <c r="V86" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X86" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF86" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ86" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="87" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD86" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH86" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:60">
       <c r="A87" s="12">
         <v>1</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>138</v>
@@ -8025,131 +7997,131 @@
         <v>140</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J87" s="9"/>
       <c r="V87" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="X87" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF87" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ87" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD87" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH87" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:60">
       <c r="A88" s="12">
         <v>1</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>138</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J88" s="9"/>
       <c r="V88" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="X88" t="s">
-        <v>223</v>
-      </c>
-      <c r="BF88" t="s">
-        <v>455</v>
-      </c>
-      <c r="BJ88" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:62">
+        <v>221</v>
+      </c>
+      <c r="BD88" t="s">
+        <v>453</v>
+      </c>
+      <c r="BH88" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:60">
       <c r="B90" t="s">
+        <v>204</v>
+      </c>
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
+      </c>
+      <c r="E90" t="s">
+        <v>209</v>
+      </c>
+      <c r="L90" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE90">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:60">
+      <c r="B91" t="s">
+        <v>204</v>
+      </c>
+      <c r="C91" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" t="s">
+        <v>208</v>
+      </c>
+      <c r="E91" t="s">
+        <v>212</v>
+      </c>
+      <c r="J91" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:60">
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>211</v>
+      </c>
+      <c r="D92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E92" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="93" spans="1:60">
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:60">
+      <c r="B94" t="s">
         <v>206</v>
       </c>
-      <c r="C90" t="s">
-        <v>212</v>
-      </c>
-      <c r="D90" t="s">
-        <v>210</v>
-      </c>
-      <c r="E90" t="s">
-        <v>211</v>
-      </c>
-      <c r="L90" t="s">
-        <v>193</v>
-      </c>
-      <c r="BG90">
-        <v>1892</v>
-      </c>
-    </row>
-    <row r="91" spans="1:62">
-      <c r="B91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C91" t="s">
-        <v>213</v>
-      </c>
-      <c r="D91" t="s">
-        <v>210</v>
-      </c>
-      <c r="E91" t="s">
-        <v>214</v>
-      </c>
-      <c r="J91" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:62">
-      <c r="B92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C92" t="s">
-        <v>213</v>
-      </c>
-      <c r="D92" t="s">
-        <v>210</v>
-      </c>
-      <c r="E92" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:62">
-      <c r="B93" t="s">
+    </row>
+    <row r="95" spans="1:60">
+      <c r="B95" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:62">
-      <c r="B94" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:62">
-      <c r="B95" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
